--- a/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9803900141900495</v>
+        <v>0.9803900141900486</v>
       </c>
       <c r="D2">
-        <v>0.9995163938344099</v>
+        <v>0.9995163938344089</v>
       </c>
       <c r="E2">
-        <v>0.9887044059202702</v>
+        <v>0.9887044059202688</v>
       </c>
       <c r="F2">
-        <v>0.982056520144689</v>
+        <v>0.9820565201446876</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034822748589115</v>
+        <v>1.034822748589114</v>
       </c>
       <c r="J2">
-        <v>1.003173505786304</v>
+        <v>1.003173505786303</v>
       </c>
       <c r="K2">
-        <v>1.010982470173021</v>
+        <v>1.01098247017302</v>
       </c>
       <c r="L2">
-        <v>1.000323382131306</v>
+        <v>1.000323382131304</v>
       </c>
       <c r="M2">
-        <v>0.9937716287092196</v>
+        <v>0.9937716287092182</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9924905816207582</v>
+        <v>0.9924905816207575</v>
       </c>
       <c r="D3">
-        <v>1.009119218371392</v>
+        <v>1.009119218371391</v>
       </c>
       <c r="E3">
         <v>1.000230142490214</v>
       </c>
       <c r="F3">
-        <v>0.9945590389341949</v>
+        <v>0.9945590389341945</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>1.010860079446897</v>
       </c>
       <c r="M3">
-        <v>1.005262014536849</v>
+        <v>1.005262014536848</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9999237239606235</v>
+        <v>0.9999237239606232</v>
       </c>
       <c r="D4">
-        <v>1.015015429240999</v>
+        <v>1.015015429240998</v>
       </c>
       <c r="E4">
-        <v>1.007316287702076</v>
+        <v>1.007316287702075</v>
       </c>
       <c r="F4">
-        <v>1.002247352732623</v>
+        <v>1.002247352732622</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042539702410715</v>
+        <v>1.042539702410714</v>
       </c>
       <c r="J4">
         <v>1.019329381088332</v>
       </c>
       <c r="K4">
-        <v>1.024935947095996</v>
+        <v>1.024935947095995</v>
       </c>
       <c r="L4">
-        <v>1.017327206338925</v>
+        <v>1.017327206338924</v>
       </c>
       <c r="M4">
-        <v>1.012318729651813</v>
+        <v>1.012318729651812</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002962556653585</v>
+        <v>1.002962556653584</v>
       </c>
       <c r="D5">
-        <v>1.017425103233846</v>
+        <v>1.017425103233845</v>
       </c>
       <c r="E5">
-        <v>1.010214592146921</v>
+        <v>1.01021459214692</v>
       </c>
       <c r="F5">
         <v>1.005392447358099</v>
@@ -550,19 +550,19 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043729476384364</v>
+        <v>1.043729476384363</v>
       </c>
       <c r="J5">
-        <v>1.02183750118515</v>
+        <v>1.021837501185149</v>
       </c>
       <c r="K5">
-        <v>1.027098230389094</v>
+        <v>1.027098230389093</v>
       </c>
       <c r="L5">
-        <v>1.019969731385608</v>
+        <v>1.019969731385607</v>
       </c>
       <c r="M5">
-        <v>1.015203244685163</v>
+        <v>1.015203244685162</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003467977244759</v>
+        <v>1.003467977244758</v>
       </c>
       <c r="D6">
-        <v>1.017825827747151</v>
+        <v>1.01782582774715</v>
       </c>
       <c r="E6">
-        <v>1.010696714838452</v>
+        <v>1.010696714838451</v>
       </c>
       <c r="F6">
         <v>1.005915654782142</v>
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043927048704199</v>
+        <v>1.043927048704198</v>
       </c>
       <c r="J6">
-        <v>1.022254499389958</v>
+        <v>1.022254499389957</v>
       </c>
       <c r="K6">
         <v>1.027457615803733</v>
       </c>
       <c r="L6">
-        <v>1.020409154168962</v>
+        <v>1.020409154168961</v>
       </c>
       <c r="M6">
         <v>1.015682972904703</v>
@@ -611,10 +611,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9999646563880704</v>
+        <v>0.9999646563880703</v>
       </c>
       <c r="D7">
-        <v>1.015047890567903</v>
+        <v>1.015047890567904</v>
       </c>
       <c r="E7">
         <v>1.007355322114631</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9845674431061863</v>
+        <v>0.9845674431061869</v>
       </c>
       <c r="D8">
-        <v>1.002831963576513</v>
+        <v>1.002831963576514</v>
       </c>
       <c r="E8">
-        <v>0.9926819887800471</v>
+        <v>0.9926819887800478</v>
       </c>
       <c r="F8">
-        <v>0.9863709167438025</v>
+        <v>0.9863709167438031</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.036482294689677</v>
       </c>
       <c r="J8">
-        <v>1.006632982911314</v>
+        <v>1.006632982911315</v>
       </c>
       <c r="K8">
         <v>1.013973710281252</v>
       </c>
       <c r="L8">
-        <v>1.003962008216172</v>
+        <v>1.003962008216173</v>
       </c>
       <c r="M8">
-        <v>0.9977387232923594</v>
+        <v>0.99773872329236</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9539010126314599</v>
+        <v>0.9539010126314609</v>
       </c>
       <c r="D9">
-        <v>0.9784913213876199</v>
+        <v>0.9784913213876207</v>
       </c>
       <c r="E9">
-        <v>0.9635175962392755</v>
+        <v>0.9635175962392762</v>
       </c>
       <c r="F9">
-        <v>0.9547385617713182</v>
+        <v>0.9547385617713194</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.024205066916677</v>
       </c>
       <c r="J9">
-        <v>0.981193680523299</v>
+        <v>0.9811936805232999</v>
       </c>
       <c r="K9">
-        <v>0.9919432753217574</v>
+        <v>0.9919432753217583</v>
       </c>
       <c r="L9">
-        <v>0.9772316723594541</v>
+        <v>0.9772316723594551</v>
       </c>
       <c r="M9">
-        <v>0.9686112971868697</v>
+        <v>0.9686112971868707</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9301703047154841</v>
+        <v>0.930170304715485</v>
       </c>
       <c r="D10">
-        <v>0.9596709841094583</v>
+        <v>0.9596709841094592</v>
       </c>
       <c r="E10">
-        <v>0.941006590710145</v>
+        <v>0.9410065907101461</v>
       </c>
       <c r="F10">
-        <v>0.9303155935434051</v>
+        <v>0.930315593543406</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.014585383584933</v>
       </c>
       <c r="J10">
-        <v>0.9614572017932315</v>
+        <v>0.9614572017932325</v>
       </c>
       <c r="K10">
-        <v>0.9748086782790206</v>
+        <v>0.9748086782790217</v>
       </c>
       <c r="L10">
-        <v>0.9565294535560387</v>
+        <v>0.9565294535560397</v>
       </c>
       <c r="M10">
-        <v>0.9460683335994476</v>
+        <v>0.9460683335994483</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9188158548187444</v>
+        <v>0.9188158548187398</v>
       </c>
       <c r="D11">
-        <v>0.9506769241125623</v>
+        <v>0.9506769241125584</v>
       </c>
       <c r="E11">
-        <v>0.9302543540678336</v>
+        <v>0.9302543540678289</v>
       </c>
       <c r="F11">
-        <v>0.9186443829840861</v>
+        <v>0.9186443829840818</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.00995648273731</v>
+        <v>1.009956482737308</v>
       </c>
       <c r="J11">
-        <v>0.9520046071286615</v>
+        <v>0.9520046071286573</v>
       </c>
       <c r="K11">
-        <v>0.9665930600249892</v>
+        <v>0.9665930600249854</v>
       </c>
       <c r="L11">
-        <v>0.9466233998258426</v>
+        <v>0.9466233998258381</v>
       </c>
       <c r="M11">
-        <v>0.9352829417901707</v>
+        <v>0.9352829417901666</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9143995255316038</v>
+        <v>0.9143995255316022</v>
       </c>
       <c r="D12">
-        <v>0.9471811751765068</v>
+        <v>0.9471811751765051</v>
       </c>
       <c r="E12">
-        <v>0.926075629602597</v>
+        <v>0.9260756296025957</v>
       </c>
       <c r="F12">
-        <v>0.9141071571136696</v>
+        <v>0.914107157113668</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008152421772069</v>
+        <v>1.008152421772068</v>
       </c>
       <c r="J12">
-        <v>0.9483269681272506</v>
+        <v>0.9483269681272493</v>
       </c>
       <c r="K12">
-        <v>0.9633954359571223</v>
+        <v>0.9633954359571206</v>
       </c>
       <c r="L12">
-        <v>0.9427707540907171</v>
+        <v>0.9427707540907159</v>
       </c>
       <c r="M12">
-        <v>0.9310882441516667</v>
+        <v>0.9310882441516651</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9153565713835988</v>
+        <v>0.9153565713835977</v>
       </c>
       <c r="D13">
-        <v>0.9479385963872413</v>
+        <v>0.9479385963872399</v>
       </c>
       <c r="E13">
-        <v>0.9269810223839782</v>
+        <v>0.9269810223839769</v>
       </c>
       <c r="F13">
-        <v>0.9150902958706496</v>
+        <v>0.9150902958706481</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008543530925589</v>
+        <v>1.008543530925588</v>
       </c>
       <c r="J13">
-        <v>0.949123974907335</v>
+        <v>0.9491239749073338</v>
       </c>
       <c r="K13">
-        <v>0.9640884686262403</v>
+        <v>0.9640884686262388</v>
       </c>
       <c r="L13">
-        <v>0.9436056231746806</v>
+        <v>0.9436056231746796</v>
       </c>
       <c r="M13">
-        <v>0.9319972442271647</v>
+        <v>0.9319972442271631</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9184551136185327</v>
+        <v>0.9184551136185323</v>
       </c>
       <c r="D14">
-        <v>0.950391322974115</v>
+        <v>0.9503913229741145</v>
       </c>
       <c r="E14">
-        <v>0.9299129496070968</v>
+        <v>0.9299129496070965</v>
       </c>
       <c r="F14">
-        <v>0.9182737193072369</v>
+        <v>0.918273719307236</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.009809191924671</v>
       </c>
       <c r="J14">
-        <v>0.9517042231467109</v>
+        <v>0.9517042231467104</v>
       </c>
       <c r="K14">
-        <v>0.9663319070080849</v>
+        <v>0.9663319070080841</v>
       </c>
       <c r="L14">
-        <v>0.9463086927590759</v>
+        <v>0.9463086927590755</v>
       </c>
       <c r="M14">
-        <v>0.9349402970534374</v>
+        <v>0.9349402970534364</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.920336570753795</v>
+        <v>0.9203365707537972</v>
       </c>
       <c r="D15">
-        <v>0.9518809910539981</v>
+        <v>0.9518809910539999</v>
       </c>
       <c r="E15">
-        <v>0.9316936946849983</v>
+        <v>0.9316936946850003</v>
       </c>
       <c r="F15">
-        <v>0.9202070209995463</v>
+        <v>0.9202070209995482</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01057724740956</v>
+        <v>1.010577247409561</v>
       </c>
       <c r="J15">
-        <v>0.9532708459591059</v>
+        <v>0.9532708459591078</v>
       </c>
       <c r="K15">
-        <v>0.9676938755288211</v>
+        <v>0.9676938755288229</v>
       </c>
       <c r="L15">
-        <v>0.9479500734408888</v>
+        <v>0.9479500734408909</v>
       </c>
       <c r="M15">
-        <v>0.9367273846071231</v>
+        <v>0.936727384607125</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9308982751011946</v>
+        <v>0.9308982751011937</v>
       </c>
       <c r="D16">
-        <v>0.9602479078530978</v>
+        <v>0.9602479078530968</v>
       </c>
       <c r="E16">
-        <v>0.9416963706807493</v>
+        <v>0.9416963706807483</v>
       </c>
       <c r="F16">
-        <v>0.9310641749107716</v>
+        <v>0.9310641749107702</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.014881650723638</v>
       </c>
       <c r="J16">
-        <v>0.9620630774683657</v>
+        <v>0.9620630774683648</v>
       </c>
       <c r="K16">
-        <v>0.9753350933054005</v>
+        <v>0.9753350933053997</v>
       </c>
       <c r="L16">
-        <v>0.957164581463114</v>
+        <v>0.9571645814631133</v>
       </c>
       <c r="M16">
-        <v>0.9467598488276064</v>
+        <v>0.9467598488276052</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9372122273873169</v>
+        <v>0.9372122273873185</v>
       </c>
       <c r="D17">
-        <v>0.9652530449507115</v>
+        <v>0.9652530449507128</v>
       </c>
       <c r="E17">
-        <v>0.9476811688105758</v>
+        <v>0.9476811688105774</v>
       </c>
       <c r="F17">
-        <v>0.9375584880580879</v>
+        <v>0.9375584880580893</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017448446769961</v>
+        <v>1.017448446769962</v>
       </c>
       <c r="J17">
-        <v>0.9673170735621154</v>
+        <v>0.9673170735621169</v>
       </c>
       <c r="K17">
-        <v>0.9798990360518675</v>
+        <v>0.9798990360518688</v>
       </c>
       <c r="L17">
-        <v>0.9626732417446245</v>
+        <v>0.9626732417446262</v>
       </c>
       <c r="M17">
-        <v>0.9527577103706446</v>
+        <v>0.9527577103706459</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9407939507571139</v>
+        <v>0.9407939507571127</v>
       </c>
       <c r="D18">
-        <v>0.9680932423565368</v>
+        <v>0.9680932423565358</v>
       </c>
       <c r="E18">
-        <v>0.9510778195623801</v>
+        <v>0.9510778195623792</v>
       </c>
       <c r="F18">
-        <v>0.941243827777037</v>
+        <v>0.9412438277770356</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.018902121354792</v>
       </c>
       <c r="J18">
-        <v>0.9702966472254244</v>
+        <v>0.9702966472254232</v>
       </c>
       <c r="K18">
-        <v>0.9824864348405232</v>
+        <v>0.9824864348405223</v>
       </c>
       <c r="L18">
-        <v>0.9657980558667579</v>
+        <v>0.9657980558667569</v>
       </c>
       <c r="M18">
-        <v>0.9561601798015514</v>
+        <v>0.9561601798015502</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9419990020739748</v>
+        <v>0.9419990020739724</v>
       </c>
       <c r="D19">
-        <v>0.9690489478763863</v>
+        <v>0.9690489478763841</v>
       </c>
       <c r="E19">
-        <v>0.9522208697563143</v>
+        <v>0.9522208697563123</v>
       </c>
       <c r="F19">
-        <v>0.942483957879941</v>
+        <v>0.9424839578799389</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019390789114221</v>
+        <v>1.01939078911422</v>
       </c>
       <c r="J19">
-        <v>0.9712989531098789</v>
+        <v>0.9712989531098766</v>
       </c>
       <c r="K19">
-        <v>0.9833566702158972</v>
+        <v>0.983356670215895</v>
       </c>
       <c r="L19">
-        <v>0.9668493571164938</v>
+        <v>0.9668493571164917</v>
       </c>
       <c r="M19">
-        <v>0.9573049271221052</v>
+        <v>0.9573049271221029</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.936545483582401</v>
+        <v>0.9365454835823999</v>
       </c>
       <c r="D20">
-        <v>0.9647244079936818</v>
+        <v>0.9647244079936808</v>
       </c>
       <c r="E20">
-        <v>0.9470490075815362</v>
+        <v>0.9470490075815352</v>
       </c>
       <c r="F20">
-        <v>0.9368725613960058</v>
+        <v>0.9368725613960052</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017177645648179</v>
+        <v>1.017177645648178</v>
       </c>
       <c r="J20">
-        <v>0.9667623480944667</v>
+        <v>0.9667623480944657</v>
       </c>
       <c r="K20">
-        <v>0.9794172547237374</v>
+        <v>0.9794172547237365</v>
       </c>
       <c r="L20">
-        <v>0.9620915424843841</v>
+        <v>0.9620915424843831</v>
       </c>
       <c r="M20">
-        <v>0.9521243384165251</v>
+        <v>0.9521243384165242</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1146,13 +1146,13 @@
         <v>0.917548517480427</v>
       </c>
       <c r="D21">
-        <v>0.9496736083109641</v>
+        <v>0.9496736083109638</v>
       </c>
       <c r="E21">
         <v>0.9290550056609744</v>
       </c>
       <c r="F21">
-        <v>0.9173422238561327</v>
+        <v>0.9173422238561328</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.009438971262941</v>
       </c>
       <c r="J21">
-        <v>0.9509492984811864</v>
+        <v>0.9509492984811863</v>
       </c>
       <c r="K21">
-        <v>0.9656755582248091</v>
+        <v>0.965675558224809</v>
       </c>
       <c r="L21">
-        <v>0.9455177941469385</v>
+        <v>0.9455177941469383</v>
       </c>
       <c r="M21">
-        <v>0.9340791854511701</v>
+        <v>0.9340791854511702</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9044251592862759</v>
+        <v>0.9044251592862743</v>
       </c>
       <c r="D22">
-        <v>0.9392918786281554</v>
+        <v>0.9392918786281542</v>
       </c>
       <c r="E22">
-        <v>0.9166450277186079</v>
+        <v>0.9166450277186061</v>
       </c>
       <c r="F22">
-        <v>0.9038642373343643</v>
+        <v>0.9038642373343627</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.004071525724461</v>
       </c>
       <c r="J22">
-        <v>0.9400195273295712</v>
+        <v>0.9400195273295697</v>
       </c>
       <c r="K22">
-        <v>0.9561701737544523</v>
+        <v>0.956170173754451</v>
       </c>
       <c r="L22">
-        <v>0.9340707106266324</v>
+        <v>0.9340707106266308</v>
       </c>
       <c r="M22">
-        <v>0.9216152532826934</v>
+        <v>0.9216152532826918</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9115099090086594</v>
+        <v>0.9115099090086597</v>
       </c>
       <c r="D23">
-        <v>0.9448947373729912</v>
+        <v>0.9448947373729913</v>
       </c>
       <c r="E23">
-        <v>0.9233425196383089</v>
+        <v>0.9233425196383095</v>
       </c>
       <c r="F23">
-        <v>0.9111391087326527</v>
+        <v>0.9111391087326529</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.006971036389416</v>
       </c>
       <c r="J23">
-        <v>0.9459204413295007</v>
+        <v>0.9459204413295008</v>
       </c>
       <c r="K23">
         <v>0.9613026849626711</v>
       </c>
       <c r="L23">
-        <v>0.9402501164470395</v>
+        <v>0.9402501164470396</v>
       </c>
       <c r="M23">
-        <v>0.9283437536418764</v>
+        <v>0.9283437536418768</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.936847066213069</v>
+        <v>0.936847066213068</v>
       </c>
       <c r="D24">
-        <v>0.9649635190726794</v>
+        <v>0.9649635190726785</v>
       </c>
       <c r="E24">
-        <v>0.9473349426559897</v>
+        <v>0.9473349426559886</v>
       </c>
       <c r="F24">
-        <v>0.937182816783965</v>
+        <v>0.9371828167839642</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017300142353742</v>
+        <v>1.017300142353741</v>
       </c>
       <c r="J24">
-        <v>0.9670132651450449</v>
+        <v>0.9670132651450442</v>
       </c>
       <c r="K24">
-        <v>0.9796351798437136</v>
+        <v>0.9796351798437127</v>
       </c>
       <c r="L24">
-        <v>0.9623546579407659</v>
+        <v>0.962354657940765</v>
       </c>
       <c r="M24">
-        <v>0.9524108260776024</v>
+        <v>0.9524108260776016</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9623278844635096</v>
+        <v>0.9623278844635117</v>
       </c>
       <c r="D25">
-        <v>0.9851792326888619</v>
+        <v>0.9851792326888634</v>
       </c>
       <c r="E25">
-        <v>0.9715235718543547</v>
+        <v>0.9715235718543571</v>
       </c>
       <c r="F25">
-        <v>0.9634221766833121</v>
+        <v>0.9634221766833138</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02759877751996</v>
+        <v>1.027598777519961</v>
       </c>
       <c r="J25">
-        <v>0.9881931556494057</v>
+        <v>0.9881931556494076</v>
       </c>
       <c r="K25">
-        <v>0.9980120632240431</v>
+        <v>0.9980120632240448</v>
       </c>
       <c r="L25">
-        <v>0.9845806414875383</v>
+        <v>0.9845806414875405</v>
       </c>
       <c r="M25">
-        <v>0.9766161598322375</v>
+        <v>0.9766161598322394</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9803900141900486</v>
+        <v>0.9803900141900495</v>
       </c>
       <c r="D2">
-        <v>0.9995163938344089</v>
+        <v>0.9995163938344099</v>
       </c>
       <c r="E2">
-        <v>0.9887044059202688</v>
+        <v>0.9887044059202702</v>
       </c>
       <c r="F2">
-        <v>0.9820565201446876</v>
+        <v>0.982056520144689</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034822748589114</v>
+        <v>1.034822748589115</v>
       </c>
       <c r="J2">
-        <v>1.003173505786303</v>
+        <v>1.003173505786304</v>
       </c>
       <c r="K2">
-        <v>1.01098247017302</v>
+        <v>1.010982470173021</v>
       </c>
       <c r="L2">
-        <v>1.000323382131304</v>
+        <v>1.000323382131306</v>
       </c>
       <c r="M2">
-        <v>0.9937716287092182</v>
+        <v>0.9937716287092196</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9924905816207575</v>
+        <v>0.9924905816207582</v>
       </c>
       <c r="D3">
-        <v>1.009119218371391</v>
+        <v>1.009119218371392</v>
       </c>
       <c r="E3">
         <v>1.000230142490214</v>
       </c>
       <c r="F3">
-        <v>0.9945590389341945</v>
+        <v>0.9945590389341949</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -486,7 +486,7 @@
         <v>1.010860079446897</v>
       </c>
       <c r="M3">
-        <v>1.005262014536848</v>
+        <v>1.005262014536849</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9999237239606232</v>
+        <v>0.9999237239606235</v>
       </c>
       <c r="D4">
-        <v>1.015015429240998</v>
+        <v>1.015015429240999</v>
       </c>
       <c r="E4">
-        <v>1.007316287702075</v>
+        <v>1.007316287702076</v>
       </c>
       <c r="F4">
-        <v>1.002247352732622</v>
+        <v>1.002247352732623</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042539702410714</v>
+        <v>1.042539702410715</v>
       </c>
       <c r="J4">
         <v>1.019329381088332</v>
       </c>
       <c r="K4">
-        <v>1.024935947095995</v>
+        <v>1.024935947095996</v>
       </c>
       <c r="L4">
-        <v>1.017327206338924</v>
+        <v>1.017327206338925</v>
       </c>
       <c r="M4">
-        <v>1.012318729651812</v>
+        <v>1.012318729651813</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002962556653584</v>
+        <v>1.002962556653585</v>
       </c>
       <c r="D5">
-        <v>1.017425103233845</v>
+        <v>1.017425103233846</v>
       </c>
       <c r="E5">
-        <v>1.01021459214692</v>
+        <v>1.010214592146921</v>
       </c>
       <c r="F5">
         <v>1.005392447358099</v>
@@ -550,19 +550,19 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043729476384363</v>
+        <v>1.043729476384364</v>
       </c>
       <c r="J5">
-        <v>1.021837501185149</v>
+        <v>1.02183750118515</v>
       </c>
       <c r="K5">
-        <v>1.027098230389093</v>
+        <v>1.027098230389094</v>
       </c>
       <c r="L5">
-        <v>1.019969731385607</v>
+        <v>1.019969731385608</v>
       </c>
       <c r="M5">
-        <v>1.015203244685162</v>
+        <v>1.015203244685163</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003467977244758</v>
+        <v>1.003467977244759</v>
       </c>
       <c r="D6">
-        <v>1.01782582774715</v>
+        <v>1.017825827747151</v>
       </c>
       <c r="E6">
-        <v>1.010696714838451</v>
+        <v>1.010696714838452</v>
       </c>
       <c r="F6">
         <v>1.005915654782142</v>
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043927048704198</v>
+        <v>1.043927048704199</v>
       </c>
       <c r="J6">
-        <v>1.022254499389957</v>
+        <v>1.022254499389958</v>
       </c>
       <c r="K6">
         <v>1.027457615803733</v>
       </c>
       <c r="L6">
-        <v>1.020409154168961</v>
+        <v>1.020409154168962</v>
       </c>
       <c r="M6">
         <v>1.015682972904703</v>
@@ -611,10 +611,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9999646563880703</v>
+        <v>0.9999646563880704</v>
       </c>
       <c r="D7">
-        <v>1.015047890567904</v>
+        <v>1.015047890567903</v>
       </c>
       <c r="E7">
         <v>1.007355322114631</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9845674431061869</v>
+        <v>0.9845674431061863</v>
       </c>
       <c r="D8">
-        <v>1.002831963576514</v>
+        <v>1.002831963576513</v>
       </c>
       <c r="E8">
-        <v>0.9926819887800478</v>
+        <v>0.9926819887800471</v>
       </c>
       <c r="F8">
-        <v>0.9863709167438031</v>
+        <v>0.9863709167438025</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.036482294689677</v>
       </c>
       <c r="J8">
-        <v>1.006632982911315</v>
+        <v>1.006632982911314</v>
       </c>
       <c r="K8">
         <v>1.013973710281252</v>
       </c>
       <c r="L8">
-        <v>1.003962008216173</v>
+        <v>1.003962008216172</v>
       </c>
       <c r="M8">
-        <v>0.99773872329236</v>
+        <v>0.9977387232923594</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9539010126314609</v>
+        <v>0.9539010126314599</v>
       </c>
       <c r="D9">
-        <v>0.9784913213876207</v>
+        <v>0.9784913213876199</v>
       </c>
       <c r="E9">
-        <v>0.9635175962392762</v>
+        <v>0.9635175962392755</v>
       </c>
       <c r="F9">
-        <v>0.9547385617713194</v>
+        <v>0.9547385617713182</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.024205066916677</v>
       </c>
       <c r="J9">
-        <v>0.9811936805232999</v>
+        <v>0.981193680523299</v>
       </c>
       <c r="K9">
-        <v>0.9919432753217583</v>
+        <v>0.9919432753217574</v>
       </c>
       <c r="L9">
-        <v>0.9772316723594551</v>
+        <v>0.9772316723594541</v>
       </c>
       <c r="M9">
-        <v>0.9686112971868707</v>
+        <v>0.9686112971868697</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.930170304715485</v>
+        <v>0.9301703047154841</v>
       </c>
       <c r="D10">
-        <v>0.9596709841094592</v>
+        <v>0.9596709841094583</v>
       </c>
       <c r="E10">
-        <v>0.9410065907101461</v>
+        <v>0.941006590710145</v>
       </c>
       <c r="F10">
-        <v>0.930315593543406</v>
+        <v>0.9303155935434051</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.014585383584933</v>
       </c>
       <c r="J10">
-        <v>0.9614572017932325</v>
+        <v>0.9614572017932315</v>
       </c>
       <c r="K10">
-        <v>0.9748086782790217</v>
+        <v>0.9748086782790206</v>
       </c>
       <c r="L10">
-        <v>0.9565294535560397</v>
+        <v>0.9565294535560387</v>
       </c>
       <c r="M10">
-        <v>0.9460683335994483</v>
+        <v>0.9460683335994476</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9188158548187398</v>
+        <v>0.9188158548187444</v>
       </c>
       <c r="D11">
-        <v>0.9506769241125584</v>
+        <v>0.9506769241125623</v>
       </c>
       <c r="E11">
-        <v>0.9302543540678289</v>
+        <v>0.9302543540678336</v>
       </c>
       <c r="F11">
-        <v>0.9186443829840818</v>
+        <v>0.9186443829840861</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.009956482737308</v>
+        <v>1.00995648273731</v>
       </c>
       <c r="J11">
-        <v>0.9520046071286573</v>
+        <v>0.9520046071286615</v>
       </c>
       <c r="K11">
-        <v>0.9665930600249854</v>
+        <v>0.9665930600249892</v>
       </c>
       <c r="L11">
-        <v>0.9466233998258381</v>
+        <v>0.9466233998258426</v>
       </c>
       <c r="M11">
-        <v>0.9352829417901666</v>
+        <v>0.9352829417901707</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9143995255316022</v>
+        <v>0.9143995255316038</v>
       </c>
       <c r="D12">
-        <v>0.9471811751765051</v>
+        <v>0.9471811751765068</v>
       </c>
       <c r="E12">
-        <v>0.9260756296025957</v>
+        <v>0.926075629602597</v>
       </c>
       <c r="F12">
-        <v>0.914107157113668</v>
+        <v>0.9141071571136696</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008152421772068</v>
+        <v>1.008152421772069</v>
       </c>
       <c r="J12">
-        <v>0.9483269681272493</v>
+        <v>0.9483269681272506</v>
       </c>
       <c r="K12">
-        <v>0.9633954359571206</v>
+        <v>0.9633954359571223</v>
       </c>
       <c r="L12">
-        <v>0.9427707540907159</v>
+        <v>0.9427707540907171</v>
       </c>
       <c r="M12">
-        <v>0.9310882441516651</v>
+        <v>0.9310882441516667</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9153565713835977</v>
+        <v>0.9153565713835988</v>
       </c>
       <c r="D13">
-        <v>0.9479385963872399</v>
+        <v>0.9479385963872413</v>
       </c>
       <c r="E13">
-        <v>0.9269810223839769</v>
+        <v>0.9269810223839782</v>
       </c>
       <c r="F13">
-        <v>0.9150902958706481</v>
+        <v>0.9150902958706496</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008543530925588</v>
+        <v>1.008543530925589</v>
       </c>
       <c r="J13">
-        <v>0.9491239749073338</v>
+        <v>0.949123974907335</v>
       </c>
       <c r="K13">
-        <v>0.9640884686262388</v>
+        <v>0.9640884686262403</v>
       </c>
       <c r="L13">
-        <v>0.9436056231746796</v>
+        <v>0.9436056231746806</v>
       </c>
       <c r="M13">
-        <v>0.9319972442271631</v>
+        <v>0.9319972442271647</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9184551136185323</v>
+        <v>0.9184551136185327</v>
       </c>
       <c r="D14">
-        <v>0.9503913229741145</v>
+        <v>0.950391322974115</v>
       </c>
       <c r="E14">
-        <v>0.9299129496070965</v>
+        <v>0.9299129496070968</v>
       </c>
       <c r="F14">
-        <v>0.918273719307236</v>
+        <v>0.9182737193072369</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.009809191924671</v>
       </c>
       <c r="J14">
-        <v>0.9517042231467104</v>
+        <v>0.9517042231467109</v>
       </c>
       <c r="K14">
-        <v>0.9663319070080841</v>
+        <v>0.9663319070080849</v>
       </c>
       <c r="L14">
-        <v>0.9463086927590755</v>
+        <v>0.9463086927590759</v>
       </c>
       <c r="M14">
-        <v>0.9349402970534364</v>
+        <v>0.9349402970534374</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9203365707537972</v>
+        <v>0.920336570753795</v>
       </c>
       <c r="D15">
-        <v>0.9518809910539999</v>
+        <v>0.9518809910539981</v>
       </c>
       <c r="E15">
-        <v>0.9316936946850003</v>
+        <v>0.9316936946849983</v>
       </c>
       <c r="F15">
-        <v>0.9202070209995482</v>
+        <v>0.9202070209995463</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010577247409561</v>
+        <v>1.01057724740956</v>
       </c>
       <c r="J15">
-        <v>0.9532708459591078</v>
+        <v>0.9532708459591059</v>
       </c>
       <c r="K15">
-        <v>0.9676938755288229</v>
+        <v>0.9676938755288211</v>
       </c>
       <c r="L15">
-        <v>0.9479500734408909</v>
+        <v>0.9479500734408888</v>
       </c>
       <c r="M15">
-        <v>0.936727384607125</v>
+        <v>0.9367273846071231</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9308982751011937</v>
+        <v>0.9308982751011946</v>
       </c>
       <c r="D16">
-        <v>0.9602479078530968</v>
+        <v>0.9602479078530978</v>
       </c>
       <c r="E16">
-        <v>0.9416963706807483</v>
+        <v>0.9416963706807493</v>
       </c>
       <c r="F16">
-        <v>0.9310641749107702</v>
+        <v>0.9310641749107716</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.014881650723638</v>
       </c>
       <c r="J16">
-        <v>0.9620630774683648</v>
+        <v>0.9620630774683657</v>
       </c>
       <c r="K16">
-        <v>0.9753350933053997</v>
+        <v>0.9753350933054005</v>
       </c>
       <c r="L16">
-        <v>0.9571645814631133</v>
+        <v>0.957164581463114</v>
       </c>
       <c r="M16">
-        <v>0.9467598488276052</v>
+        <v>0.9467598488276064</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9372122273873185</v>
+        <v>0.9372122273873169</v>
       </c>
       <c r="D17">
-        <v>0.9652530449507128</v>
+        <v>0.9652530449507115</v>
       </c>
       <c r="E17">
-        <v>0.9476811688105774</v>
+        <v>0.9476811688105758</v>
       </c>
       <c r="F17">
-        <v>0.9375584880580893</v>
+        <v>0.9375584880580879</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017448446769962</v>
+        <v>1.017448446769961</v>
       </c>
       <c r="J17">
-        <v>0.9673170735621169</v>
+        <v>0.9673170735621154</v>
       </c>
       <c r="K17">
-        <v>0.9798990360518688</v>
+        <v>0.9798990360518675</v>
       </c>
       <c r="L17">
-        <v>0.9626732417446262</v>
+        <v>0.9626732417446245</v>
       </c>
       <c r="M17">
-        <v>0.9527577103706459</v>
+        <v>0.9527577103706446</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9407939507571127</v>
+        <v>0.9407939507571139</v>
       </c>
       <c r="D18">
-        <v>0.9680932423565358</v>
+        <v>0.9680932423565368</v>
       </c>
       <c r="E18">
-        <v>0.9510778195623792</v>
+        <v>0.9510778195623801</v>
       </c>
       <c r="F18">
-        <v>0.9412438277770356</v>
+        <v>0.941243827777037</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.018902121354792</v>
       </c>
       <c r="J18">
-        <v>0.9702966472254232</v>
+        <v>0.9702966472254244</v>
       </c>
       <c r="K18">
-        <v>0.9824864348405223</v>
+        <v>0.9824864348405232</v>
       </c>
       <c r="L18">
-        <v>0.9657980558667569</v>
+        <v>0.9657980558667579</v>
       </c>
       <c r="M18">
-        <v>0.9561601798015502</v>
+        <v>0.9561601798015514</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9419990020739724</v>
+        <v>0.9419990020739748</v>
       </c>
       <c r="D19">
-        <v>0.9690489478763841</v>
+        <v>0.9690489478763863</v>
       </c>
       <c r="E19">
-        <v>0.9522208697563123</v>
+        <v>0.9522208697563143</v>
       </c>
       <c r="F19">
-        <v>0.9424839578799389</v>
+        <v>0.942483957879941</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.01939078911422</v>
+        <v>1.019390789114221</v>
       </c>
       <c r="J19">
-        <v>0.9712989531098766</v>
+        <v>0.9712989531098789</v>
       </c>
       <c r="K19">
-        <v>0.983356670215895</v>
+        <v>0.9833566702158972</v>
       </c>
       <c r="L19">
-        <v>0.9668493571164917</v>
+        <v>0.9668493571164938</v>
       </c>
       <c r="M19">
-        <v>0.9573049271221029</v>
+        <v>0.9573049271221052</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9365454835823999</v>
+        <v>0.936545483582401</v>
       </c>
       <c r="D20">
-        <v>0.9647244079936808</v>
+        <v>0.9647244079936818</v>
       </c>
       <c r="E20">
-        <v>0.9470490075815352</v>
+        <v>0.9470490075815362</v>
       </c>
       <c r="F20">
-        <v>0.9368725613960052</v>
+        <v>0.9368725613960058</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017177645648178</v>
+        <v>1.017177645648179</v>
       </c>
       <c r="J20">
-        <v>0.9667623480944657</v>
+        <v>0.9667623480944667</v>
       </c>
       <c r="K20">
-        <v>0.9794172547237365</v>
+        <v>0.9794172547237374</v>
       </c>
       <c r="L20">
-        <v>0.9620915424843831</v>
+        <v>0.9620915424843841</v>
       </c>
       <c r="M20">
-        <v>0.9521243384165242</v>
+        <v>0.9521243384165251</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1146,13 +1146,13 @@
         <v>0.917548517480427</v>
       </c>
       <c r="D21">
-        <v>0.9496736083109638</v>
+        <v>0.9496736083109641</v>
       </c>
       <c r="E21">
         <v>0.9290550056609744</v>
       </c>
       <c r="F21">
-        <v>0.9173422238561328</v>
+        <v>0.9173422238561327</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.009438971262941</v>
       </c>
       <c r="J21">
-        <v>0.9509492984811863</v>
+        <v>0.9509492984811864</v>
       </c>
       <c r="K21">
-        <v>0.965675558224809</v>
+        <v>0.9656755582248091</v>
       </c>
       <c r="L21">
-        <v>0.9455177941469383</v>
+        <v>0.9455177941469385</v>
       </c>
       <c r="M21">
-        <v>0.9340791854511702</v>
+        <v>0.9340791854511701</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9044251592862743</v>
+        <v>0.9044251592862759</v>
       </c>
       <c r="D22">
-        <v>0.9392918786281542</v>
+        <v>0.9392918786281554</v>
       </c>
       <c r="E22">
-        <v>0.9166450277186061</v>
+        <v>0.9166450277186079</v>
       </c>
       <c r="F22">
-        <v>0.9038642373343627</v>
+        <v>0.9038642373343643</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.004071525724461</v>
       </c>
       <c r="J22">
-        <v>0.9400195273295697</v>
+        <v>0.9400195273295712</v>
       </c>
       <c r="K22">
-        <v>0.956170173754451</v>
+        <v>0.9561701737544523</v>
       </c>
       <c r="L22">
-        <v>0.9340707106266308</v>
+        <v>0.9340707106266324</v>
       </c>
       <c r="M22">
-        <v>0.9216152532826918</v>
+        <v>0.9216152532826934</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9115099090086597</v>
+        <v>0.9115099090086594</v>
       </c>
       <c r="D23">
-        <v>0.9448947373729913</v>
+        <v>0.9448947373729912</v>
       </c>
       <c r="E23">
-        <v>0.9233425196383095</v>
+        <v>0.9233425196383089</v>
       </c>
       <c r="F23">
-        <v>0.9111391087326529</v>
+        <v>0.9111391087326527</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.006971036389416</v>
       </c>
       <c r="J23">
-        <v>0.9459204413295008</v>
+        <v>0.9459204413295007</v>
       </c>
       <c r="K23">
         <v>0.9613026849626711</v>
       </c>
       <c r="L23">
-        <v>0.9402501164470396</v>
+        <v>0.9402501164470395</v>
       </c>
       <c r="M23">
-        <v>0.9283437536418768</v>
+        <v>0.9283437536418764</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.936847066213068</v>
+        <v>0.936847066213069</v>
       </c>
       <c r="D24">
-        <v>0.9649635190726785</v>
+        <v>0.9649635190726794</v>
       </c>
       <c r="E24">
-        <v>0.9473349426559886</v>
+        <v>0.9473349426559897</v>
       </c>
       <c r="F24">
-        <v>0.9371828167839642</v>
+        <v>0.937182816783965</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017300142353741</v>
+        <v>1.017300142353742</v>
       </c>
       <c r="J24">
-        <v>0.9670132651450442</v>
+        <v>0.9670132651450449</v>
       </c>
       <c r="K24">
-        <v>0.9796351798437127</v>
+        <v>0.9796351798437136</v>
       </c>
       <c r="L24">
-        <v>0.962354657940765</v>
+        <v>0.9623546579407659</v>
       </c>
       <c r="M24">
-        <v>0.9524108260776016</v>
+        <v>0.9524108260776024</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9623278844635117</v>
+        <v>0.9623278844635096</v>
       </c>
       <c r="D25">
-        <v>0.9851792326888634</v>
+        <v>0.9851792326888619</v>
       </c>
       <c r="E25">
-        <v>0.9715235718543571</v>
+        <v>0.9715235718543547</v>
       </c>
       <c r="F25">
-        <v>0.9634221766833138</v>
+        <v>0.9634221766833121</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027598777519961</v>
+        <v>1.02759877751996</v>
       </c>
       <c r="J25">
-        <v>0.9881931556494076</v>
+        <v>0.9881931556494057</v>
       </c>
       <c r="K25">
-        <v>0.9980120632240448</v>
+        <v>0.9980120632240431</v>
       </c>
       <c r="L25">
-        <v>0.9845806414875405</v>
+        <v>0.9845806414875383</v>
       </c>
       <c r="M25">
-        <v>0.9766161598322394</v>
+        <v>0.9766161598322375</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9803900141900495</v>
+        <v>0.9835336361025796</v>
       </c>
       <c r="D2">
-        <v>0.9995163938344099</v>
+        <v>1.001969407523913</v>
       </c>
       <c r="E2">
-        <v>0.9887044059202702</v>
+        <v>0.9918248838502356</v>
       </c>
       <c r="F2">
-        <v>0.982056520144689</v>
+        <v>0.9849780333262094</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034822748589115</v>
+        <v>1.036205712392865</v>
       </c>
       <c r="J2">
-        <v>1.003173505786304</v>
+        <v>1.006218260773963</v>
       </c>
       <c r="K2">
-        <v>1.010982470173021</v>
+        <v>1.013401373390567</v>
       </c>
       <c r="L2">
-        <v>1.000323382131306</v>
+        <v>1.003399298335784</v>
       </c>
       <c r="M2">
-        <v>0.9937716287092196</v>
+        <v>0.9966506925050937</v>
+      </c>
+      <c r="N2">
+        <v>1.00764720611911</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9924905816207582</v>
+        <v>0.9955896518265884</v>
       </c>
       <c r="D3">
-        <v>1.009119218371392</v>
+        <v>1.011539466520468</v>
       </c>
       <c r="E3">
-        <v>1.000230142490214</v>
+        <v>1.003310927968676</v>
       </c>
       <c r="F3">
-        <v>0.9945590389341949</v>
+        <v>0.9974333512374696</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039616583677961</v>
+        <v>1.040983301528401</v>
       </c>
       <c r="J3">
-        <v>1.013188075599035</v>
+        <v>1.016201273743075</v>
       </c>
       <c r="K3">
-        <v>1.019636731774543</v>
+        <v>1.022026796497978</v>
       </c>
       <c r="L3">
-        <v>1.010860079446897</v>
+        <v>1.013901619419974</v>
       </c>
       <c r="M3">
-        <v>1.005262014536849</v>
+        <v>1.008099178498096</v>
+      </c>
+      <c r="N3">
+        <v>1.017644396111706</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9999237239606235</v>
+        <v>1.002998168292659</v>
       </c>
       <c r="D4">
-        <v>1.015015429240999</v>
+        <v>1.017417657949311</v>
       </c>
       <c r="E4">
-        <v>1.007316287702076</v>
+        <v>1.010375208985185</v>
       </c>
       <c r="F4">
-        <v>1.002247352732623</v>
+        <v>1.005095426718347</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042539702410715</v>
+        <v>1.043897612524511</v>
       </c>
       <c r="J4">
-        <v>1.019329381088332</v>
+        <v>1.022325490318065</v>
       </c>
       <c r="K4">
-        <v>1.024935947095996</v>
+        <v>1.027310315687754</v>
       </c>
       <c r="L4">
-        <v>1.017327206338925</v>
+        <v>1.020350006585301</v>
       </c>
       <c r="M4">
-        <v>1.012318729651813</v>
+        <v>1.015132740989529</v>
+      </c>
+      <c r="N4">
+        <v>1.023777309776689</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002962556653585</v>
+        <v>1.006027503328706</v>
       </c>
       <c r="D5">
-        <v>1.017425103233846</v>
+        <v>1.019820405334457</v>
       </c>
       <c r="E5">
-        <v>1.010214592146921</v>
+        <v>1.013265098722191</v>
       </c>
       <c r="F5">
-        <v>1.005392447358099</v>
+        <v>1.008230366850272</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043729476384364</v>
+        <v>1.045084031722934</v>
       </c>
       <c r="J5">
-        <v>1.02183750118515</v>
+        <v>1.024827103152324</v>
       </c>
       <c r="K5">
-        <v>1.027098230389094</v>
+        <v>1.029466604418143</v>
       </c>
       <c r="L5">
-        <v>1.019969731385608</v>
+        <v>1.022985365918952</v>
       </c>
       <c r="M5">
-        <v>1.015203244685163</v>
+        <v>1.01800832876265</v>
+      </c>
+      <c r="N5">
+        <v>1.026282475188112</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003467977244759</v>
+        <v>1.006531375592563</v>
       </c>
       <c r="D6">
-        <v>1.017825827747151</v>
+        <v>1.020220002059381</v>
       </c>
       <c r="E6">
-        <v>1.010696714838452</v>
+        <v>1.013745850679098</v>
       </c>
       <c r="F6">
-        <v>1.005915654782142</v>
+        <v>1.008751916810596</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043927048704199</v>
+        <v>1.045281059668151</v>
       </c>
       <c r="J6">
-        <v>1.022254499389958</v>
+        <v>1.025243045449348</v>
       </c>
       <c r="K6">
-        <v>1.027457615803733</v>
+        <v>1.029825016107077</v>
       </c>
       <c r="L6">
-        <v>1.020409154168962</v>
+        <v>1.023423624171845</v>
       </c>
       <c r="M6">
-        <v>1.015682972904703</v>
+        <v>1.018486601784242</v>
+      </c>
+      <c r="N6">
+        <v>1.026699008170907</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9999646563880704</v>
+        <v>1.00303897062672</v>
       </c>
       <c r="D7">
-        <v>1.015047890567903</v>
+        <v>1.017450024304119</v>
       </c>
       <c r="E7">
-        <v>1.007355322114631</v>
+        <v>1.010414128065834</v>
       </c>
       <c r="F7">
-        <v>1.002289708814639</v>
+        <v>1.00513764385153</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04255574941262</v>
+        <v>1.043913613401808</v>
       </c>
       <c r="J7">
-        <v>1.019363175281133</v>
+        <v>1.022359195039827</v>
       </c>
       <c r="K7">
-        <v>1.024965089209575</v>
+        <v>1.027339375450113</v>
       </c>
       <c r="L7">
-        <v>1.017362806183224</v>
+        <v>1.020385508027593</v>
       </c>
       <c r="M7">
-        <v>1.012357585196399</v>
+        <v>1.015171474244202</v>
+      </c>
+      <c r="N7">
+        <v>1.023811062363022</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9845674431061863</v>
+        <v>0.9876950359165031</v>
       </c>
       <c r="D8">
-        <v>1.002831963576513</v>
+        <v>1.005273168330485</v>
       </c>
       <c r="E8">
-        <v>0.9926819887800471</v>
+        <v>0.9957881682244104</v>
       </c>
       <c r="F8">
-        <v>0.9863709167438025</v>
+        <v>0.9892754822179287</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036482294689677</v>
+        <v>1.037859374342985</v>
       </c>
       <c r="J8">
-        <v>1.006632982911314</v>
+        <v>1.009666301615736</v>
       </c>
       <c r="K8">
-        <v>1.013973710281252</v>
+        <v>1.016382181848467</v>
       </c>
       <c r="L8">
-        <v>1.003962008216172</v>
+        <v>1.007025495333176</v>
       </c>
       <c r="M8">
-        <v>0.9977387232923594</v>
+        <v>1.000602710667306</v>
+      </c>
+      <c r="N8">
+        <v>1.011100143574373</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9539010126314599</v>
+        <v>0.9571639960896547</v>
       </c>
       <c r="D9">
-        <v>0.9784913213876199</v>
+        <v>0.9810327225379053</v>
       </c>
       <c r="E9">
-        <v>0.9635175962392755</v>
+        <v>0.9667449957542111</v>
       </c>
       <c r="F9">
-        <v>0.9547385617713182</v>
+        <v>0.9577854039251604</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.024205066916677</v>
+        <v>1.025632773586137</v>
       </c>
       <c r="J9">
-        <v>0.981193680523299</v>
+        <v>0.9843256867406398</v>
       </c>
       <c r="K9">
-        <v>0.9919432753217574</v>
+        <v>0.9944412138877563</v>
       </c>
       <c r="L9">
-        <v>0.9772316723594541</v>
+        <v>0.9804016842683798</v>
       </c>
       <c r="M9">
-        <v>0.9686112971868697</v>
+        <v>0.9716026465536509</v>
+      </c>
+      <c r="N9">
+        <v>0.9857235421195458</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9301703047154841</v>
+        <v>0.9335710703869625</v>
       </c>
       <c r="D10">
-        <v>0.9596709841094583</v>
+        <v>0.9623149225913277</v>
       </c>
       <c r="E10">
-        <v>0.941006590710145</v>
+        <v>0.944358038960961</v>
       </c>
       <c r="F10">
-        <v>0.9303155935434051</v>
+        <v>0.9335058780384871</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.014585383584933</v>
+        <v>1.016065925890745</v>
       </c>
       <c r="J10">
-        <v>0.9614572017932315</v>
+        <v>0.9646928793886943</v>
       </c>
       <c r="K10">
-        <v>0.9748086782790206</v>
+        <v>0.9773996435956822</v>
       </c>
       <c r="L10">
-        <v>0.9565294535560387</v>
+        <v>0.9598102561386129</v>
       </c>
       <c r="M10">
-        <v>0.9460683335994476</v>
+        <v>0.9491892892562949</v>
+      </c>
+      <c r="N10">
+        <v>0.9660628539292463</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9188158548187444</v>
+        <v>0.9222952612063166</v>
       </c>
       <c r="D11">
-        <v>0.9506769241125623</v>
+        <v>0.9533794939794872</v>
       </c>
       <c r="E11">
-        <v>0.9302543540678336</v>
+        <v>0.9336767900662215</v>
       </c>
       <c r="F11">
-        <v>0.9186443829840861</v>
+        <v>0.9219161701279887</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.00995648273731</v>
+        <v>1.011467499911251</v>
       </c>
       <c r="J11">
-        <v>0.9520046071286615</v>
+        <v>0.9553003519028757</v>
       </c>
       <c r="K11">
-        <v>0.9665930600249892</v>
+        <v>0.9692376215512297</v>
       </c>
       <c r="L11">
-        <v>0.9466233998258426</v>
+        <v>0.9499680932689716</v>
       </c>
       <c r="M11">
-        <v>0.9352829417901707</v>
+        <v>0.9384778581564125</v>
+      </c>
+      <c r="N11">
+        <v>0.9566569879770596</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9143995255316038</v>
+        <v>0.9179120934609032</v>
       </c>
       <c r="D12">
-        <v>0.9471811751765068</v>
+        <v>0.949908481444508</v>
       </c>
       <c r="E12">
-        <v>0.926075629602597</v>
+        <v>0.9295280297488409</v>
       </c>
       <c r="F12">
-        <v>0.9141071571136696</v>
+        <v>0.9174132527045921</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008152421772069</v>
+        <v>1.009676337796676</v>
       </c>
       <c r="J12">
-        <v>0.9483269681272506</v>
+        <v>0.9516481892459779</v>
       </c>
       <c r="K12">
-        <v>0.9633954359571223</v>
+        <v>0.9660626756684209</v>
       </c>
       <c r="L12">
-        <v>0.9427707540907171</v>
+        <v>0.9461424965355985</v>
       </c>
       <c r="M12">
-        <v>0.9310882441516667</v>
+        <v>0.9343143453135593</v>
+      </c>
+      <c r="N12">
+        <v>0.9529996388302803</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9153565713835988</v>
+        <v>0.9188618233198931</v>
       </c>
       <c r="D13">
-        <v>0.9479385963872413</v>
+        <v>0.9506604449054807</v>
       </c>
       <c r="E13">
-        <v>0.9269810223839782</v>
+        <v>0.9304268105858772</v>
       </c>
       <c r="F13">
-        <v>0.9150902958706496</v>
+        <v>0.918388825180715</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008543530925589</v>
+        <v>1.010064599109001</v>
       </c>
       <c r="J13">
-        <v>0.949123974907335</v>
+        <v>0.9524395687707971</v>
       </c>
       <c r="K13">
-        <v>0.9640884686262403</v>
+        <v>0.9667507016689596</v>
       </c>
       <c r="L13">
-        <v>0.9436056231746806</v>
+        <v>0.9469713932407916</v>
       </c>
       <c r="M13">
-        <v>0.9319972442271647</v>
+        <v>0.935216465665615</v>
+      </c>
+      <c r="N13">
+        <v>0.9537921422047969</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9184551136185327</v>
+        <v>0.921937172160552</v>
       </c>
       <c r="D14">
-        <v>0.950391322974115</v>
+        <v>0.9530958709596518</v>
       </c>
       <c r="E14">
-        <v>0.9299129496070968</v>
+        <v>0.9333377814503919</v>
       </c>
       <c r="F14">
-        <v>0.9182737193072369</v>
+        <v>0.9215482515308371</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009809191924671</v>
+        <v>1.011321239765915</v>
       </c>
       <c r="J14">
-        <v>0.9517042231467109</v>
+        <v>0.9550020024862591</v>
       </c>
       <c r="K14">
-        <v>0.9663319070080849</v>
+        <v>0.9689782807336064</v>
       </c>
       <c r="L14">
-        <v>0.9463086927590759</v>
+        <v>0.949655547344108</v>
       </c>
       <c r="M14">
-        <v>0.9349402970534374</v>
+        <v>0.9381377075515307</v>
+      </c>
+      <c r="N14">
+        <v>0.9563582148700502</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.920336570753795</v>
+        <v>0.9238049049750721</v>
       </c>
       <c r="D15">
-        <v>0.9518809910539981</v>
+        <v>0.9545753031682588</v>
       </c>
       <c r="E15">
-        <v>0.9316936946849983</v>
+        <v>0.9351061297193154</v>
       </c>
       <c r="F15">
-        <v>0.9202070209995463</v>
+        <v>0.9234673456796673</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01057724740956</v>
+        <v>1.012083963641053</v>
       </c>
       <c r="J15">
-        <v>0.9532708459591059</v>
+        <v>0.9565581026513731</v>
       </c>
       <c r="K15">
-        <v>0.9676938755288211</v>
+        <v>0.9703308745426612</v>
       </c>
       <c r="L15">
-        <v>0.9479500734408888</v>
+        <v>0.9512857488063604</v>
       </c>
       <c r="M15">
-        <v>0.9367273846071231</v>
+        <v>0.9399118883827753</v>
+      </c>
+      <c r="N15">
+        <v>0.9579165248758863</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9308982751011946</v>
+        <v>0.9342943036528683</v>
       </c>
       <c r="D16">
-        <v>0.9602479078530978</v>
+        <v>0.9628883162761287</v>
       </c>
       <c r="E16">
-        <v>0.9416963706807493</v>
+        <v>0.9450435464167786</v>
       </c>
       <c r="F16">
-        <v>0.9310641749107716</v>
+        <v>0.9342495426661503</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014881650723638</v>
+        <v>1.016360363270507</v>
       </c>
       <c r="J16">
-        <v>0.9620630774683657</v>
+        <v>0.9652951544076298</v>
       </c>
       <c r="K16">
-        <v>0.9753350933054005</v>
+        <v>0.9779228396472718</v>
       </c>
       <c r="L16">
-        <v>0.957164581463114</v>
+        <v>0.9604415483124906</v>
       </c>
       <c r="M16">
-        <v>0.9467598488276064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9498763489338524</v>
+      </c>
+      <c r="N16">
+        <v>0.9666659842477903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9372122273873169</v>
+        <v>0.9405686060954356</v>
       </c>
       <c r="D17">
-        <v>0.9652530449507115</v>
+        <v>0.9678639169911363</v>
       </c>
       <c r="E17">
-        <v>0.9476811688105758</v>
+        <v>0.950992602048477</v>
       </c>
       <c r="F17">
-        <v>0.9375584880580879</v>
+        <v>0.9407026655805575</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.017448446769961</v>
+        <v>1.018911875748535</v>
       </c>
       <c r="J17">
-        <v>0.9673170735621154</v>
+        <v>0.9705191027709968</v>
       </c>
       <c r="K17">
-        <v>0.9798990360518675</v>
+        <v>0.9824598892745431</v>
       </c>
       <c r="L17">
-        <v>0.9626732417446245</v>
+        <v>0.9659181691783574</v>
       </c>
       <c r="M17">
-        <v>0.9527577103706446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9558369159199107</v>
+      </c>
+      <c r="N17">
+        <v>0.9718973512170288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9407939507571139</v>
+        <v>0.9441289391337805</v>
       </c>
       <c r="D18">
-        <v>0.9680932423565368</v>
+        <v>0.9706881890132975</v>
       </c>
       <c r="E18">
-        <v>0.9510778195623801</v>
+        <v>0.954369985389365</v>
       </c>
       <c r="F18">
-        <v>0.941243827777037</v>
+        <v>0.9443657542549608</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.018902121354792</v>
+        <v>1.020357331001273</v>
       </c>
       <c r="J18">
-        <v>0.9702966472254244</v>
+        <v>0.9734825383196328</v>
       </c>
       <c r="K18">
-        <v>0.9824864348405232</v>
+        <v>0.9850328202612312</v>
       </c>
       <c r="L18">
-        <v>0.9657980558667579</v>
+        <v>0.9690257514468686</v>
       </c>
       <c r="M18">
-        <v>0.9561601798015514</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9592192646240781</v>
+      </c>
+      <c r="N18">
+        <v>0.9748649951840546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9419990020739748</v>
+        <v>0.9453269660613006</v>
       </c>
       <c r="D19">
-        <v>0.9690489478763863</v>
+        <v>0.9716386663761311</v>
       </c>
       <c r="E19">
-        <v>0.9522208697563143</v>
+        <v>0.9555067108405496</v>
       </c>
       <c r="F19">
-        <v>0.942483957879941</v>
+        <v>0.9455985723790565</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.019390789114221</v>
+        <v>1.020843303993137</v>
       </c>
       <c r="J19">
-        <v>0.9712989531098789</v>
+        <v>0.9744795565522785</v>
       </c>
       <c r="K19">
-        <v>0.9833566702158972</v>
+        <v>0.9858983113682116</v>
       </c>
       <c r="L19">
-        <v>0.9668493571164938</v>
+        <v>0.9700714026821264</v>
       </c>
       <c r="M19">
-        <v>0.9573049271221052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9603574043360517</v>
+      </c>
+      <c r="N19">
+        <v>0.9758634292969501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,75 +1159,81 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.936545483582401</v>
+        <v>0.939905930396208</v>
       </c>
       <c r="D20">
-        <v>0.9647244079936818</v>
+        <v>0.9673383095591073</v>
       </c>
       <c r="E20">
-        <v>0.9470490075815362</v>
+        <v>0.9503641064213841</v>
       </c>
       <c r="F20">
-        <v>0.9368725613960058</v>
+        <v>0.9400209682590378</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.017177645648179</v>
+        <v>1.018642639977423</v>
       </c>
       <c r="J20">
-        <v>0.9667623480944667</v>
+        <v>0.9699674524795374</v>
       </c>
       <c r="K20">
-        <v>0.9794172547237374</v>
+        <v>0.9819808628724082</v>
       </c>
       <c r="L20">
-        <v>0.9620915424843841</v>
+        <v>0.9653397515151289</v>
       </c>
       <c r="M20">
-        <v>0.9521243384165251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9552073705337578</v>
+      </c>
+      <c r="N20">
+        <v>0.9713449175188804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.917548517480427</v>
+        <v>0.9210372851646472</v>
       </c>
       <c r="D21">
-        <v>0.9496736083109641</v>
+        <v>0.9523831605145995</v>
       </c>
       <c r="E21">
-        <v>0.9290550056609744</v>
+        <v>0.9324858987327925</v>
       </c>
       <c r="F21">
-        <v>0.9173422238561327</v>
+        <v>0.9206236993412573</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009438971262941</v>
+        <v>1.010953627130889</v>
       </c>
       <c r="J21">
-        <v>0.9509492984811864</v>
+        <v>0.9542522269942454</v>
       </c>
       <c r="K21">
-        <v>0.9656755582248091</v>
+        <v>0.9683265174822498</v>
       </c>
       <c r="L21">
-        <v>0.9455177941469385</v>
+        <v>0.9488701174706256</v>
       </c>
       <c r="M21">
-        <v>0.9340791854511701</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9372829052870677</v>
+      </c>
+      <c r="N21">
+        <v>0.9556073746108376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9044251592862759</v>
+        <v>0.9080185076365924</v>
       </c>
       <c r="D22">
-        <v>0.9392918786281554</v>
+        <v>0.9420794608325419</v>
       </c>
       <c r="E22">
-        <v>0.9166450277186079</v>
+        <v>0.9201704797107765</v>
       </c>
       <c r="F22">
-        <v>0.9038642373343643</v>
+        <v>0.9072537844295857</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.004071525724461</v>
+        <v>1.005626956899844</v>
       </c>
       <c r="J22">
-        <v>0.9400195273295712</v>
+        <v>0.9434031113835958</v>
       </c>
       <c r="K22">
-        <v>0.9561701737544523</v>
+        <v>0.9588928107774171</v>
       </c>
       <c r="L22">
-        <v>0.9340707106266324</v>
+        <v>0.9375085643261793</v>
       </c>
       <c r="M22">
-        <v>0.9216152532826934</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9249173116003341</v>
+      </c>
+      <c r="N22">
+        <v>0.9447428520116098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9115099090086594</v>
+        <v>0.9150450147061276</v>
       </c>
       <c r="D23">
-        <v>0.9448947373729912</v>
+        <v>0.947638858363003</v>
       </c>
       <c r="E23">
-        <v>0.9233425196383089</v>
+        <v>0.9268152931812254</v>
       </c>
       <c r="F23">
-        <v>0.9111391087326527</v>
+        <v>0.9144685039051372</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.006971036389416</v>
+        <v>1.008503732629196</v>
       </c>
       <c r="J23">
-        <v>0.9459204413295007</v>
+        <v>0.9492590206445525</v>
       </c>
       <c r="K23">
-        <v>0.9613026849626711</v>
+        <v>0.9639853599239676</v>
       </c>
       <c r="L23">
-        <v>0.9402501164470395</v>
+        <v>0.9436402740843562</v>
       </c>
       <c r="M23">
-        <v>0.9283437536418764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9315910480055394</v>
+      </c>
+      <c r="N23">
+        <v>0.9506070773353996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,72 +1323,78 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.936847066213069</v>
+        <v>0.9402056695334158</v>
       </c>
       <c r="D24">
-        <v>0.9649635190726794</v>
+        <v>0.9675760477567679</v>
       </c>
       <c r="E24">
-        <v>0.9473349426559897</v>
+        <v>0.9506483803523457</v>
       </c>
       <c r="F24">
-        <v>0.937182816783965</v>
+        <v>0.9403293071832386</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.017300142353742</v>
+        <v>1.018764427249725</v>
       </c>
       <c r="J24">
-        <v>0.9670132651450449</v>
+        <v>0.9702169757610619</v>
       </c>
       <c r="K24">
-        <v>0.9796351798437136</v>
+        <v>0.9821975394472298</v>
       </c>
       <c r="L24">
-        <v>0.9623546579407659</v>
+        <v>0.965601379722529</v>
       </c>
       <c r="M24">
-        <v>0.9524108260776024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9554921241592573</v>
+      </c>
+      <c r="N24">
+        <v>0.9715947951520851</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9623278844635096</v>
+        <v>0.9655493550354207</v>
       </c>
       <c r="D25">
-        <v>0.9851792326888619</v>
+        <v>0.9876898246424954</v>
       </c>
       <c r="E25">
-        <v>0.9715235718543547</v>
+        <v>0.9747137106171327</v>
       </c>
       <c r="F25">
-        <v>0.9634221766833121</v>
+        <v>0.9664255758418931</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02759877751996</v>
+        <v>1.029010774893894</v>
       </c>
       <c r="J25">
-        <v>0.9881931556494057</v>
+        <v>0.9912944682378322</v>
       </c>
       <c r="K25">
-        <v>0.9980120632240431</v>
+        <v>1.000482294224854</v>
       </c>
       <c r="L25">
-        <v>0.9845806414875383</v>
+        <v>0.9877176710098887</v>
       </c>
       <c r="M25">
-        <v>0.9766161598322375</v>
+        <v>0.9795684559965531</v>
+      </c>
+      <c r="N25">
+        <v>0.9927022200857947</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9835336361025796</v>
+        <v>0.9883866114115452</v>
       </c>
       <c r="D2">
-        <v>1.001969407523913</v>
+        <v>1.006584441264093</v>
       </c>
       <c r="E2">
-        <v>0.9918248838502356</v>
+        <v>0.9966428047335212</v>
       </c>
       <c r="F2">
-        <v>0.9849780333262094</v>
+        <v>0.9946988140933547</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036205712392865</v>
+        <v>1.034634861163932</v>
       </c>
       <c r="J2">
-        <v>1.006218260773963</v>
+        <v>1.010920313571405</v>
       </c>
       <c r="K2">
-        <v>1.013401373390567</v>
+        <v>1.017952800256074</v>
       </c>
       <c r="L2">
-        <v>1.003399298335784</v>
+        <v>1.008149109616927</v>
       </c>
       <c r="M2">
-        <v>0.9966506925050937</v>
+        <v>1.006232500274458</v>
       </c>
       <c r="N2">
-        <v>1.00764720611911</v>
+        <v>1.012355936370857</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9955896518265884</v>
+        <v>0.9994274787829436</v>
       </c>
       <c r="D3">
-        <v>1.011539466520468</v>
+        <v>1.015249569542783</v>
       </c>
       <c r="E3">
-        <v>1.003310927968676</v>
+        <v>1.007126498230453</v>
       </c>
       <c r="F3">
-        <v>0.9974333512374696</v>
+        <v>1.00559042520878</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040983301528401</v>
+        <v>1.038640362896509</v>
       </c>
       <c r="J3">
-        <v>1.016201273743075</v>
+        <v>1.019933763481371</v>
       </c>
       <c r="K3">
-        <v>1.022026796497978</v>
+        <v>1.025690977756782</v>
       </c>
       <c r="L3">
-        <v>1.013901619419974</v>
+        <v>1.017668999072843</v>
       </c>
       <c r="M3">
-        <v>1.008099178498096</v>
+        <v>1.016152271761017</v>
       </c>
       <c r="N3">
-        <v>1.017644396111706</v>
+        <v>1.021382186413552</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002998168292659</v>
+        <v>1.006259699017102</v>
       </c>
       <c r="D4">
-        <v>1.017417657949311</v>
+        <v>1.020613398445352</v>
       </c>
       <c r="E4">
-        <v>1.010375208985185</v>
+        <v>1.013620538774613</v>
       </c>
       <c r="F4">
-        <v>1.005095426718347</v>
+        <v>1.012337766539634</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043897612524511</v>
+        <v>1.041102258364315</v>
       </c>
       <c r="J4">
-        <v>1.022325490318065</v>
+        <v>1.025504625227864</v>
       </c>
       <c r="K4">
-        <v>1.027310315687754</v>
+        <v>1.030469244204157</v>
       </c>
       <c r="L4">
-        <v>1.020350006585301</v>
+        <v>1.023557308976194</v>
       </c>
       <c r="M4">
-        <v>1.015132740989529</v>
+        <v>1.022289531669023</v>
       </c>
       <c r="N4">
-        <v>1.023777309776689</v>
+        <v>1.026960959422712</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006027503328706</v>
+        <v>1.009063435126764</v>
       </c>
       <c r="D5">
-        <v>1.019820405334457</v>
+        <v>1.022814754132678</v>
       </c>
       <c r="E5">
-        <v>1.013265098722191</v>
+        <v>1.016286954421455</v>
       </c>
       <c r="F5">
-        <v>1.008230366850272</v>
+        <v>1.01510837030844</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045084031722934</v>
+        <v>1.042108401507332</v>
       </c>
       <c r="J5">
-        <v>1.024827103152324</v>
+        <v>1.027789010091709</v>
       </c>
       <c r="K5">
-        <v>1.029466604418143</v>
+        <v>1.032427508887971</v>
       </c>
       <c r="L5">
-        <v>1.022985365918952</v>
+        <v>1.025972931507515</v>
       </c>
       <c r="M5">
-        <v>1.01800832876265</v>
+        <v>1.024807691284569</v>
       </c>
       <c r="N5">
-        <v>1.026282475188112</v>
+        <v>1.029248588375086</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006531375592563</v>
+        <v>1.009530340046551</v>
       </c>
       <c r="D6">
-        <v>1.020220002059381</v>
+        <v>1.023181351030299</v>
       </c>
       <c r="E6">
-        <v>1.013745850679098</v>
+        <v>1.016731073839385</v>
       </c>
       <c r="F6">
-        <v>1.008751916810596</v>
+        <v>1.015569855157654</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045281059668151</v>
+        <v>1.042275706803927</v>
       </c>
       <c r="J6">
-        <v>1.025243045449348</v>
+        <v>1.02816932317936</v>
       </c>
       <c r="K6">
-        <v>1.029825016107077</v>
+        <v>1.032753461513971</v>
       </c>
       <c r="L6">
-        <v>1.023423624171845</v>
+        <v>1.026375156248889</v>
       </c>
       <c r="M6">
-        <v>1.018486601784242</v>
+        <v>1.025227014024551</v>
       </c>
       <c r="N6">
-        <v>1.026699008170907</v>
+        <v>1.029629441550945</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00303897062672</v>
+        <v>1.006297424420941</v>
       </c>
       <c r="D7">
-        <v>1.017450024304119</v>
+        <v>1.020643018039476</v>
       </c>
       <c r="E7">
-        <v>1.010414128065834</v>
+        <v>1.013656410844926</v>
       </c>
       <c r="F7">
-        <v>1.00513764385153</v>
+        <v>1.012375039507573</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043913613401808</v>
+        <v>1.041115813031683</v>
       </c>
       <c r="J7">
-        <v>1.022359195039827</v>
+        <v>1.025535369538398</v>
       </c>
       <c r="K7">
-        <v>1.027339375450113</v>
+        <v>1.030495603908347</v>
       </c>
       <c r="L7">
-        <v>1.020385508027593</v>
+        <v>1.023589815314498</v>
       </c>
       <c r="M7">
-        <v>1.015171474244202</v>
+        <v>1.022323416174365</v>
       </c>
       <c r="N7">
-        <v>1.023811062363022</v>
+        <v>1.026991747393694</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9876950359165031</v>
+        <v>0.9921864966655951</v>
       </c>
       <c r="D8">
-        <v>1.005273168330485</v>
+        <v>1.009566164603397</v>
       </c>
       <c r="E8">
-        <v>0.9957881682244104</v>
+        <v>1.000249437614938</v>
       </c>
       <c r="F8">
-        <v>0.9892754822179287</v>
+        <v>0.9984456716345016</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037859374342985</v>
+        <v>1.036016907273632</v>
       </c>
       <c r="J8">
-        <v>1.009666301615736</v>
+        <v>1.014023805662975</v>
       </c>
       <c r="K8">
-        <v>1.016382181848467</v>
+        <v>1.0206180966981</v>
       </c>
       <c r="L8">
-        <v>1.007025495333176</v>
+        <v>1.011426031169152</v>
       </c>
       <c r="M8">
-        <v>1.000602710667306</v>
+        <v>1.009646738531184</v>
       </c>
       <c r="N8">
-        <v>1.011100143574373</v>
+        <v>1.015463835777172</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9571639960896547</v>
+        <v>0.964601737688118</v>
       </c>
       <c r="D9">
-        <v>0.9810327225379053</v>
+        <v>0.9879395560597107</v>
       </c>
       <c r="E9">
-        <v>0.9667449957542111</v>
+        <v>0.974103580224885</v>
       </c>
       <c r="F9">
-        <v>0.9577854039251604</v>
+        <v>0.9712842213975443</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025632773586137</v>
+        <v>1.025915551919786</v>
       </c>
       <c r="J9">
-        <v>0.9843256867406398</v>
+        <v>0.9914695532610509</v>
       </c>
       <c r="K9">
-        <v>0.9944412138877563</v>
+        <v>1.001231383951173</v>
       </c>
       <c r="L9">
-        <v>0.9804016842683798</v>
+        <v>0.9876312633333305</v>
       </c>
       <c r="M9">
-        <v>0.9716026465536509</v>
+        <v>0.9848610322592609</v>
       </c>
       <c r="N9">
-        <v>0.9857235421195458</v>
+        <v>0.9928775537498288</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9335710703869625</v>
+        <v>0.9438080925041135</v>
       </c>
       <c r="D10">
-        <v>0.9623149225913277</v>
+        <v>0.9716776888982683</v>
       </c>
       <c r="E10">
-        <v>0.944358038960961</v>
+        <v>0.9544510989849505</v>
       </c>
       <c r="F10">
-        <v>0.9335058780384871</v>
+        <v>0.9508670185544071</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.016065925890745</v>
+        <v>1.018220298234929</v>
       </c>
       <c r="J10">
-        <v>0.9646928793886943</v>
+        <v>0.9744432631440954</v>
       </c>
       <c r="K10">
-        <v>0.9773996435956822</v>
+        <v>0.986577859546541</v>
       </c>
       <c r="L10">
-        <v>0.9598102561386129</v>
+        <v>0.9696945132944808</v>
       </c>
       <c r="M10">
-        <v>0.9491892892562949</v>
+        <v>0.9661839096109439</v>
       </c>
       <c r="N10">
-        <v>0.9660628539292463</v>
+        <v>0.9758270843479645</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9222952612063166</v>
+        <v>0.9340589932559706</v>
       </c>
       <c r="D11">
-        <v>0.9533794939794872</v>
+        <v>0.9640694461109276</v>
       </c>
       <c r="E11">
-        <v>0.9336767900662215</v>
+        <v>0.9452544134632536</v>
       </c>
       <c r="F11">
-        <v>0.9219161701279887</v>
+        <v>0.9413110991777888</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.011467499911251</v>
+        <v>1.014596598782948</v>
       </c>
       <c r="J11">
-        <v>0.9553003519028757</v>
+        <v>0.9664577794682075</v>
       </c>
       <c r="K11">
-        <v>0.9692376215512297</v>
+        <v>0.979702332795731</v>
       </c>
       <c r="L11">
-        <v>0.9499680932689716</v>
+        <v>0.9612882684900229</v>
       </c>
       <c r="M11">
-        <v>0.9384778581564125</v>
+        <v>0.9574316943642242</v>
       </c>
       <c r="N11">
-        <v>0.9566569879770596</v>
+        <v>0.9678302603693092</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9179120934609032</v>
+        <v>0.930305897758081</v>
       </c>
       <c r="D12">
-        <v>0.949908481444508</v>
+        <v>0.9611436473175682</v>
       </c>
       <c r="E12">
-        <v>0.9295280297488409</v>
+        <v>0.9417170196225518</v>
       </c>
       <c r="F12">
-        <v>0.9174132527045921</v>
+        <v>0.9376352099743004</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.009676337796676</v>
+        <v>1.013199600243489</v>
       </c>
       <c r="J12">
-        <v>0.9516481892459779</v>
+        <v>0.963383568328726</v>
       </c>
       <c r="K12">
-        <v>0.9660626756684209</v>
+        <v>0.9770551570042584</v>
       </c>
       <c r="L12">
-        <v>0.9461424965355985</v>
+        <v>0.9580530189972217</v>
       </c>
       <c r="M12">
-        <v>0.9343143453135593</v>
+        <v>0.9540633857015142</v>
       </c>
       <c r="N12">
-        <v>0.9529996388302803</v>
+        <v>0.9647516834973926</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9188618233198931</v>
+        <v>0.9311172939310085</v>
       </c>
       <c r="D13">
-        <v>0.9506604449054807</v>
+        <v>0.9617760327901924</v>
       </c>
       <c r="E13">
-        <v>0.9304268105858772</v>
+        <v>0.9424816376620085</v>
       </c>
       <c r="F13">
-        <v>0.918388825180715</v>
+        <v>0.9384297807307289</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.010064599109001</v>
+        <v>1.013501705153651</v>
       </c>
       <c r="J13">
-        <v>0.9524395687707971</v>
+        <v>0.9640481895773766</v>
       </c>
       <c r="K13">
-        <v>0.9667507016689596</v>
+        <v>0.9776274655574858</v>
       </c>
       <c r="L13">
-        <v>0.9469713932407916</v>
+        <v>0.9587524129522373</v>
       </c>
       <c r="M13">
-        <v>0.935216465665615</v>
+        <v>0.9547915412579755</v>
       </c>
       <c r="N13">
-        <v>0.9537921422047969</v>
+        <v>0.9654172485844492</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.921937172160552</v>
+        <v>0.9337515849761033</v>
       </c>
       <c r="D14">
-        <v>0.9530958709596518</v>
+        <v>0.9638297321474045</v>
       </c>
       <c r="E14">
-        <v>0.9333377814503919</v>
+        <v>0.9449646087680802</v>
       </c>
       <c r="F14">
-        <v>0.9215482515308371</v>
+        <v>0.9410099553141935</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.011321239765915</v>
+        <v>1.014482211113368</v>
       </c>
       <c r="J14">
-        <v>0.9550020024862591</v>
+        <v>0.9662059759044836</v>
       </c>
       <c r="K14">
-        <v>0.9689782807336064</v>
+        <v>0.9794855113677758</v>
       </c>
       <c r="L14">
-        <v>0.949655547344108</v>
+        <v>0.9610232554784762</v>
       </c>
       <c r="M14">
-        <v>0.9381377075515307</v>
+        <v>0.957155780447672</v>
       </c>
       <c r="N14">
-        <v>0.9563582148700502</v>
+        <v>0.9675780992156428</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9238049049750721</v>
+        <v>0.9353565026716797</v>
       </c>
       <c r="D15">
-        <v>0.9545753031682588</v>
+        <v>0.9650813623313041</v>
       </c>
       <c r="E15">
-        <v>0.9351061297193154</v>
+        <v>0.9464777470797421</v>
       </c>
       <c r="F15">
-        <v>0.9234673456796673</v>
+        <v>0.9425822844085244</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.012083963641053</v>
+        <v>1.015079328709389</v>
       </c>
       <c r="J15">
-        <v>0.9565581026513731</v>
+        <v>0.967520592624056</v>
       </c>
       <c r="K15">
-        <v>0.9703308745426612</v>
+        <v>0.9806174834211477</v>
       </c>
       <c r="L15">
-        <v>0.9512857488063604</v>
+        <v>0.9624068742426617</v>
       </c>
       <c r="M15">
-        <v>0.9399118883827753</v>
+        <v>0.9585963155753189</v>
       </c>
       <c r="N15">
-        <v>0.9579165248758863</v>
+        <v>0.9688945828417453</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9342943036528683</v>
+        <v>0.9444378248157964</v>
       </c>
       <c r="D16">
-        <v>0.9628883162761287</v>
+        <v>0.9721695189207302</v>
       </c>
       <c r="E16">
-        <v>0.9450435464167786</v>
+        <v>0.9550455361637018</v>
       </c>
       <c r="F16">
-        <v>0.9342495426661503</v>
+        <v>0.9514846383157434</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.016360363270507</v>
+        <v>1.01845407529553</v>
       </c>
       <c r="J16">
-        <v>0.9652951544076298</v>
+        <v>0.9749590489524306</v>
       </c>
       <c r="K16">
-        <v>0.9779228396472718</v>
+        <v>0.9870219066197691</v>
       </c>
       <c r="L16">
-        <v>0.9604415483124906</v>
+        <v>0.9702376040224212</v>
       </c>
       <c r="M16">
-        <v>0.9498763489338524</v>
+        <v>0.9667493679052473</v>
       </c>
       <c r="N16">
-        <v>0.9666659842477903</v>
+        <v>0.9763436026313087</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9405686060954356</v>
+        <v>0.9499222671334052</v>
       </c>
       <c r="D17">
-        <v>0.9678639169911363</v>
+        <v>0.9764547986803559</v>
       </c>
       <c r="E17">
-        <v>0.950992602048477</v>
+        <v>0.9602245498604878</v>
       </c>
       <c r="F17">
-        <v>0.9407026655805575</v>
+        <v>0.9568654669346441</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.018911875748535</v>
+        <v>1.020488368490131</v>
       </c>
       <c r="J17">
-        <v>0.9705191027709968</v>
+        <v>0.9794508454923851</v>
       </c>
       <c r="K17">
-        <v>0.9824598892745431</v>
+        <v>0.9908886514531101</v>
       </c>
       <c r="L17">
-        <v>0.9659181691783574</v>
+        <v>0.9749678815763632</v>
       </c>
       <c r="M17">
-        <v>0.9558369159199107</v>
+        <v>0.9716745714756471</v>
       </c>
       <c r="N17">
-        <v>0.9718973512170288</v>
+        <v>0.9808417780375666</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9441289391337805</v>
+        <v>0.9530509130238367</v>
       </c>
       <c r="D18">
-        <v>0.9706881890132975</v>
+        <v>0.9789008032933346</v>
       </c>
       <c r="E18">
-        <v>0.954369985389365</v>
+        <v>0.9631805274308209</v>
       </c>
       <c r="F18">
-        <v>0.9443657542549608</v>
+        <v>0.9599365147534491</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.020357331001273</v>
+        <v>1.021647370104706</v>
       </c>
       <c r="J18">
-        <v>0.9734825383196328</v>
+        <v>0.9820129534339143</v>
       </c>
       <c r="K18">
-        <v>0.9850328202612312</v>
+        <v>0.9930939540952802</v>
       </c>
       <c r="L18">
-        <v>0.9690257514468686</v>
+        <v>0.9776665926373446</v>
       </c>
       <c r="M18">
-        <v>0.9592192646240781</v>
+        <v>0.9744845888770893</v>
       </c>
       <c r="N18">
-        <v>0.9748649951840546</v>
+        <v>0.9834075244662502</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9453269660613006</v>
+        <v>0.9541062929946768</v>
       </c>
       <c r="D19">
-        <v>0.9716386663761311</v>
+        <v>0.9797261339135303</v>
       </c>
       <c r="E19">
-        <v>0.9555067108405496</v>
+        <v>0.9641779163116228</v>
       </c>
       <c r="F19">
-        <v>0.9455985723790565</v>
+        <v>0.9609727129140283</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.020843303993137</v>
+        <v>1.02203807339183</v>
       </c>
       <c r="J19">
-        <v>0.9744795565522785</v>
+        <v>0.9828771686845011</v>
       </c>
       <c r="K19">
-        <v>0.9858983113682116</v>
+        <v>0.9938377653834626</v>
       </c>
       <c r="L19">
-        <v>0.9700714026821264</v>
+        <v>0.978576982273087</v>
       </c>
       <c r="M19">
-        <v>0.9603574043360517</v>
+        <v>0.9754325449411881</v>
       </c>
       <c r="N19">
-        <v>0.9758634292969501</v>
+        <v>0.9842729670016201</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.939905930396208</v>
+        <v>0.9493412409378927</v>
       </c>
       <c r="D20">
-        <v>0.9673383095591073</v>
+        <v>0.9760006590139461</v>
       </c>
       <c r="E20">
-        <v>0.9503641064213841</v>
+        <v>0.9596757149902639</v>
       </c>
       <c r="F20">
-        <v>0.9400209682590378</v>
+        <v>0.9562952581610511</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.018642639977423</v>
+        <v>1.020273005627975</v>
       </c>
       <c r="J20">
-        <v>0.9699674524795374</v>
+        <v>0.9789750074572892</v>
       </c>
       <c r="K20">
-        <v>0.9819808628724082</v>
+        <v>0.9904790561428367</v>
       </c>
       <c r="L20">
-        <v>0.9653397515151289</v>
+        <v>0.974466720143578</v>
       </c>
       <c r="M20">
-        <v>0.9552073705337578</v>
+        <v>0.9711527483209274</v>
       </c>
       <c r="N20">
-        <v>0.9713449175188804</v>
+        <v>0.9803652642578815</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9210372851646472</v>
+        <v>0.9329796780498509</v>
       </c>
       <c r="D21">
-        <v>0.9523831605145995</v>
+        <v>0.9632278595711293</v>
       </c>
       <c r="E21">
-        <v>0.9324858987327925</v>
+        <v>0.9442369550054452</v>
       </c>
       <c r="F21">
-        <v>0.9206236993412573</v>
+        <v>0.9402538251278582</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.010953627130889</v>
+        <v>1.014194951535437</v>
       </c>
       <c r="J21">
-        <v>0.9542522269942454</v>
+        <v>0.9655736938057906</v>
       </c>
       <c r="K21">
-        <v>0.9683265174822498</v>
+        <v>0.9789410661754342</v>
       </c>
       <c r="L21">
-        <v>0.9488701174706256</v>
+        <v>0.9603578194101789</v>
       </c>
       <c r="M21">
-        <v>0.9372829052870677</v>
+        <v>0.9564629739289677</v>
       </c>
       <c r="N21">
-        <v>0.9556073746108376</v>
+        <v>0.9669449192038456</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9080185076365924</v>
+        <v>0.921915486056182</v>
       </c>
       <c r="D22">
-        <v>0.9420794608325419</v>
+        <v>0.9546095236069299</v>
       </c>
       <c r="E22">
-        <v>0.9201704797107765</v>
+        <v>0.9338150613911465</v>
       </c>
       <c r="F22">
-        <v>0.9072537844295857</v>
+        <v>0.9294231267722632</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005626956899844</v>
+        <v>1.010073288160169</v>
       </c>
       <c r="J22">
-        <v>0.9434031113835958</v>
+        <v>0.9565112549181251</v>
       </c>
       <c r="K22">
-        <v>0.9588928107774171</v>
+        <v>0.9711371868472599</v>
       </c>
       <c r="L22">
-        <v>0.9375085643261793</v>
+        <v>0.9508224704802927</v>
       </c>
       <c r="M22">
-        <v>0.9249173116003341</v>
+        <v>0.9465355510289004</v>
       </c>
       <c r="N22">
-        <v>0.9447428520116098</v>
+        <v>0.9578696106134832</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9150450147061276</v>
+        <v>0.9278626331082102</v>
       </c>
       <c r="D23">
-        <v>0.947638858363003</v>
+        <v>0.959239941621665</v>
       </c>
       <c r="E23">
-        <v>0.9268152931812254</v>
+        <v>0.9394150975884641</v>
       </c>
       <c r="F23">
-        <v>0.9144685039051372</v>
+        <v>0.935243056351648</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.008503732629196</v>
+        <v>1.01228964935029</v>
       </c>
       <c r="J23">
-        <v>0.9492590206445525</v>
+        <v>0.9613822952984441</v>
       </c>
       <c r="K23">
-        <v>0.9639853599239676</v>
+        <v>0.9753318264658071</v>
       </c>
       <c r="L23">
-        <v>0.9436402740843562</v>
+        <v>0.9559471790599111</v>
       </c>
       <c r="M23">
-        <v>0.9315910480055394</v>
+        <v>0.9518709541169784</v>
       </c>
       <c r="N23">
-        <v>0.9506070773353996</v>
+        <v>0.9627475684298586</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9402056695334158</v>
+        <v>0.9496039975809168</v>
       </c>
       <c r="D24">
-        <v>0.9675760477567679</v>
+        <v>0.9762060295304417</v>
       </c>
       <c r="E24">
-        <v>0.9506483803523457</v>
+        <v>0.9599239089421427</v>
       </c>
       <c r="F24">
-        <v>0.9403293071832386</v>
+        <v>0.956553118172772</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.018764427249725</v>
+        <v>1.020370403502762</v>
       </c>
       <c r="J24">
-        <v>0.9702169757610619</v>
+        <v>0.9791901958916113</v>
       </c>
       <c r="K24">
-        <v>0.9821975394472298</v>
+        <v>0.9906642884792969</v>
       </c>
       <c r="L24">
-        <v>0.965601379722529</v>
+        <v>0.9746933587978727</v>
       </c>
       <c r="M24">
-        <v>0.9554921241592573</v>
+        <v>0.9713887304524317</v>
       </c>
       <c r="N24">
-        <v>0.9715947951520851</v>
+        <v>0.9805807582844626</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9655493550354207</v>
+        <v>0.9721074820297231</v>
       </c>
       <c r="D25">
-        <v>0.9876898246424954</v>
+        <v>0.9938191156286664</v>
       </c>
       <c r="E25">
-        <v>0.9747137106171327</v>
+        <v>0.9812094723755833</v>
       </c>
       <c r="F25">
-        <v>0.9664255758418931</v>
+        <v>0.9786660756166961</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029010774893894</v>
+        <v>1.028678414579799</v>
       </c>
       <c r="J25">
-        <v>0.9912944682378322</v>
+        <v>0.9976114353298003</v>
       </c>
       <c r="K25">
-        <v>1.000482294224854</v>
+        <v>1.006514145677248</v>
       </c>
       <c r="L25">
-        <v>0.9877176710098887</v>
+        <v>0.9941066633836216</v>
       </c>
       <c r="M25">
-        <v>0.9795684559965531</v>
+        <v>0.9916048547757197</v>
       </c>
       <c r="N25">
-        <v>0.9927022200857947</v>
+        <v>0.9990281579955996</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9883866114115452</v>
+        <v>1.015715277812433</v>
       </c>
       <c r="D2">
-        <v>1.006584441264093</v>
+        <v>1.031731534661776</v>
       </c>
       <c r="E2">
-        <v>0.9966428047335212</v>
+        <v>1.023788531232408</v>
       </c>
       <c r="F2">
-        <v>0.9946988140933547</v>
+        <v>1.032992233640624</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034634861163932</v>
+        <v>1.048364524187229</v>
       </c>
       <c r="J2">
-        <v>1.010920313571405</v>
+        <v>1.037435896745385</v>
       </c>
       <c r="K2">
-        <v>1.017952800256074</v>
+        <v>1.042765814438324</v>
       </c>
       <c r="L2">
-        <v>1.008149109616927</v>
+        <v>1.034926110947384</v>
       </c>
       <c r="M2">
-        <v>1.006232500274458</v>
+        <v>1.044010300498988</v>
       </c>
       <c r="N2">
-        <v>1.012355936370857</v>
+        <v>1.015803292828474</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9994274787829436</v>
+        <v>1.020918654108435</v>
       </c>
       <c r="D3">
-        <v>1.015249569542783</v>
+        <v>1.03570166043651</v>
       </c>
       <c r="E3">
-        <v>1.007126498230453</v>
+        <v>1.028500611489277</v>
       </c>
       <c r="F3">
-        <v>1.00559042520878</v>
+        <v>1.037730211145898</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038640362896509</v>
+        <v>1.050064477862164</v>
       </c>
       <c r="J3">
-        <v>1.019933763481371</v>
+        <v>1.040854856496365</v>
       </c>
       <c r="K3">
-        <v>1.025690977756782</v>
+        <v>1.045897235432167</v>
       </c>
       <c r="L3">
-        <v>1.017668999072843</v>
+        <v>1.038781359971365</v>
       </c>
       <c r="M3">
-        <v>1.016152271761017</v>
+        <v>1.04790205656095</v>
       </c>
       <c r="N3">
-        <v>1.021382186413552</v>
+        <v>1.016989237904153</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006259699017102</v>
+        <v>1.024210724757484</v>
       </c>
       <c r="D4">
-        <v>1.020613398445352</v>
+        <v>1.038216788073717</v>
       </c>
       <c r="E4">
-        <v>1.013620538774613</v>
+        <v>1.031487134347126</v>
       </c>
       <c r="F4">
-        <v>1.012337766539634</v>
+        <v>1.040734093932435</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041102258364315</v>
+        <v>1.051131027618531</v>
       </c>
       <c r="J4">
-        <v>1.025504625227864</v>
+        <v>1.043014758432264</v>
       </c>
       <c r="K4">
-        <v>1.030469244204157</v>
+        <v>1.047874852897424</v>
       </c>
       <c r="L4">
-        <v>1.023557308976194</v>
+        <v>1.041219828326181</v>
       </c>
       <c r="M4">
-        <v>1.022289531669023</v>
+        <v>1.050364547440731</v>
       </c>
       <c r="N4">
-        <v>1.026960959422712</v>
+        <v>1.017737828828218</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009063435126764</v>
+        <v>1.025577506696093</v>
       </c>
       <c r="D5">
-        <v>1.022814754132678</v>
+        <v>1.039261738533398</v>
       </c>
       <c r="E5">
-        <v>1.016286954421455</v>
+        <v>1.032728287891047</v>
       </c>
       <c r="F5">
-        <v>1.01510837030844</v>
+        <v>1.041982680746141</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042108401507332</v>
+        <v>1.051571638491103</v>
       </c>
       <c r="J5">
-        <v>1.027789010091709</v>
+        <v>1.043910685346446</v>
       </c>
       <c r="K5">
-        <v>1.032427508887971</v>
+        <v>1.048695005888546</v>
       </c>
       <c r="L5">
-        <v>1.025972931507515</v>
+        <v>1.042232015544601</v>
       </c>
       <c r="M5">
-        <v>1.024807691284569</v>
+        <v>1.051386923030678</v>
       </c>
       <c r="N5">
-        <v>1.029248588375086</v>
+        <v>1.018048186610581</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009530340046551</v>
+        <v>1.025806006620736</v>
       </c>
       <c r="D6">
-        <v>1.023181351030299</v>
+        <v>1.039436475901032</v>
       </c>
       <c r="E6">
-        <v>1.016731073839385</v>
+        <v>1.032935856124205</v>
       </c>
       <c r="F6">
-        <v>1.015569855157654</v>
+        <v>1.042191504732255</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042275706803927</v>
+        <v>1.051645170212964</v>
       </c>
       <c r="J6">
-        <v>1.02816932317936</v>
+        <v>1.044060418652184</v>
       </c>
       <c r="K6">
-        <v>1.032753461513971</v>
+        <v>1.048832065510591</v>
       </c>
       <c r="L6">
-        <v>1.026375156248889</v>
+        <v>1.042401220995249</v>
       </c>
       <c r="M6">
-        <v>1.025227014024551</v>
+        <v>1.051557844212853</v>
       </c>
       <c r="N6">
-        <v>1.029629441550945</v>
+        <v>1.018100046167089</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006297424420941</v>
+        <v>1.02422905444677</v>
       </c>
       <c r="D7">
-        <v>1.020643018039476</v>
+        <v>1.038230798905118</v>
       </c>
       <c r="E7">
-        <v>1.013656410844926</v>
+        <v>1.031503774458014</v>
       </c>
       <c r="F7">
-        <v>1.012375039507573</v>
+        <v>1.040750832847446</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041115813031683</v>
+        <v>1.051136945295161</v>
       </c>
       <c r="J7">
-        <v>1.025535369538398</v>
+        <v>1.043026776805832</v>
       </c>
       <c r="K7">
-        <v>1.030495603908347</v>
+        <v>1.047885855460059</v>
       </c>
       <c r="L7">
-        <v>1.023589815314498</v>
+        <v>1.04123340345155</v>
       </c>
       <c r="M7">
-        <v>1.022323416174365</v>
+        <v>1.050378258360828</v>
       </c>
       <c r="N7">
-        <v>1.026991747393694</v>
+        <v>1.017741992743817</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9921864966655951</v>
+        <v>1.017489728997735</v>
       </c>
       <c r="D8">
-        <v>1.009566164603397</v>
+        <v>1.033084691869361</v>
       </c>
       <c r="E8">
-        <v>1.000249437614938</v>
+        <v>1.025394305538947</v>
       </c>
       <c r="F8">
-        <v>0.9984456716345016</v>
+        <v>1.034606629515456</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036016907273632</v>
+        <v>1.048946101547127</v>
       </c>
       <c r="J8">
-        <v>1.014023805662975</v>
+        <v>1.038602476051048</v>
       </c>
       <c r="K8">
-        <v>1.0206180966981</v>
+        <v>1.043834409871069</v>
       </c>
       <c r="L8">
-        <v>1.011426031169152</v>
+        <v>1.036240940023879</v>
       </c>
       <c r="M8">
-        <v>1.009646738531184</v>
+        <v>1.045337380396095</v>
       </c>
       <c r="N8">
-        <v>1.015463835777172</v>
+        <v>1.016208072961808</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.964601737688118</v>
+        <v>1.005006358853017</v>
       </c>
       <c r="D9">
-        <v>0.9879395560597107</v>
+        <v>1.023581828907703</v>
       </c>
       <c r="E9">
-        <v>0.974103580224885</v>
+        <v>1.014121913197496</v>
       </c>
       <c r="F9">
-        <v>0.9712842213975443</v>
+        <v>1.023278099860198</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025915551919786</v>
+        <v>1.044818089313287</v>
       </c>
       <c r="J9">
-        <v>0.9914695532610509</v>
+        <v>1.030383559929952</v>
       </c>
       <c r="K9">
-        <v>1.001231383951173</v>
+        <v>1.036303552344606</v>
       </c>
       <c r="L9">
-        <v>0.9876312633333305</v>
+        <v>1.02698995313796</v>
       </c>
       <c r="M9">
-        <v>0.9848610322592609</v>
+        <v>1.036004467453451</v>
       </c>
       <c r="N9">
-        <v>0.9928775537498288</v>
+        <v>1.013353980010475</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9438080925041135</v>
+        <v>0.9962235201596101</v>
       </c>
       <c r="D10">
-        <v>0.9716776888982683</v>
+        <v>1.016920260968143</v>
       </c>
       <c r="E10">
-        <v>0.9544510989849505</v>
+        <v>1.006224222787204</v>
       </c>
       <c r="F10">
-        <v>0.9508670185544071</v>
+        <v>1.015347102091089</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018220298234929</v>
+        <v>1.041869093801918</v>
       </c>
       <c r="J10">
-        <v>0.9744432631440954</v>
+        <v>1.024587777245064</v>
       </c>
       <c r="K10">
-        <v>0.986577859546541</v>
+        <v>1.03099059053172</v>
       </c>
       <c r="L10">
-        <v>0.9696945132944808</v>
+        <v>1.020481999049001</v>
       </c>
       <c r="M10">
-        <v>0.9661839096109439</v>
+        <v>1.029444680474851</v>
       </c>
       <c r="N10">
-        <v>0.9758270843479645</v>
+        <v>1.011338828677094</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9340589932559706</v>
+        <v>0.992298408474206</v>
       </c>
       <c r="D11">
-        <v>0.9640694461109276</v>
+        <v>1.013949983287331</v>
       </c>
       <c r="E11">
-        <v>0.9452544134632536</v>
+        <v>1.002703316256773</v>
       </c>
       <c r="F11">
-        <v>0.9413110991777888</v>
+        <v>1.011812933315767</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014596598782948</v>
+        <v>1.040541203261392</v>
       </c>
       <c r="J11">
-        <v>0.9664577794682075</v>
+        <v>1.021995129977285</v>
       </c>
       <c r="K11">
-        <v>0.979702332795731</v>
+        <v>1.028613532670556</v>
       </c>
       <c r="L11">
-        <v>0.9612882684900229</v>
+        <v>1.017574431428355</v>
       </c>
       <c r="M11">
-        <v>0.9574316943642242</v>
+        <v>1.026515461250085</v>
       </c>
       <c r="N11">
-        <v>0.9678302603693092</v>
+        <v>1.0104369214991</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.930305897758081</v>
+        <v>0.9908209090123968</v>
       </c>
       <c r="D12">
-        <v>0.9611436473175682</v>
+        <v>1.012833026163359</v>
       </c>
       <c r="E12">
-        <v>0.9417170196225518</v>
+        <v>1.001379334310227</v>
       </c>
       <c r="F12">
-        <v>0.9376352099743004</v>
+        <v>1.010484217301578</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013199600243489</v>
+        <v>1.040039916295843</v>
       </c>
       <c r="J12">
-        <v>0.963383568328726</v>
+        <v>1.021018889688415</v>
       </c>
       <c r="K12">
-        <v>0.9770551570042584</v>
+        <v>1.027718427430618</v>
       </c>
       <c r="L12">
-        <v>0.9580530189972217</v>
+        <v>1.01648015607697</v>
       </c>
       <c r="M12">
-        <v>0.9540633857015142</v>
+        <v>1.025413275469564</v>
       </c>
       <c r="N12">
-        <v>0.9647516834973926</v>
+        <v>1.010097257892522</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9311172939310085</v>
+        <v>0.9911387421219109</v>
       </c>
       <c r="D13">
-        <v>0.9617760327901924</v>
+        <v>1.013073248735972</v>
       </c>
       <c r="E13">
-        <v>0.9424816376620085</v>
+        <v>1.001664080557327</v>
       </c>
       <c r="F13">
-        <v>0.9384297807307289</v>
+        <v>1.010769970019314</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013501705153651</v>
+        <v>1.040147814974571</v>
       </c>
       <c r="J13">
-        <v>0.9640481895773766</v>
+        <v>1.021228907139403</v>
       </c>
       <c r="K13">
-        <v>0.9776274655574858</v>
+        <v>1.027910992092207</v>
       </c>
       <c r="L13">
-        <v>0.9587524129522373</v>
+        <v>1.016715541690689</v>
       </c>
       <c r="M13">
-        <v>0.9547915412579755</v>
+        <v>1.025650351702633</v>
       </c>
       <c r="N13">
-        <v>0.9654172485844492</v>
+        <v>1.010170331750811</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9337515849761033</v>
+        <v>0.9921766837555134</v>
       </c>
       <c r="D14">
-        <v>0.9638297321474045</v>
+        <v>1.013857938713994</v>
       </c>
       <c r="E14">
-        <v>0.9449646087680802</v>
+        <v>1.002594211012885</v>
       </c>
       <c r="F14">
-        <v>0.9410099553141935</v>
+        <v>1.011703432722654</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014482211113368</v>
+        <v>1.040499933318163</v>
       </c>
       <c r="J14">
-        <v>0.9662059759044836</v>
+        <v>1.021914707743282</v>
       </c>
       <c r="K14">
-        <v>0.9794855113677758</v>
+        <v>1.028539795093802</v>
       </c>
       <c r="L14">
-        <v>0.9610232554784762</v>
+        <v>1.017484274457612</v>
       </c>
       <c r="M14">
-        <v>0.957155780447672</v>
+        <v>1.026424647629185</v>
       </c>
       <c r="N14">
-        <v>0.9675780992156428</v>
+        <v>1.010408941269278</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9353565026716797</v>
+        <v>0.9928135673664138</v>
       </c>
       <c r="D15">
-        <v>0.9650813623313041</v>
+        <v>1.014339577230038</v>
       </c>
       <c r="E15">
-        <v>0.9464777470797421</v>
+        <v>1.003165123526317</v>
       </c>
       <c r="F15">
-        <v>0.9425822844085244</v>
+        <v>1.012276424370371</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015079328709389</v>
+        <v>1.040715806121545</v>
       </c>
       <c r="J15">
-        <v>0.967520592624056</v>
+        <v>1.022335477749667</v>
       </c>
       <c r="K15">
-        <v>0.9806174834211477</v>
+        <v>1.028925589228003</v>
       </c>
       <c r="L15">
-        <v>0.9624068742426617</v>
+        <v>1.017955998913467</v>
       </c>
       <c r="M15">
-        <v>0.9585963155753189</v>
+        <v>1.026899817626594</v>
       </c>
       <c r="N15">
-        <v>0.9688945828417453</v>
+        <v>1.010555331854701</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9444378248157964</v>
+        <v>0.9964813448448679</v>
       </c>
       <c r="D16">
-        <v>0.9721695189207302</v>
+        <v>1.017115516415623</v>
       </c>
       <c r="E16">
-        <v>0.9550455361637018</v>
+        <v>1.006455682096323</v>
       </c>
       <c r="F16">
-        <v>0.9514846383157434</v>
+        <v>1.015579467488818</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01845407529553</v>
+        <v>1.041956115052531</v>
       </c>
       <c r="J16">
-        <v>0.9749590489524306</v>
+        <v>1.024758031400328</v>
       </c>
       <c r="K16">
-        <v>0.9870219066197691</v>
+        <v>1.03114668047607</v>
       </c>
       <c r="L16">
-        <v>0.9702376040224212</v>
+        <v>1.020673009154357</v>
       </c>
       <c r="M16">
-        <v>0.9667493679052473</v>
+        <v>1.029637145286504</v>
       </c>
       <c r="N16">
-        <v>0.9763436026313087</v>
+        <v>1.011398046543473</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9499222671334052</v>
+        <v>0.9987485453605509</v>
       </c>
       <c r="D17">
-        <v>0.9764547986803559</v>
+        <v>1.018833295960483</v>
       </c>
       <c r="E17">
-        <v>0.9602245498604878</v>
+        <v>1.008492024690112</v>
       </c>
       <c r="F17">
-        <v>0.9568654669346441</v>
+        <v>1.017623963850795</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.020488368490131</v>
+        <v>1.04272021758596</v>
       </c>
       <c r="J17">
-        <v>0.9794508454923851</v>
+        <v>1.026254900216064</v>
       </c>
       <c r="K17">
-        <v>0.9908886514531101</v>
+        <v>1.032518975258677</v>
       </c>
       <c r="L17">
-        <v>0.9749678815763632</v>
+        <v>1.022352778443915</v>
       </c>
       <c r="M17">
-        <v>0.9716745714756471</v>
+        <v>1.031329879931856</v>
       </c>
       <c r="N17">
-        <v>0.9808417780375666</v>
+        <v>1.011918636893179</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9530509130238367</v>
+        <v>1.000059271582196</v>
       </c>
       <c r="D18">
-        <v>0.9789008032933346</v>
+        <v>1.019827027346666</v>
       </c>
       <c r="E18">
-        <v>0.9631805274308209</v>
+        <v>1.009670097979941</v>
       </c>
       <c r="F18">
-        <v>0.9599365147534491</v>
+        <v>1.018806903715079</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021647370104706</v>
+        <v>1.043161017379625</v>
       </c>
       <c r="J18">
-        <v>0.9820129534339143</v>
+        <v>1.027120039895212</v>
       </c>
       <c r="K18">
-        <v>0.9930939540952802</v>
+        <v>1.033312077143316</v>
       </c>
       <c r="L18">
-        <v>0.9776665926373446</v>
+        <v>1.023323974793173</v>
       </c>
       <c r="M18">
-        <v>0.9744845888770893</v>
+        <v>1.032308714257659</v>
       </c>
       <c r="N18">
-        <v>0.9834075244662502</v>
+        <v>1.012219475986881</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9541062929946768</v>
+        <v>1.000504246658022</v>
       </c>
       <c r="D19">
-        <v>0.9797261339135303</v>
+        <v>1.020164492347555</v>
       </c>
       <c r="E19">
-        <v>0.9641779163116228</v>
+        <v>1.010070174775376</v>
       </c>
       <c r="F19">
-        <v>0.9609727129140283</v>
+        <v>1.019208658140953</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02203807339183</v>
+        <v>1.043310501020879</v>
       </c>
       <c r="J19">
-        <v>0.9828771686845011</v>
+        <v>1.027413701772105</v>
       </c>
       <c r="K19">
-        <v>0.9938377653834626</v>
+        <v>1.033581279676149</v>
       </c>
       <c r="L19">
-        <v>0.978576982273087</v>
+        <v>1.023653695277533</v>
       </c>
       <c r="M19">
-        <v>0.9754325449411881</v>
+        <v>1.032641051534335</v>
       </c>
       <c r="N19">
-        <v>0.9842729670016201</v>
+        <v>1.012321584512041</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9493412409378927</v>
+        <v>0.9985065140426669</v>
       </c>
       <c r="D20">
-        <v>0.9760006590139461</v>
+        <v>1.018649850160994</v>
       </c>
       <c r="E20">
-        <v>0.9596757149902639</v>
+        <v>1.008274553489176</v>
       </c>
       <c r="F20">
-        <v>0.9562952581610511</v>
+        <v>1.017405606263482</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020273005627975</v>
+        <v>1.042638744978069</v>
       </c>
       <c r="J20">
-        <v>0.9789750074572892</v>
+        <v>1.026095128711709</v>
       </c>
       <c r="K20">
-        <v>0.9904790561428367</v>
+        <v>1.032372504288964</v>
       </c>
       <c r="L20">
-        <v>0.974466720143578</v>
+        <v>1.022173448740088</v>
       </c>
       <c r="M20">
-        <v>0.9711527483209274</v>
+        <v>1.031149151270036</v>
       </c>
       <c r="N20">
-        <v>0.9803652642578815</v>
+        <v>1.011863075109371</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9329796780498509</v>
+        <v>0.991871585278022</v>
       </c>
       <c r="D21">
-        <v>0.9632278595711293</v>
+        <v>1.01362725081456</v>
       </c>
       <c r="E21">
-        <v>0.9442369550054452</v>
+        <v>1.002320765015441</v>
       </c>
       <c r="F21">
-        <v>0.9402538251278582</v>
+        <v>1.011429000004176</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014194951535437</v>
+        <v>1.040396468765885</v>
       </c>
       <c r="J21">
-        <v>0.9655736938057906</v>
+        <v>1.021713127628247</v>
       </c>
       <c r="K21">
-        <v>0.9789410661754342</v>
+        <v>1.028354969576479</v>
       </c>
       <c r="L21">
-        <v>0.9603578194101789</v>
+        <v>1.017258302781193</v>
       </c>
       <c r="M21">
-        <v>0.9564629739289677</v>
+        <v>1.02619703398739</v>
       </c>
       <c r="N21">
-        <v>0.9669449192038456</v>
+        <v>1.010338807312344</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.921915486056182</v>
+        <v>0.9875862322282565</v>
       </c>
       <c r="D22">
-        <v>0.9546095236069299</v>
+        <v>1.010389857344626</v>
       </c>
       <c r="E22">
-        <v>0.9338150613911465</v>
+        <v>0.9984833463743997</v>
       </c>
       <c r="F22">
-        <v>0.9294231267722632</v>
+        <v>1.007578356870052</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010073288160169</v>
+        <v>1.038939870898331</v>
       </c>
       <c r="J22">
-        <v>0.9565112549181251</v>
+        <v>1.018881115610872</v>
       </c>
       <c r="K22">
-        <v>0.9711371868472599</v>
+        <v>1.025758261275209</v>
       </c>
       <c r="L22">
-        <v>0.9508224704802927</v>
+        <v>1.014084908462219</v>
       </c>
       <c r="M22">
-        <v>0.9465355510289004</v>
+        <v>1.023001165254545</v>
       </c>
       <c r="N22">
-        <v>0.9578696106134832</v>
+        <v>1.009353368420111</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9278626331082102</v>
+        <v>0.9898691837307705</v>
       </c>
       <c r="D23">
-        <v>0.959239941621665</v>
+        <v>1.01211387141605</v>
       </c>
       <c r="E23">
-        <v>0.9394150975884641</v>
+        <v>1.000526890704536</v>
       </c>
       <c r="F23">
-        <v>0.935243056351648</v>
+        <v>1.009628798891727</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01228964935029</v>
+        <v>1.039716616186545</v>
       </c>
       <c r="J23">
-        <v>0.9613822952984441</v>
+        <v>1.020389969062889</v>
       </c>
       <c r="K23">
-        <v>0.9753318264658071</v>
+        <v>1.027141766013246</v>
       </c>
       <c r="L23">
-        <v>0.9559471790599111</v>
+        <v>1.015775347339965</v>
       </c>
       <c r="M23">
-        <v>0.9518709541169784</v>
+        <v>1.024703440447417</v>
       </c>
       <c r="N23">
-        <v>0.9627475684298586</v>
+        <v>1.009878422549278</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9496039975809168</v>
+        <v>0.9986159136254222</v>
       </c>
       <c r="D24">
-        <v>0.9762060295304417</v>
+        <v>1.018732766767946</v>
       </c>
       <c r="E24">
-        <v>0.9599239089421427</v>
+        <v>1.008372849241089</v>
       </c>
       <c r="F24">
-        <v>0.956553118172772</v>
+        <v>1.017504302194761</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.020370403502762</v>
+        <v>1.042675574019912</v>
       </c>
       <c r="J24">
-        <v>0.9791901958916113</v>
+        <v>1.026167347117228</v>
       </c>
       <c r="K24">
-        <v>0.9906642884792969</v>
+        <v>1.032438710832199</v>
       </c>
       <c r="L24">
-        <v>0.9746933587978727</v>
+        <v>1.022254506583298</v>
       </c>
       <c r="M24">
-        <v>0.9713887304524317</v>
+        <v>1.031230841009812</v>
       </c>
       <c r="N24">
-        <v>0.9805807582844626</v>
+        <v>1.011888189760955</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9721074820297231</v>
+        <v>1.008310744452191</v>
       </c>
       <c r="D25">
-        <v>0.9938191156286664</v>
+        <v>1.026093419019002</v>
       </c>
       <c r="E25">
-        <v>0.9812094723755833</v>
+        <v>1.017100288182512</v>
       </c>
       <c r="F25">
-        <v>0.9786660756166961</v>
+        <v>1.026270318606474</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028678414579799</v>
+        <v>1.04591866388366</v>
       </c>
       <c r="J25">
-        <v>0.9976114353298003</v>
+        <v>1.032561619746675</v>
       </c>
       <c r="K25">
-        <v>1.006514145677248</v>
+        <v>1.038299735473997</v>
       </c>
       <c r="L25">
-        <v>0.9941066633836216</v>
+        <v>1.029438819735929</v>
       </c>
       <c r="M25">
-        <v>0.9916048547757197</v>
+        <v>1.038474063791043</v>
       </c>
       <c r="N25">
-        <v>0.9990281579955996</v>
+        <v>1.014110804964676</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.015715277812433</v>
+        <v>1.046458953949363</v>
       </c>
       <c r="D2">
-        <v>1.031731534661776</v>
+        <v>1.05085567420715</v>
       </c>
       <c r="E2">
-        <v>1.023788531232408</v>
+        <v>1.050126891390883</v>
       </c>
       <c r="F2">
-        <v>1.032992233640624</v>
+        <v>1.058919810969283</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048364524187229</v>
+        <v>1.043013168987303</v>
       </c>
       <c r="J2">
-        <v>1.037435896745385</v>
+        <v>1.051513238183965</v>
       </c>
       <c r="K2">
-        <v>1.042765814438324</v>
+        <v>1.053608792000661</v>
       </c>
       <c r="L2">
-        <v>1.034926110947384</v>
+        <v>1.052882033625601</v>
       </c>
       <c r="M2">
-        <v>1.044010300498988</v>
+        <v>1.061650729357352</v>
       </c>
       <c r="N2">
-        <v>1.015803292828474</v>
+        <v>1.02095638341446</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020918654108435</v>
+        <v>1.04754372611421</v>
       </c>
       <c r="D3">
-        <v>1.03570166043651</v>
+        <v>1.05170569495475</v>
       </c>
       <c r="E3">
-        <v>1.028500611489277</v>
+        <v>1.051161117473204</v>
       </c>
       <c r="F3">
-        <v>1.037730211145898</v>
+        <v>1.059964188561709</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050064477862164</v>
+        <v>1.043311086746218</v>
       </c>
       <c r="J3">
-        <v>1.040854856496365</v>
+        <v>1.052245420299244</v>
       </c>
       <c r="K3">
-        <v>1.045897235432167</v>
+        <v>1.054271246094916</v>
       </c>
       <c r="L3">
-        <v>1.038781359971365</v>
+        <v>1.053728071762166</v>
       </c>
       <c r="M3">
-        <v>1.04790205656095</v>
+        <v>1.062508651516115</v>
       </c>
       <c r="N3">
-        <v>1.016989237904153</v>
+        <v>1.021206120846143</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024210724757484</v>
+        <v>1.048245792057101</v>
       </c>
       <c r="D4">
-        <v>1.038216788073717</v>
+        <v>1.052255839449221</v>
       </c>
       <c r="E4">
-        <v>1.031487134347126</v>
+        <v>1.051830813601488</v>
       </c>
       <c r="F4">
-        <v>1.040734093932435</v>
+        <v>1.060640522624598</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051131027618531</v>
+        <v>1.043502741708715</v>
       </c>
       <c r="J4">
-        <v>1.043014758432264</v>
+        <v>1.052718760902137</v>
       </c>
       <c r="K4">
-        <v>1.047874852897424</v>
+        <v>1.054699378149174</v>
       </c>
       <c r="L4">
-        <v>1.041219828326181</v>
+        <v>1.054275392167799</v>
       </c>
       <c r="M4">
-        <v>1.050364547440731</v>
+        <v>1.063063730501904</v>
       </c>
       <c r="N4">
-        <v>1.017737828828218</v>
+        <v>1.021367420852036</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.025577506696093</v>
+        <v>1.04854097581055</v>
       </c>
       <c r="D5">
-        <v>1.039261738533398</v>
+        <v>1.052487149522707</v>
       </c>
       <c r="E5">
-        <v>1.032728287891047</v>
+        <v>1.052112469255426</v>
       </c>
       <c r="F5">
-        <v>1.041982680746141</v>
+        <v>1.060924985343283</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051571638491103</v>
+        <v>1.043583045753587</v>
       </c>
       <c r="J5">
-        <v>1.043910685346446</v>
+        <v>1.052917650204392</v>
       </c>
       <c r="K5">
-        <v>1.048695005888546</v>
+        <v>1.05487924016709</v>
       </c>
       <c r="L5">
-        <v>1.042232015544601</v>
+        <v>1.054505456136956</v>
       </c>
       <c r="M5">
-        <v>1.051386923030678</v>
+        <v>1.063297072565688</v>
       </c>
       <c r="N5">
-        <v>1.018048186610581</v>
+        <v>1.021435160169379</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.025806006620736</v>
+        <v>1.048590540537086</v>
       </c>
       <c r="D6">
-        <v>1.039436475901032</v>
+        <v>1.052525989209682</v>
       </c>
       <c r="E6">
-        <v>1.032935856124205</v>
+        <v>1.052159767241783</v>
       </c>
       <c r="F6">
-        <v>1.042191504732255</v>
+        <v>1.060972755611577</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051645170212964</v>
+        <v>1.043596513454787</v>
       </c>
       <c r="J6">
-        <v>1.044060418652184</v>
+        <v>1.052951038545463</v>
       </c>
       <c r="K6">
-        <v>1.048832065510591</v>
+        <v>1.054909432473266</v>
       </c>
       <c r="L6">
-        <v>1.042401220995249</v>
+        <v>1.054544083154641</v>
       </c>
       <c r="M6">
-        <v>1.051557844212853</v>
+        <v>1.06333625094827</v>
       </c>
       <c r="N6">
-        <v>1.018100046167089</v>
+        <v>1.021446529719035</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.02422905444677</v>
+        <v>1.048249736178009</v>
       </c>
       <c r="D7">
-        <v>1.038230798905118</v>
+        <v>1.052258930111019</v>
       </c>
       <c r="E7">
-        <v>1.031503774458014</v>
+        <v>1.051834576644858</v>
       </c>
       <c r="F7">
-        <v>1.040750832847446</v>
+        <v>1.060644323111483</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051136945295161</v>
+        <v>1.043503815787307</v>
       </c>
       <c r="J7">
-        <v>1.043026776805832</v>
+        <v>1.05272141887591</v>
       </c>
       <c r="K7">
-        <v>1.047885855460059</v>
+        <v>1.054701781964481</v>
       </c>
       <c r="L7">
-        <v>1.04123340345155</v>
+        <v>1.05427846640999</v>
       </c>
       <c r="M7">
-        <v>1.050378258360828</v>
+        <v>1.063066848481875</v>
       </c>
       <c r="N7">
-        <v>1.017741992743817</v>
+        <v>1.021368326268081</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017489728997735</v>
+        <v>1.046825527782304</v>
       </c>
       <c r="D8">
-        <v>1.033084691869361</v>
+        <v>1.051142916727247</v>
       </c>
       <c r="E8">
-        <v>1.025394305538947</v>
+        <v>1.050476312897503</v>
       </c>
       <c r="F8">
-        <v>1.034606629515456</v>
+        <v>1.059272648834019</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048946101547127</v>
+        <v>1.043114083059448</v>
       </c>
       <c r="J8">
-        <v>1.038602476051048</v>
+        <v>1.051760771570202</v>
       </c>
       <c r="K8">
-        <v>1.043834409871069</v>
+        <v>1.053832779021877</v>
       </c>
       <c r="L8">
-        <v>1.036240940023879</v>
+        <v>1.053167981537207</v>
       </c>
       <c r="M8">
-        <v>1.045337380396095</v>
+        <v>1.061940679226216</v>
       </c>
       <c r="N8">
-        <v>1.016208072961808</v>
+        <v>1.021040844716883</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005006358853017</v>
+        <v>1.044316992664666</v>
       </c>
       <c r="D9">
-        <v>1.023581828907703</v>
+        <v>1.049177327923603</v>
       </c>
       <c r="E9">
-        <v>1.014121913197496</v>
+        <v>1.048086582033449</v>
       </c>
       <c r="F9">
-        <v>1.023278099860198</v>
+        <v>1.056859821393666</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044818089313287</v>
+        <v>1.042418768297724</v>
       </c>
       <c r="J9">
-        <v>1.030383559929952</v>
+        <v>1.050064697647502</v>
       </c>
       <c r="K9">
-        <v>1.036303552344606</v>
+        <v>1.052297510377319</v>
       </c>
       <c r="L9">
-        <v>1.02698995313796</v>
+        <v>1.05121022945634</v>
       </c>
       <c r="M9">
-        <v>1.036004467453451</v>
+        <v>1.059955820302681</v>
       </c>
       <c r="N9">
-        <v>1.013353980010475</v>
+        <v>1.020461513549286</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9962235201596101</v>
+        <v>1.042645353529063</v>
       </c>
       <c r="D10">
-        <v>1.016920260968143</v>
+        <v>1.047867609129508</v>
       </c>
       <c r="E10">
-        <v>1.006224222787204</v>
+        <v>1.046495924115091</v>
       </c>
       <c r="F10">
-        <v>1.015347102091089</v>
+        <v>1.055254130996995</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041869093801918</v>
+        <v>1.041949477839475</v>
       </c>
       <c r="J10">
-        <v>1.024587777245064</v>
+        <v>1.048931772492606</v>
       </c>
       <c r="K10">
-        <v>1.03099059053172</v>
+        <v>1.051271335187909</v>
       </c>
       <c r="L10">
-        <v>1.020481999049001</v>
+        <v>1.049904436420728</v>
       </c>
       <c r="M10">
-        <v>1.029444680474851</v>
+        <v>1.058632318482804</v>
       </c>
       <c r="N10">
-        <v>1.011338828677094</v>
+        <v>1.020073776542618</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.992298408474206</v>
+        <v>1.041921679468916</v>
       </c>
       <c r="D11">
-        <v>1.013949983287331</v>
+        <v>1.047300650173607</v>
       </c>
       <c r="E11">
-        <v>1.002703316256773</v>
+        <v>1.045807744062996</v>
       </c>
       <c r="F11">
-        <v>1.011812933315767</v>
+        <v>1.054559529620408</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040541203261392</v>
+        <v>1.041744907421843</v>
       </c>
       <c r="J11">
-        <v>1.021995129977285</v>
+        <v>1.048440679331346</v>
       </c>
       <c r="K11">
-        <v>1.028613532670556</v>
+        <v>1.050826359757834</v>
       </c>
       <c r="L11">
-        <v>1.017574431428355</v>
+        <v>1.04933886546459</v>
       </c>
       <c r="M11">
-        <v>1.026515461250085</v>
+        <v>1.058059166562746</v>
       </c>
       <c r="N11">
-        <v>1.0104369214991</v>
+        <v>1.019905523917659</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9908209090123968</v>
+        <v>1.041652897617227</v>
       </c>
       <c r="D12">
-        <v>1.012833026163359</v>
+        <v>1.047090080333078</v>
       </c>
       <c r="E12">
-        <v>1.001379334310227</v>
+        <v>1.045552211212508</v>
       </c>
       <c r="F12">
-        <v>1.010484217301578</v>
+        <v>1.05430162490831</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040039916295843</v>
+        <v>1.041668715847797</v>
       </c>
       <c r="J12">
-        <v>1.021018889688415</v>
+        <v>1.048258185872788</v>
       </c>
       <c r="K12">
-        <v>1.027718427430618</v>
+        <v>1.050660980718848</v>
       </c>
       <c r="L12">
-        <v>1.01648015607697</v>
+        <v>1.049128764004664</v>
       </c>
       <c r="M12">
-        <v>1.025413275469564</v>
+        <v>1.057846262372897</v>
       </c>
       <c r="N12">
-        <v>1.010097257892522</v>
+        <v>1.019842973404163</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9911387421219109</v>
+        <v>1.041710551209888</v>
       </c>
       <c r="D13">
-        <v>1.013073248735972</v>
+        <v>1.047135247190706</v>
       </c>
       <c r="E13">
-        <v>1.001664080557327</v>
+        <v>1.045607019901627</v>
       </c>
       <c r="F13">
-        <v>1.010769970019314</v>
+        <v>1.054356941766026</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040147814974571</v>
+        <v>1.041685068476354</v>
       </c>
       <c r="J13">
-        <v>1.021228907139403</v>
+        <v>1.048297334942493</v>
       </c>
       <c r="K13">
-        <v>1.027910992092207</v>
+        <v>1.050696459398636</v>
       </c>
       <c r="L13">
-        <v>1.016715541690689</v>
+        <v>1.049173832533499</v>
       </c>
       <c r="M13">
-        <v>1.025650351702633</v>
+        <v>1.057891931498922</v>
       </c>
       <c r="N13">
-        <v>1.010170331750811</v>
+        <v>1.01985639314384</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9921766837555134</v>
+        <v>1.041899461413354</v>
       </c>
       <c r="D14">
-        <v>1.013857938713994</v>
+        <v>1.047283243914784</v>
       </c>
       <c r="E14">
-        <v>1.002594211012885</v>
+        <v>1.045786619845933</v>
       </c>
       <c r="F14">
-        <v>1.011703432722654</v>
+        <v>1.0545382090725</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040499933318163</v>
+        <v>1.04173861358477</v>
       </c>
       <c r="J14">
-        <v>1.021914707743282</v>
+        <v>1.04842559598938</v>
       </c>
       <c r="K14">
-        <v>1.028539795093802</v>
+        <v>1.050812691419905</v>
       </c>
       <c r="L14">
-        <v>1.017484274457612</v>
+        <v>1.049321498886688</v>
       </c>
       <c r="M14">
-        <v>1.026424647629185</v>
+        <v>1.058041568040928</v>
       </c>
       <c r="N14">
-        <v>1.010408941269278</v>
+        <v>1.019900354573763</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9928135673664138</v>
+        <v>1.042015858242365</v>
       </c>
       <c r="D15">
-        <v>1.014339577230038</v>
+        <v>1.04737443276285</v>
       </c>
       <c r="E15">
-        <v>1.003165123526317</v>
+        <v>1.045897288939504</v>
       </c>
       <c r="F15">
-        <v>1.012276424370371</v>
+        <v>1.054649907249087</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040715806121545</v>
+        <v>1.041771577327063</v>
       </c>
       <c r="J15">
-        <v>1.022335477749667</v>
+        <v>1.048504611303709</v>
       </c>
       <c r="K15">
-        <v>1.028925589228003</v>
+        <v>1.050884293169949</v>
       </c>
       <c r="L15">
-        <v>1.017955998913467</v>
+        <v>1.049412477920189</v>
       </c>
       <c r="M15">
-        <v>1.026899817626594</v>
+        <v>1.058133762721883</v>
       </c>
       <c r="N15">
-        <v>1.010555331854701</v>
+        <v>1.0199274335089</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9964813448448679</v>
+        <v>1.042693384641122</v>
       </c>
       <c r="D16">
-        <v>1.017115516415623</v>
+        <v>1.047905239675366</v>
       </c>
       <c r="E16">
-        <v>1.006455682096323</v>
+        <v>1.04654160868423</v>
       </c>
       <c r="F16">
-        <v>1.015579467488818</v>
+        <v>1.055300243588122</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041956115052531</v>
+        <v>1.041963025754427</v>
       </c>
       <c r="J16">
-        <v>1.024758031400328</v>
+        <v>1.048964353572186</v>
       </c>
       <c r="K16">
-        <v>1.03114668047607</v>
+        <v>1.051300853368851</v>
       </c>
       <c r="L16">
-        <v>1.020673009154357</v>
+        <v>1.049941968250638</v>
       </c>
       <c r="M16">
-        <v>1.029637145286504</v>
+        <v>1.058670355278903</v>
       </c>
       <c r="N16">
-        <v>1.011398046543473</v>
+        <v>1.02008493533848</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9987485453605509</v>
+        <v>1.043118420563494</v>
       </c>
       <c r="D17">
-        <v>1.018833295960483</v>
+        <v>1.048238243273496</v>
       </c>
       <c r="E17">
-        <v>1.008492024690112</v>
+        <v>1.046945930090972</v>
       </c>
       <c r="F17">
-        <v>1.017623963850795</v>
+        <v>1.055708362638165</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04272021758596</v>
+        <v>1.042082750962189</v>
       </c>
       <c r="J17">
-        <v>1.026254900216064</v>
+        <v>1.049252596025139</v>
       </c>
       <c r="K17">
-        <v>1.032518975258677</v>
+        <v>1.051561980635749</v>
       </c>
       <c r="L17">
-        <v>1.022352778443915</v>
+        <v>1.050274062260603</v>
       </c>
       <c r="M17">
-        <v>1.031329879931856</v>
+        <v>1.059006927704941</v>
       </c>
       <c r="N17">
-        <v>1.011918636893179</v>
+        <v>1.020183635764904</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000059271582196</v>
+        <v>1.043366351988866</v>
       </c>
       <c r="D18">
-        <v>1.019827027346666</v>
+        <v>1.048432493860141</v>
       </c>
       <c r="E18">
-        <v>1.009670097979941</v>
+        <v>1.047181820407196</v>
       </c>
       <c r="F18">
-        <v>1.018806903715079</v>
+        <v>1.055946476523342</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043161017379625</v>
+        <v>1.04215245299092</v>
       </c>
       <c r="J18">
-        <v>1.027120039895212</v>
+        <v>1.049420671928243</v>
       </c>
       <c r="K18">
-        <v>1.033312077143316</v>
+        <v>1.05171423050208</v>
       </c>
       <c r="L18">
-        <v>1.023323974793173</v>
+        <v>1.050467752229902</v>
       </c>
       <c r="M18">
-        <v>1.032308714257659</v>
+        <v>1.059203238251671</v>
       </c>
       <c r="N18">
-        <v>1.012219475986881</v>
+        <v>1.020241171319177</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000504246658022</v>
+        <v>1.043450892788874</v>
       </c>
       <c r="D19">
-        <v>1.020164492347555</v>
+        <v>1.048498730865093</v>
       </c>
       <c r="E19">
-        <v>1.010070174775376</v>
+        <v>1.047262262491441</v>
       </c>
       <c r="F19">
-        <v>1.019208658140953</v>
+        <v>1.056027678220162</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043310501020879</v>
+        <v>1.042176197249891</v>
       </c>
       <c r="J19">
-        <v>1.027413701772105</v>
+        <v>1.049477972813084</v>
       </c>
       <c r="K19">
-        <v>1.033581279676149</v>
+        <v>1.051766133382267</v>
       </c>
       <c r="L19">
-        <v>1.023653695277533</v>
+        <v>1.050533792988443</v>
       </c>
       <c r="M19">
-        <v>1.032641051534335</v>
+        <v>1.059270173980015</v>
       </c>
       <c r="N19">
-        <v>1.012321584512041</v>
+        <v>1.020260783562304</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9985065140426669</v>
+        <v>1.043072816667551</v>
       </c>
       <c r="D20">
-        <v>1.018649850160994</v>
+        <v>1.048202513562692</v>
       </c>
       <c r="E20">
-        <v>1.008274553489176</v>
+        <v>1.046902544388905</v>
       </c>
       <c r="F20">
-        <v>1.017405606263482</v>
+        <v>1.055664568608269</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042638744978069</v>
+        <v>1.042069919198591</v>
       </c>
       <c r="J20">
-        <v>1.026095128711709</v>
+        <v>1.049221675618098</v>
       </c>
       <c r="K20">
-        <v>1.032372504288964</v>
+        <v>1.051533970486494</v>
       </c>
       <c r="L20">
-        <v>1.022173448740088</v>
+        <v>1.050238433252632</v>
       </c>
       <c r="M20">
-        <v>1.031149151270036</v>
+        <v>1.058970817336463</v>
       </c>
       <c r="N20">
-        <v>1.011863075109371</v>
+        <v>1.02017304973539</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C21">
-        <v>0.991871585278022</v>
+        <v>1.041843831439339</v>
       </c>
       <c r="D21">
-        <v>1.01362725081456</v>
+        <v>1.047239661904991</v>
       </c>
       <c r="E21">
-        <v>1.002320765015441</v>
+        <v>1.045733729713924</v>
       </c>
       <c r="F21">
-        <v>1.011429000004176</v>
+        <v>1.054484827575766</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040396468765885</v>
+        <v>1.041722851544285</v>
       </c>
       <c r="J21">
-        <v>1.021713127628247</v>
+        <v>1.04838782850585</v>
       </c>
       <c r="K21">
-        <v>1.028354969576479</v>
+        <v>1.050778466618655</v>
       </c>
       <c r="L21">
-        <v>1.017258302781193</v>
+        <v>1.04927801546803</v>
       </c>
       <c r="M21">
-        <v>1.02619703398739</v>
+        <v>1.057997504086213</v>
       </c>
       <c r="N21">
-        <v>1.010338807312344</v>
+        <v>1.019887410518302</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9875862322282565</v>
+        <v>1.0410712519237</v>
       </c>
       <c r="D22">
-        <v>1.010389857344626</v>
+        <v>1.046634417590432</v>
       </c>
       <c r="E22">
-        <v>0.9984833463743997</v>
+        <v>1.044999357844251</v>
       </c>
       <c r="F22">
-        <v>1.007578356870052</v>
+        <v>1.053743662898705</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038939870898331</v>
+        <v>1.041503450195867</v>
       </c>
       <c r="J22">
-        <v>1.018881115610872</v>
+        <v>1.047863095183958</v>
       </c>
       <c r="K22">
-        <v>1.025758261275209</v>
+        <v>1.050302899686399</v>
       </c>
       <c r="L22">
-        <v>1.014084908462219</v>
+        <v>1.048674028271148</v>
       </c>
       <c r="M22">
-        <v>1.023001165254545</v>
+        <v>1.057385485288453</v>
       </c>
       <c r="N22">
-        <v>1.009353368420111</v>
+        <v>1.019707505434342</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9898691837307705</v>
+        <v>1.041480798613484</v>
       </c>
       <c r="D23">
-        <v>1.01211387141605</v>
+        <v>1.046955255824557</v>
       </c>
       <c r="E23">
-        <v>1.000526890704536</v>
+        <v>1.045388614110538</v>
       </c>
       <c r="F23">
-        <v>1.009628798891727</v>
+        <v>1.054136512823527</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039716616186545</v>
+        <v>1.041619871434909</v>
       </c>
       <c r="J23">
-        <v>1.020389969062889</v>
+        <v>1.048141309934436</v>
       </c>
       <c r="K23">
-        <v>1.027141766013246</v>
+        <v>1.050555058999639</v>
       </c>
       <c r="L23">
-        <v>1.015775347339965</v>
+        <v>1.048994226084402</v>
       </c>
       <c r="M23">
-        <v>1.024703440447417</v>
+        <v>1.057709933541065</v>
       </c>
       <c r="N23">
-        <v>1.009878422549278</v>
+        <v>1.019802906105732</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9986159136254222</v>
+        <v>1.04309342305803</v>
       </c>
       <c r="D24">
-        <v>1.018732766767946</v>
+        <v>1.04821865823393</v>
       </c>
       <c r="E24">
-        <v>1.008372849241089</v>
+        <v>1.046922148345497</v>
       </c>
       <c r="F24">
-        <v>1.017504302194761</v>
+        <v>1.055684357044485</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042675574019912</v>
+        <v>1.042075717726967</v>
       </c>
       <c r="J24">
-        <v>1.026167347117228</v>
+        <v>1.049235647376673</v>
       </c>
       <c r="K24">
-        <v>1.032438710832199</v>
+        <v>1.051546627256414</v>
       </c>
       <c r="L24">
-        <v>1.022254506583298</v>
+        <v>1.050254532513445</v>
       </c>
       <c r="M24">
-        <v>1.031230841009812</v>
+        <v>1.058987134077453</v>
       </c>
       <c r="N24">
-        <v>1.011888189760955</v>
+        <v>1.020177833213755</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008310744452191</v>
+        <v>1.044965380940761</v>
       </c>
       <c r="D25">
-        <v>1.026093419019002</v>
+        <v>1.049685362601717</v>
       </c>
       <c r="E25">
-        <v>1.017100288182512</v>
+        <v>1.048703945254007</v>
       </c>
       <c r="F25">
-        <v>1.026270318606474</v>
+        <v>1.057483091686957</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04591866388366</v>
+        <v>1.042599537216838</v>
       </c>
       <c r="J25">
-        <v>1.032561619746675</v>
+        <v>1.050503563039622</v>
       </c>
       <c r="K25">
-        <v>1.038299735473997</v>
+        <v>1.052694884144613</v>
       </c>
       <c r="L25">
-        <v>1.029438819735929</v>
+        <v>1.051716465767883</v>
       </c>
       <c r="M25">
-        <v>1.038474063791043</v>
+        <v>1.060469000894461</v>
       </c>
       <c r="N25">
-        <v>1.014110804964676</v>
+        <v>1.020611552362659</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046458953949363</v>
+        <v>1.015715277812433</v>
       </c>
       <c r="D2">
-        <v>1.05085567420715</v>
+        <v>1.031731534661776</v>
       </c>
       <c r="E2">
-        <v>1.050126891390883</v>
+        <v>1.023788531232408</v>
       </c>
       <c r="F2">
-        <v>1.058919810969283</v>
+        <v>1.032992233640624</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043013168987303</v>
+        <v>1.048364524187229</v>
       </c>
       <c r="J2">
-        <v>1.051513238183965</v>
+        <v>1.037435896745385</v>
       </c>
       <c r="K2">
-        <v>1.053608792000661</v>
+        <v>1.042765814438324</v>
       </c>
       <c r="L2">
-        <v>1.052882033625601</v>
+        <v>1.034926110947384</v>
       </c>
       <c r="M2">
-        <v>1.061650729357352</v>
+        <v>1.044010300498988</v>
       </c>
       <c r="N2">
-        <v>1.02095638341446</v>
+        <v>1.015803292828474</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04754372611421</v>
+        <v>1.020918654108437</v>
       </c>
       <c r="D3">
-        <v>1.05170569495475</v>
+        <v>1.035701660436511</v>
       </c>
       <c r="E3">
-        <v>1.051161117473204</v>
+        <v>1.028500611489278</v>
       </c>
       <c r="F3">
-        <v>1.059964188561709</v>
+        <v>1.037730211145899</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043311086746218</v>
+        <v>1.050064477862165</v>
       </c>
       <c r="J3">
-        <v>1.052245420299244</v>
+        <v>1.040854856496366</v>
       </c>
       <c r="K3">
-        <v>1.054271246094916</v>
+        <v>1.045897235432169</v>
       </c>
       <c r="L3">
-        <v>1.053728071762166</v>
+        <v>1.038781359971366</v>
       </c>
       <c r="M3">
-        <v>1.062508651516115</v>
+        <v>1.047902056560951</v>
       </c>
       <c r="N3">
-        <v>1.021206120846143</v>
+        <v>1.016989237904154</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048245792057101</v>
+        <v>1.024210724757484</v>
       </c>
       <c r="D4">
-        <v>1.052255839449221</v>
+        <v>1.038216788073717</v>
       </c>
       <c r="E4">
-        <v>1.051830813601488</v>
+        <v>1.031487134347125</v>
       </c>
       <c r="F4">
-        <v>1.060640522624598</v>
+        <v>1.040734093932435</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043502741708715</v>
+        <v>1.051131027618531</v>
       </c>
       <c r="J4">
-        <v>1.052718760902137</v>
+        <v>1.043014758432264</v>
       </c>
       <c r="K4">
-        <v>1.054699378149174</v>
+        <v>1.047874852897424</v>
       </c>
       <c r="L4">
-        <v>1.054275392167799</v>
+        <v>1.04121982832618</v>
       </c>
       <c r="M4">
-        <v>1.063063730501904</v>
+        <v>1.05036454744073</v>
       </c>
       <c r="N4">
-        <v>1.021367420852036</v>
+        <v>1.017737828828217</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04854097581055</v>
+        <v>1.025577506696091</v>
       </c>
       <c r="D5">
-        <v>1.052487149522707</v>
+        <v>1.039261738533397</v>
       </c>
       <c r="E5">
-        <v>1.052112469255426</v>
+        <v>1.032728287891046</v>
       </c>
       <c r="F5">
-        <v>1.060924985343283</v>
+        <v>1.04198268074614</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043583045753587</v>
+        <v>1.051571638491102</v>
       </c>
       <c r="J5">
-        <v>1.052917650204392</v>
+        <v>1.043910685346445</v>
       </c>
       <c r="K5">
-        <v>1.05487924016709</v>
+        <v>1.048695005888545</v>
       </c>
       <c r="L5">
-        <v>1.054505456136956</v>
+        <v>1.042232015544601</v>
       </c>
       <c r="M5">
-        <v>1.063297072565688</v>
+        <v>1.051386923030677</v>
       </c>
       <c r="N5">
-        <v>1.021435160169379</v>
+        <v>1.01804818661058</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048590540537086</v>
+        <v>1.025806006620736</v>
       </c>
       <c r="D6">
-        <v>1.052525989209682</v>
+        <v>1.039436475901032</v>
       </c>
       <c r="E6">
-        <v>1.052159767241783</v>
+        <v>1.032935856124205</v>
       </c>
       <c r="F6">
-        <v>1.060972755611577</v>
+        <v>1.042191504732255</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043596513454787</v>
+        <v>1.051645170212963</v>
       </c>
       <c r="J6">
-        <v>1.052951038545463</v>
+        <v>1.044060418652184</v>
       </c>
       <c r="K6">
-        <v>1.054909432473266</v>
+        <v>1.048832065510591</v>
       </c>
       <c r="L6">
-        <v>1.054544083154641</v>
+        <v>1.042401220995249</v>
       </c>
       <c r="M6">
-        <v>1.06333625094827</v>
+        <v>1.051557844212852</v>
       </c>
       <c r="N6">
-        <v>1.021446529719035</v>
+        <v>1.018100046167089</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048249736178009</v>
+        <v>1.024229054446769</v>
       </c>
       <c r="D7">
-        <v>1.052258930111019</v>
+        <v>1.038230798905117</v>
       </c>
       <c r="E7">
-        <v>1.051834576644858</v>
+        <v>1.031503774458013</v>
       </c>
       <c r="F7">
-        <v>1.060644323111483</v>
+        <v>1.040750832847446</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043503815787307</v>
+        <v>1.051136945295161</v>
       </c>
       <c r="J7">
-        <v>1.05272141887591</v>
+        <v>1.043026776805832</v>
       </c>
       <c r="K7">
-        <v>1.054701781964481</v>
+        <v>1.047885855460059</v>
       </c>
       <c r="L7">
-        <v>1.05427846640999</v>
+        <v>1.04123340345155</v>
       </c>
       <c r="M7">
-        <v>1.063066848481875</v>
+        <v>1.050378258360828</v>
       </c>
       <c r="N7">
-        <v>1.021368326268081</v>
+        <v>1.017741992743817</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046825527782304</v>
+        <v>1.017489728997733</v>
       </c>
       <c r="D8">
-        <v>1.051142916727247</v>
+        <v>1.03308469186936</v>
       </c>
       <c r="E8">
-        <v>1.050476312897503</v>
+        <v>1.025394305538945</v>
       </c>
       <c r="F8">
-        <v>1.059272648834019</v>
+        <v>1.034606629515455</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043114083059448</v>
+        <v>1.048946101547127</v>
       </c>
       <c r="J8">
-        <v>1.051760771570202</v>
+        <v>1.038602476051047</v>
       </c>
       <c r="K8">
-        <v>1.053832779021877</v>
+        <v>1.043834409871067</v>
       </c>
       <c r="L8">
-        <v>1.053167981537207</v>
+        <v>1.036240940023878</v>
       </c>
       <c r="M8">
-        <v>1.061940679226216</v>
+        <v>1.045337380396094</v>
       </c>
       <c r="N8">
-        <v>1.021040844716883</v>
+        <v>1.016208072961807</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044316992664666</v>
+        <v>1.005006358853016</v>
       </c>
       <c r="D9">
-        <v>1.049177327923603</v>
+        <v>1.023581828907702</v>
       </c>
       <c r="E9">
-        <v>1.048086582033449</v>
+        <v>1.014121913197495</v>
       </c>
       <c r="F9">
-        <v>1.056859821393666</v>
+        <v>1.023278099860198</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042418768297724</v>
+        <v>1.044818089313287</v>
       </c>
       <c r="J9">
-        <v>1.050064697647502</v>
+        <v>1.030383559929951</v>
       </c>
       <c r="K9">
-        <v>1.052297510377319</v>
+        <v>1.036303552344605</v>
       </c>
       <c r="L9">
-        <v>1.05121022945634</v>
+        <v>1.026989953137959</v>
       </c>
       <c r="M9">
-        <v>1.059955820302681</v>
+        <v>1.03600446745345</v>
       </c>
       <c r="N9">
-        <v>1.020461513549286</v>
+        <v>1.013353980010475</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042645353529063</v>
+        <v>0.9962235201596092</v>
       </c>
       <c r="D10">
-        <v>1.047867609129508</v>
+        <v>1.016920260968142</v>
       </c>
       <c r="E10">
-        <v>1.046495924115091</v>
+        <v>1.006224222787203</v>
       </c>
       <c r="F10">
-        <v>1.055254130996995</v>
+        <v>1.015347102091087</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041949477839475</v>
+        <v>1.041869093801918</v>
       </c>
       <c r="J10">
-        <v>1.048931772492606</v>
+        <v>1.024587777245063</v>
       </c>
       <c r="K10">
-        <v>1.051271335187909</v>
+        <v>1.030990590531719</v>
       </c>
       <c r="L10">
-        <v>1.049904436420728</v>
+        <v>1.020481999049</v>
       </c>
       <c r="M10">
-        <v>1.058632318482804</v>
+        <v>1.02944468047485</v>
       </c>
       <c r="N10">
-        <v>1.020073776542618</v>
+        <v>1.011338828677093</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041921679468916</v>
+        <v>0.9922984084742055</v>
       </c>
       <c r="D11">
-        <v>1.047300650173607</v>
+        <v>1.013949983287331</v>
       </c>
       <c r="E11">
-        <v>1.045807744062996</v>
+        <v>1.002703316256772</v>
       </c>
       <c r="F11">
-        <v>1.054559529620408</v>
+        <v>1.011812933315766</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041744907421843</v>
+        <v>1.040541203261392</v>
       </c>
       <c r="J11">
-        <v>1.048440679331346</v>
+        <v>1.021995129977284</v>
       </c>
       <c r="K11">
-        <v>1.050826359757834</v>
+        <v>1.028613532670555</v>
       </c>
       <c r="L11">
-        <v>1.04933886546459</v>
+        <v>1.017574431428355</v>
       </c>
       <c r="M11">
-        <v>1.058059166562746</v>
+        <v>1.026515461250085</v>
       </c>
       <c r="N11">
-        <v>1.019905523917659</v>
+        <v>1.0104369214991</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041652897617227</v>
+        <v>0.9908209090123959</v>
       </c>
       <c r="D12">
-        <v>1.047090080333078</v>
+        <v>1.012833026163358</v>
       </c>
       <c r="E12">
-        <v>1.045552211212508</v>
+        <v>1.001379334310226</v>
       </c>
       <c r="F12">
-        <v>1.05430162490831</v>
+        <v>1.010484217301577</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041668715847797</v>
+        <v>1.040039916295843</v>
       </c>
       <c r="J12">
-        <v>1.048258185872788</v>
+        <v>1.021018889688414</v>
       </c>
       <c r="K12">
-        <v>1.050660980718848</v>
+        <v>1.027718427430617</v>
       </c>
       <c r="L12">
-        <v>1.049128764004664</v>
+        <v>1.016480156076969</v>
       </c>
       <c r="M12">
-        <v>1.057846262372897</v>
+        <v>1.025413275469563</v>
       </c>
       <c r="N12">
-        <v>1.019842973404163</v>
+        <v>1.010097257892521</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041710551209888</v>
+        <v>0.9911387421219117</v>
       </c>
       <c r="D13">
-        <v>1.047135247190706</v>
+        <v>1.013073248735973</v>
       </c>
       <c r="E13">
-        <v>1.045607019901627</v>
+        <v>1.001664080557328</v>
       </c>
       <c r="F13">
-        <v>1.054356941766026</v>
+        <v>1.010769970019315</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041685068476354</v>
+        <v>1.040147814974571</v>
       </c>
       <c r="J13">
-        <v>1.048297334942493</v>
+        <v>1.021228907139404</v>
       </c>
       <c r="K13">
-        <v>1.050696459398636</v>
+        <v>1.027910992092207</v>
       </c>
       <c r="L13">
-        <v>1.049173832533499</v>
+        <v>1.01671554169069</v>
       </c>
       <c r="M13">
-        <v>1.057891931498922</v>
+        <v>1.025650351702634</v>
       </c>
       <c r="N13">
-        <v>1.01985639314384</v>
+        <v>1.010170331750812</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041899461413354</v>
+        <v>0.9921766837555152</v>
       </c>
       <c r="D14">
-        <v>1.047283243914784</v>
+        <v>1.013857938713996</v>
       </c>
       <c r="E14">
-        <v>1.045786619845933</v>
+        <v>1.002594211012887</v>
       </c>
       <c r="F14">
-        <v>1.0545382090725</v>
+        <v>1.011703432722656</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04173861358477</v>
+        <v>1.040499933318164</v>
       </c>
       <c r="J14">
-        <v>1.04842559598938</v>
+        <v>1.021914707743284</v>
       </c>
       <c r="K14">
-        <v>1.050812691419905</v>
+        <v>1.028539795093804</v>
       </c>
       <c r="L14">
-        <v>1.049321498886688</v>
+        <v>1.017484274457614</v>
       </c>
       <c r="M14">
-        <v>1.058041568040928</v>
+        <v>1.026424647629187</v>
       </c>
       <c r="N14">
-        <v>1.019900354573763</v>
+        <v>1.010408941269279</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042015858242365</v>
+        <v>0.9928135673664132</v>
       </c>
       <c r="D15">
-        <v>1.04737443276285</v>
+        <v>1.014339577230037</v>
       </c>
       <c r="E15">
-        <v>1.045897288939504</v>
+        <v>1.003165123526317</v>
       </c>
       <c r="F15">
-        <v>1.054649907249087</v>
+        <v>1.01227642437037</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041771577327063</v>
+        <v>1.040715806121545</v>
       </c>
       <c r="J15">
-        <v>1.048504611303709</v>
+        <v>1.022335477749666</v>
       </c>
       <c r="K15">
-        <v>1.050884293169949</v>
+        <v>1.028925589228002</v>
       </c>
       <c r="L15">
-        <v>1.049412477920189</v>
+        <v>1.017955998913467</v>
       </c>
       <c r="M15">
-        <v>1.058133762721883</v>
+        <v>1.026899817626594</v>
       </c>
       <c r="N15">
-        <v>1.0199274335089</v>
+        <v>1.010555331854701</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042693384641122</v>
+        <v>0.9964813448448679</v>
       </c>
       <c r="D16">
-        <v>1.047905239675366</v>
+        <v>1.017115516415623</v>
       </c>
       <c r="E16">
-        <v>1.04654160868423</v>
+        <v>1.006455682096324</v>
       </c>
       <c r="F16">
-        <v>1.055300243588122</v>
+        <v>1.015579467488818</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041963025754427</v>
+        <v>1.04195611505253</v>
       </c>
       <c r="J16">
-        <v>1.048964353572186</v>
+        <v>1.024758031400328</v>
       </c>
       <c r="K16">
-        <v>1.051300853368851</v>
+        <v>1.031146680476069</v>
       </c>
       <c r="L16">
-        <v>1.049941968250638</v>
+        <v>1.020673009154357</v>
       </c>
       <c r="M16">
-        <v>1.058670355278903</v>
+        <v>1.029637145286505</v>
       </c>
       <c r="N16">
-        <v>1.02008493533848</v>
+        <v>1.011398046543473</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.043118420563494</v>
+        <v>0.9987485453605521</v>
       </c>
       <c r="D17">
-        <v>1.048238243273496</v>
+        <v>1.018833295960485</v>
       </c>
       <c r="E17">
-        <v>1.046945930090972</v>
+        <v>1.008492024690113</v>
       </c>
       <c r="F17">
-        <v>1.055708362638165</v>
+        <v>1.017623963850796</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042082750962189</v>
+        <v>1.042720217585961</v>
       </c>
       <c r="J17">
-        <v>1.049252596025139</v>
+        <v>1.026254900216066</v>
       </c>
       <c r="K17">
-        <v>1.051561980635749</v>
+        <v>1.032518975258678</v>
       </c>
       <c r="L17">
-        <v>1.050274062260603</v>
+        <v>1.022352778443916</v>
       </c>
       <c r="M17">
-        <v>1.059006927704941</v>
+        <v>1.031329879931858</v>
       </c>
       <c r="N17">
-        <v>1.020183635764904</v>
+        <v>1.011918636893179</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.043366351988866</v>
+        <v>1.000059271582197</v>
       </c>
       <c r="D18">
-        <v>1.048432493860141</v>
+        <v>1.019827027346666</v>
       </c>
       <c r="E18">
-        <v>1.047181820407196</v>
+        <v>1.009670097979942</v>
       </c>
       <c r="F18">
-        <v>1.055946476523342</v>
+        <v>1.018806903715079</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04215245299092</v>
+        <v>1.043161017379625</v>
       </c>
       <c r="J18">
-        <v>1.049420671928243</v>
+        <v>1.027120039895212</v>
       </c>
       <c r="K18">
-        <v>1.05171423050208</v>
+        <v>1.033312077143316</v>
       </c>
       <c r="L18">
-        <v>1.050467752229902</v>
+        <v>1.023323974793174</v>
       </c>
       <c r="M18">
-        <v>1.059203238251671</v>
+        <v>1.032308714257659</v>
       </c>
       <c r="N18">
-        <v>1.020241171319177</v>
+        <v>1.012219475986881</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.043450892788874</v>
+        <v>1.000504246658022</v>
       </c>
       <c r="D19">
-        <v>1.048498730865093</v>
+        <v>1.020164492347555</v>
       </c>
       <c r="E19">
-        <v>1.047262262491441</v>
+        <v>1.010070174775376</v>
       </c>
       <c r="F19">
-        <v>1.056027678220162</v>
+        <v>1.019208658140953</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042176197249891</v>
+        <v>1.043310501020879</v>
       </c>
       <c r="J19">
-        <v>1.049477972813084</v>
+        <v>1.027413701772105</v>
       </c>
       <c r="K19">
-        <v>1.051766133382267</v>
+        <v>1.033581279676149</v>
       </c>
       <c r="L19">
-        <v>1.050533792988443</v>
+        <v>1.023653695277533</v>
       </c>
       <c r="M19">
-        <v>1.059270173980015</v>
+        <v>1.032641051534334</v>
       </c>
       <c r="N19">
-        <v>1.020260783562304</v>
+        <v>1.012321584512041</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043072816667551</v>
+        <v>0.998506514042667</v>
       </c>
       <c r="D20">
-        <v>1.048202513562692</v>
+        <v>1.018649850160994</v>
       </c>
       <c r="E20">
-        <v>1.046902544388905</v>
+        <v>1.008274553489175</v>
       </c>
       <c r="F20">
-        <v>1.055664568608269</v>
+        <v>1.017405606263482</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042069919198591</v>
+        <v>1.042638744978069</v>
       </c>
       <c r="J20">
-        <v>1.049221675618098</v>
+        <v>1.026095128711709</v>
       </c>
       <c r="K20">
-        <v>1.051533970486494</v>
+        <v>1.032372504288964</v>
       </c>
       <c r="L20">
-        <v>1.050238433252632</v>
+        <v>1.022173448740088</v>
       </c>
       <c r="M20">
-        <v>1.058970817336463</v>
+        <v>1.031149151270036</v>
       </c>
       <c r="N20">
-        <v>1.02017304973539</v>
+        <v>1.011863075109371</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041843831439339</v>
+        <v>0.9918715852780211</v>
       </c>
       <c r="D21">
-        <v>1.047239661904991</v>
+        <v>1.013627250814559</v>
       </c>
       <c r="E21">
-        <v>1.045733729713924</v>
+        <v>1.00232076501544</v>
       </c>
       <c r="F21">
-        <v>1.054484827575766</v>
+        <v>1.011429000004175</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041722851544285</v>
+        <v>1.040396468765885</v>
       </c>
       <c r="J21">
-        <v>1.04838782850585</v>
+        <v>1.021713127628246</v>
       </c>
       <c r="K21">
-        <v>1.050778466618655</v>
+        <v>1.028354969576478</v>
       </c>
       <c r="L21">
-        <v>1.04927801546803</v>
+        <v>1.017258302781192</v>
       </c>
       <c r="M21">
-        <v>1.057997504086213</v>
+        <v>1.026197033987389</v>
       </c>
       <c r="N21">
-        <v>1.019887410518302</v>
+        <v>1.010338807312343</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.0410712519237</v>
+        <v>0.9875862322282567</v>
       </c>
       <c r="D22">
-        <v>1.046634417590432</v>
+        <v>1.010389857344626</v>
       </c>
       <c r="E22">
-        <v>1.044999357844251</v>
+        <v>0.9984833463743999</v>
       </c>
       <c r="F22">
-        <v>1.053743662898705</v>
+        <v>1.007578356870052</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041503450195867</v>
+        <v>1.038939870898331</v>
       </c>
       <c r="J22">
-        <v>1.047863095183958</v>
+        <v>1.018881115610872</v>
       </c>
       <c r="K22">
-        <v>1.050302899686399</v>
+        <v>1.02575826127521</v>
       </c>
       <c r="L22">
-        <v>1.048674028271148</v>
+        <v>1.014084908462219</v>
       </c>
       <c r="M22">
-        <v>1.057385485288453</v>
+        <v>1.023001165254545</v>
       </c>
       <c r="N22">
-        <v>1.019707505434342</v>
+        <v>1.009353368420111</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041480798613484</v>
+        <v>0.9898691837307715</v>
       </c>
       <c r="D23">
-        <v>1.046955255824557</v>
+        <v>1.012113871416051</v>
       </c>
       <c r="E23">
-        <v>1.045388614110538</v>
+        <v>1.000526890704537</v>
       </c>
       <c r="F23">
-        <v>1.054136512823527</v>
+        <v>1.009628798891728</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041619871434909</v>
+        <v>1.039716616186545</v>
       </c>
       <c r="J23">
-        <v>1.048141309934436</v>
+        <v>1.02038996906289</v>
       </c>
       <c r="K23">
-        <v>1.050555058999639</v>
+        <v>1.027141766013247</v>
       </c>
       <c r="L23">
-        <v>1.048994226084402</v>
+        <v>1.015775347339966</v>
       </c>
       <c r="M23">
-        <v>1.057709933541065</v>
+        <v>1.024703440447418</v>
       </c>
       <c r="N23">
-        <v>1.019802906105732</v>
+        <v>1.009878422549279</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.04309342305803</v>
+        <v>0.9986159136254233</v>
       </c>
       <c r="D24">
-        <v>1.04821865823393</v>
+        <v>1.018732766767946</v>
       </c>
       <c r="E24">
-        <v>1.046922148345497</v>
+        <v>1.00837284924109</v>
       </c>
       <c r="F24">
-        <v>1.055684357044485</v>
+        <v>1.017504302194762</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042075717726967</v>
+        <v>1.042675574019912</v>
       </c>
       <c r="J24">
-        <v>1.049235647376673</v>
+        <v>1.026167347117229</v>
       </c>
       <c r="K24">
-        <v>1.051546627256414</v>
+        <v>1.0324387108322</v>
       </c>
       <c r="L24">
-        <v>1.050254532513445</v>
+        <v>1.022254506583299</v>
       </c>
       <c r="M24">
-        <v>1.058987134077453</v>
+        <v>1.031230841009813</v>
       </c>
       <c r="N24">
-        <v>1.020177833213755</v>
+        <v>1.011888189760955</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044965380940761</v>
+        <v>1.00831074445219</v>
       </c>
       <c r="D25">
-        <v>1.049685362601717</v>
+        <v>1.026093419019002</v>
       </c>
       <c r="E25">
-        <v>1.048703945254007</v>
+        <v>1.017100288182511</v>
       </c>
       <c r="F25">
-        <v>1.057483091686957</v>
+        <v>1.026270318606473</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042599537216838</v>
+        <v>1.045918663883659</v>
       </c>
       <c r="J25">
-        <v>1.050503563039622</v>
+        <v>1.032561619746675</v>
       </c>
       <c r="K25">
-        <v>1.052694884144613</v>
+        <v>1.038299735473996</v>
       </c>
       <c r="L25">
-        <v>1.051716465767883</v>
+        <v>1.029438819735929</v>
       </c>
       <c r="M25">
-        <v>1.060469000894461</v>
+        <v>1.038474063791042</v>
       </c>
       <c r="N25">
-        <v>1.020611552362659</v>
+        <v>1.014110804964675</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015715277812433</v>
+        <v>1.014200450512101</v>
       </c>
       <c r="D2">
-        <v>1.031731534661776</v>
+        <v>1.029742714856591</v>
       </c>
       <c r="E2">
-        <v>1.023788531232408</v>
+        <v>1.022283231196981</v>
       </c>
       <c r="F2">
-        <v>1.032992233640624</v>
+        <v>1.031020738416818</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048364524187229</v>
+        <v>1.048189528111057</v>
       </c>
       <c r="J2">
-        <v>1.037435896745385</v>
+        <v>1.03596456837856</v>
       </c>
       <c r="K2">
-        <v>1.042765814438324</v>
+        <v>1.040802672370348</v>
       </c>
       <c r="L2">
-        <v>1.034926110947384</v>
+        <v>1.033440614424084</v>
       </c>
       <c r="M2">
-        <v>1.044010300498988</v>
+        <v>1.042064181083612</v>
       </c>
       <c r="N2">
-        <v>1.015803292828474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015352373972706</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04186336704106</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039921304319708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020918654108437</v>
+        <v>1.018439937146643</v>
       </c>
       <c r="D3">
-        <v>1.035701660436511</v>
+        <v>1.032570625733499</v>
       </c>
       <c r="E3">
-        <v>1.028500611489278</v>
+        <v>1.0260347630853</v>
       </c>
       <c r="F3">
-        <v>1.037730211145899</v>
+        <v>1.033975380919574</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050064477862165</v>
+        <v>1.049355145004452</v>
       </c>
       <c r="J3">
-        <v>1.040854856496366</v>
+        <v>1.038440228960327</v>
       </c>
       <c r="K3">
-        <v>1.045897235432169</v>
+        <v>1.042803053589223</v>
       </c>
       <c r="L3">
-        <v>1.038781359971366</v>
+        <v>1.036345018326529</v>
       </c>
       <c r="M3">
-        <v>1.047902056560951</v>
+        <v>1.044191240369956</v>
       </c>
       <c r="N3">
-        <v>1.016989237904154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016230129136718</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043546786722675</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041333084392889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024210724757484</v>
+        <v>1.021130642295045</v>
       </c>
       <c r="D4">
-        <v>1.038216788073717</v>
+        <v>1.034369542357887</v>
       </c>
       <c r="E4">
-        <v>1.031487134347125</v>
+        <v>1.028420984196985</v>
       </c>
       <c r="F4">
-        <v>1.040734093932435</v>
+        <v>1.035858732401016</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051131027618531</v>
+        <v>1.050086934722409</v>
       </c>
       <c r="J4">
-        <v>1.043014758432264</v>
+        <v>1.040008845200102</v>
       </c>
       <c r="K4">
-        <v>1.047874852897424</v>
+        <v>1.044070125370264</v>
       </c>
       <c r="L4">
-        <v>1.04121982832618</v>
+        <v>1.038188079441665</v>
       </c>
       <c r="M4">
-        <v>1.05036454744073</v>
+        <v>1.045542811433642</v>
       </c>
       <c r="N4">
-        <v>1.017737828828217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016785877252784</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044616459318951</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042229902689324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025577506696091</v>
+        <v>1.022254374723406</v>
       </c>
       <c r="D5">
-        <v>1.039261738533397</v>
+        <v>1.03512415737927</v>
       </c>
       <c r="E5">
-        <v>1.032728287891046</v>
+        <v>1.029419285661141</v>
       </c>
       <c r="F5">
-        <v>1.04198268074614</v>
+        <v>1.03664615420295</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051571638491102</v>
+        <v>1.05039250064349</v>
       </c>
       <c r="J5">
-        <v>1.043910685346445</v>
+        <v>1.040665151007033</v>
       </c>
       <c r="K5">
-        <v>1.048695005888545</v>
+        <v>1.044601920029232</v>
       </c>
       <c r="L5">
-        <v>1.042232015544601</v>
+        <v>1.038959118330864</v>
       </c>
       <c r="M5">
-        <v>1.051386923030677</v>
+        <v>1.046107498774899</v>
       </c>
       <c r="N5">
-        <v>1.01804818661058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017019013970546</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.045063368818685</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042613069941406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025806006620736</v>
+        <v>1.022448104910949</v>
       </c>
       <c r="D6">
-        <v>1.039436475901032</v>
+        <v>1.035257194679968</v>
       </c>
       <c r="E6">
-        <v>1.032935856124205</v>
+        <v>1.029592080588977</v>
       </c>
       <c r="F6">
-        <v>1.042191504732255</v>
+        <v>1.036780765263607</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051645170212963</v>
+        <v>1.050447379424015</v>
       </c>
       <c r="J6">
-        <v>1.044060418652184</v>
+        <v>1.040780517872906</v>
       </c>
       <c r="K6">
-        <v>1.048832065510591</v>
+        <v>1.044697519884931</v>
       </c>
       <c r="L6">
-        <v>1.042401220995249</v>
+        <v>1.039093757440954</v>
       </c>
       <c r="M6">
-        <v>1.051557844212852</v>
+        <v>1.04620473078579</v>
       </c>
       <c r="N6">
-        <v>1.018100046167089</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017060862644853</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045140320948886</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042689379967281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024229054446769</v>
+        <v>1.021161239798134</v>
       </c>
       <c r="D7">
-        <v>1.038230798905117</v>
+        <v>1.034397832573503</v>
       </c>
       <c r="E7">
-        <v>1.031503774458013</v>
+        <v>1.02844982482655</v>
       </c>
       <c r="F7">
-        <v>1.040750832847446</v>
+        <v>1.035876797310448</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051136945295161</v>
+        <v>1.050101507538044</v>
       </c>
       <c r="J7">
-        <v>1.043026776805832</v>
+        <v>1.040032804357669</v>
       </c>
       <c r="K7">
-        <v>1.047885855460059</v>
+        <v>1.044095233280122</v>
       </c>
       <c r="L7">
-        <v>1.04123340345155</v>
+        <v>1.03821370491135</v>
       </c>
       <c r="M7">
-        <v>1.050378258360828</v>
+        <v>1.045557813719617</v>
       </c>
       <c r="N7">
-        <v>1.017741992743817</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016796775450161</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044628332555027</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042267700544402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017489728997733</v>
+        <v>1.015664038792805</v>
       </c>
       <c r="D8">
-        <v>1.03308469186936</v>
+        <v>1.0307277904584</v>
       </c>
       <c r="E8">
-        <v>1.025394305538945</v>
+        <v>1.023579403459764</v>
       </c>
       <c r="F8">
-        <v>1.034606629515455</v>
+        <v>1.032034848048317</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048946101547127</v>
+        <v>1.048601420317896</v>
       </c>
       <c r="J8">
-        <v>1.038602476051047</v>
+        <v>1.036827416515244</v>
       </c>
       <c r="K8">
-        <v>1.043834409871067</v>
+        <v>1.041507019140026</v>
       </c>
       <c r="L8">
-        <v>1.036240940023878</v>
+        <v>1.034449175233094</v>
       </c>
       <c r="M8">
-        <v>1.045337380396094</v>
+        <v>1.042797690353575</v>
       </c>
       <c r="N8">
-        <v>1.016208072961807</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01566154051625</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042443889120084</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040442190540109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005006358853016</v>
+        <v>1.005530021835294</v>
       </c>
       <c r="D9">
-        <v>1.023581828907702</v>
+        <v>1.023984382736817</v>
       </c>
       <c r="E9">
-        <v>1.014121913197495</v>
+        <v>1.014641018230235</v>
       </c>
       <c r="F9">
-        <v>1.023278099860198</v>
+        <v>1.02502484521287</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044818089313287</v>
+        <v>1.045763865439507</v>
       </c>
       <c r="J9">
-        <v>1.030383559929951</v>
+        <v>1.030889000786406</v>
       </c>
       <c r="K9">
-        <v>1.036303552344605</v>
+        <v>1.036699956355435</v>
       </c>
       <c r="L9">
-        <v>1.026989953137959</v>
+        <v>1.02750093870844</v>
       </c>
       <c r="M9">
-        <v>1.03600446745345</v>
+        <v>1.037724552206297</v>
       </c>
       <c r="N9">
-        <v>1.013353980010475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013551281026279</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038428840052421</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037040109679812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9962235201596092</v>
+        <v>0.9985617138625585</v>
       </c>
       <c r="D10">
-        <v>1.016920260968142</v>
+        <v>1.01939000763412</v>
       </c>
       <c r="E10">
-        <v>1.006224222787203</v>
+        <v>1.008537084158524</v>
       </c>
       <c r="F10">
-        <v>1.015347102091087</v>
+        <v>1.020420366988837</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041869093801918</v>
+        <v>1.043810740575924</v>
       </c>
       <c r="J10">
-        <v>1.024587777245063</v>
+        <v>1.026832512988494</v>
       </c>
       <c r="K10">
-        <v>1.030990590531719</v>
+        <v>1.033417777819618</v>
       </c>
       <c r="L10">
-        <v>1.020481999049</v>
+        <v>1.022753890914802</v>
       </c>
       <c r="M10">
-        <v>1.02944468047485</v>
+        <v>1.034430460431685</v>
       </c>
       <c r="N10">
-        <v>1.011338828677093</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012120798248261</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035873376478064</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034736214061154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9922984084742055</v>
+        <v>0.9962478384681466</v>
       </c>
       <c r="D11">
-        <v>1.013949983287331</v>
+        <v>1.017990313821313</v>
       </c>
       <c r="E11">
-        <v>1.002703316256772</v>
+        <v>1.006606106588556</v>
       </c>
       <c r="F11">
-        <v>1.011812933315766</v>
+        <v>1.020231981864035</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040541203261392</v>
+        <v>1.043444324945192</v>
       </c>
       <c r="J11">
-        <v>1.021995129977284</v>
+        <v>1.025777549143492</v>
       </c>
       <c r="K11">
-        <v>1.028613532670555</v>
+        <v>1.032580751096301</v>
       </c>
       <c r="L11">
-        <v>1.017574431428355</v>
+        <v>1.0214045075396</v>
       </c>
       <c r="M11">
-        <v>1.026515461250085</v>
+        <v>1.034782179262582</v>
       </c>
       <c r="N11">
-        <v>1.0104369214991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011852058233731</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.036588883778424</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034177274831556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9908209090123959</v>
+        <v>0.9956440723853643</v>
       </c>
       <c r="D12">
-        <v>1.012833026163358</v>
+        <v>1.017676806859086</v>
       </c>
       <c r="E12">
-        <v>1.001379334310226</v>
+        <v>1.006143774010084</v>
       </c>
       <c r="F12">
-        <v>1.010484217301577</v>
+        <v>1.020790158062078</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040039916295843</v>
+        <v>1.043479189619239</v>
       </c>
       <c r="J12">
-        <v>1.021018889688414</v>
+        <v>1.025633933862752</v>
       </c>
       <c r="K12">
-        <v>1.027718427430617</v>
+        <v>1.032473006134992</v>
       </c>
       <c r="L12">
-        <v>1.016480156076969</v>
+        <v>1.021154208033348</v>
       </c>
       <c r="M12">
-        <v>1.025413275469563</v>
+        <v>1.035529603959718</v>
       </c>
       <c r="N12">
-        <v>1.010097257892521</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011883996443832</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037506908316732</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034101095509541</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9911387421219117</v>
+        <v>0.9963354069697251</v>
       </c>
       <c r="D13">
-        <v>1.013073248735973</v>
+        <v>1.018198862112886</v>
       </c>
       <c r="E13">
-        <v>1.001664080557328</v>
+        <v>1.006797960967721</v>
       </c>
       <c r="F13">
-        <v>1.010769970019315</v>
+        <v>1.021988106845325</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040147814974571</v>
+        <v>1.043841674709141</v>
       </c>
       <c r="J13">
-        <v>1.021228907139404</v>
+        <v>1.02620248115497</v>
       </c>
       <c r="K13">
-        <v>1.027910992092207</v>
+        <v>1.032942620980698</v>
       </c>
       <c r="L13">
-        <v>1.01671554169069</v>
+        <v>1.021752470996554</v>
       </c>
       <c r="M13">
-        <v>1.025650351702634</v>
+        <v>1.036663173076012</v>
       </c>
       <c r="N13">
-        <v>1.010170331750812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012159679553728</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038680064814099</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034430634305074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9921766837555152</v>
+        <v>0.9974008835658749</v>
       </c>
       <c r="D14">
-        <v>1.013857938713996</v>
+        <v>1.018940200049645</v>
       </c>
       <c r="E14">
-        <v>1.002594211012887</v>
+        <v>1.007756720899427</v>
       </c>
       <c r="F14">
-        <v>1.011703432722656</v>
+        <v>1.023102550687211</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040499933318164</v>
+        <v>1.044240384870093</v>
       </c>
       <c r="J14">
-        <v>1.021914707743284</v>
+        <v>1.0269179992174</v>
       </c>
       <c r="K14">
-        <v>1.028539795093804</v>
+        <v>1.033530070505995</v>
       </c>
       <c r="L14">
-        <v>1.017484274457614</v>
+        <v>1.022550603460178</v>
       </c>
       <c r="M14">
-        <v>1.026424647629187</v>
+        <v>1.037617968565453</v>
       </c>
       <c r="N14">
-        <v>1.010408941269279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012461451821917</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039608178850607</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03484740666826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9928135673664132</v>
+        <v>0.9979535470035896</v>
       </c>
       <c r="D15">
-        <v>1.014339577230037</v>
+        <v>1.019314008933085</v>
       </c>
       <c r="E15">
-        <v>1.003165123526317</v>
+        <v>1.008245250872494</v>
       </c>
       <c r="F15">
-        <v>1.01227642437037</v>
+        <v>1.023547356851497</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040715806121545</v>
+        <v>1.044417650188074</v>
       </c>
       <c r="J15">
-        <v>1.022335477749666</v>
+        <v>1.027260103466</v>
       </c>
       <c r="K15">
-        <v>1.028925589228002</v>
+        <v>1.033810699533441</v>
       </c>
       <c r="L15">
-        <v>1.017955998913467</v>
+        <v>1.022942258047268</v>
       </c>
       <c r="M15">
-        <v>1.026899817626594</v>
+        <v>1.037968919745411</v>
       </c>
       <c r="N15">
-        <v>1.010555331854701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012593330707921</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039923109286546</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035051694320149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9964813448448679</v>
+        <v>1.000765294590389</v>
       </c>
       <c r="D16">
-        <v>1.017115516415623</v>
+        <v>1.021153908327445</v>
       </c>
       <c r="E16">
-        <v>1.006455682096324</v>
+        <v>1.010693696251143</v>
       </c>
       <c r="F16">
-        <v>1.015579467488818</v>
+        <v>1.025310572514933</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04195611505253</v>
+        <v>1.045185453122217</v>
       </c>
       <c r="J16">
-        <v>1.024758031400328</v>
+        <v>1.028871893750083</v>
       </c>
       <c r="K16">
-        <v>1.031146680476069</v>
+        <v>1.035115857196627</v>
       </c>
       <c r="L16">
-        <v>1.020673009154357</v>
+        <v>1.024836401527694</v>
       </c>
       <c r="M16">
-        <v>1.029637145286505</v>
+        <v>1.039202013668779</v>
       </c>
       <c r="N16">
-        <v>1.011398046543473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013147172622138</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040859029637519</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035977651985409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9987485453605521</v>
+        <v>1.002370365483172</v>
       </c>
       <c r="D17">
-        <v>1.018833295960485</v>
+        <v>1.022182898637304</v>
       </c>
       <c r="E17">
-        <v>1.008492024690113</v>
+        <v>1.012077020277977</v>
       </c>
       <c r="F17">
-        <v>1.017623963850796</v>
+        <v>1.026078838553898</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042720217585961</v>
+        <v>1.045566562277874</v>
       </c>
       <c r="J17">
-        <v>1.026254900216066</v>
+        <v>1.029737757806756</v>
       </c>
       <c r="K17">
-        <v>1.032518975258678</v>
+        <v>1.035812848004877</v>
       </c>
       <c r="L17">
-        <v>1.022352778443916</v>
+        <v>1.025876558086195</v>
       </c>
       <c r="M17">
-        <v>1.031329879931858</v>
+        <v>1.039644556733015</v>
       </c>
       <c r="N17">
-        <v>1.011918636893179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013415339156735</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041079800879688</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036473035803472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000059271582197</v>
+        <v>1.003055280650469</v>
       </c>
       <c r="D18">
-        <v>1.019827027346666</v>
+        <v>1.022576488491241</v>
       </c>
       <c r="E18">
-        <v>1.009670097979942</v>
+        <v>1.012636579726873</v>
       </c>
       <c r="F18">
-        <v>1.018806903715079</v>
+        <v>1.025948147149428</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043161017379625</v>
+        <v>1.045623859538063</v>
       </c>
       <c r="J18">
-        <v>1.027120039895212</v>
+        <v>1.030003358002054</v>
       </c>
       <c r="K18">
-        <v>1.033312077143316</v>
+        <v>1.036016578300714</v>
       </c>
       <c r="L18">
-        <v>1.023323974793174</v>
+        <v>1.026240696950778</v>
       </c>
       <c r="M18">
-        <v>1.032308714257659</v>
+        <v>1.039333524872353</v>
       </c>
       <c r="N18">
-        <v>1.012219475986881</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01344564177339</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040596204857451</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036605447048238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000504246658022</v>
+        <v>1.002911181054164</v>
       </c>
       <c r="D19">
-        <v>1.020164492347555</v>
+        <v>1.022408449857868</v>
       </c>
       <c r="E19">
-        <v>1.010070174775376</v>
+        <v>1.012453621367726</v>
       </c>
       <c r="F19">
-        <v>1.019208658140953</v>
+        <v>1.024956345699355</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043310501020879</v>
+        <v>1.045394597449875</v>
       </c>
       <c r="J19">
-        <v>1.027413701772105</v>
+        <v>1.029730669896433</v>
       </c>
       <c r="K19">
-        <v>1.033581279676149</v>
+        <v>1.035788746962002</v>
       </c>
       <c r="L19">
-        <v>1.023653695277533</v>
+        <v>1.025997387091043</v>
       </c>
       <c r="M19">
-        <v>1.032641051534334</v>
+        <v>1.038295458637854</v>
       </c>
       <c r="N19">
-        <v>1.012321584512041</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013271984086304</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039449685636107</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036450756695554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.998506514042667</v>
+        <v>1.000414290537432</v>
       </c>
       <c r="D20">
-        <v>1.018649850160994</v>
+        <v>1.020629896167421</v>
       </c>
       <c r="E20">
-        <v>1.008274553489175</v>
+        <v>1.010162743801946</v>
       </c>
       <c r="F20">
-        <v>1.017405606263482</v>
+        <v>1.021641323000642</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042638744978069</v>
+        <v>1.044350632109295</v>
       </c>
       <c r="J20">
-        <v>1.026095128711709</v>
+        <v>1.027929251315369</v>
       </c>
       <c r="K20">
-        <v>1.032372504288964</v>
+        <v>1.034319440590893</v>
       </c>
       <c r="L20">
-        <v>1.022173448740088</v>
+        <v>1.024029216874059</v>
       </c>
       <c r="M20">
-        <v>1.031149151270036</v>
+        <v>1.035314018445401</v>
       </c>
       <c r="N20">
-        <v>1.011863075109371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012515505993197</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036562039532032</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035415828254342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9918715852780211</v>
+        <v>0.9950187940144367</v>
       </c>
       <c r="D21">
-        <v>1.013627250814559</v>
+        <v>1.017056839992054</v>
       </c>
       <c r="E21">
-        <v>1.00232076501544</v>
+        <v>1.005430390064403</v>
       </c>
       <c r="F21">
-        <v>1.011429000004175</v>
+        <v>1.017833821488763</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040396468765885</v>
+        <v>1.04276737373231</v>
       </c>
       <c r="J21">
-        <v>1.021713127628246</v>
+        <v>1.02472626385912</v>
       </c>
       <c r="K21">
-        <v>1.028354969576478</v>
+        <v>1.031722113861884</v>
       </c>
       <c r="L21">
-        <v>1.017258302781192</v>
+        <v>1.020309607246026</v>
       </c>
       <c r="M21">
-        <v>1.026197033987389</v>
+        <v>1.032485024351253</v>
       </c>
       <c r="N21">
-        <v>1.010338807312343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011366233925105</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.03428208101523</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033582658755949</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9875862322282567</v>
+        <v>0.9915809602436521</v>
       </c>
       <c r="D22">
-        <v>1.010389857344626</v>
+        <v>1.014785776958741</v>
       </c>
       <c r="E22">
-        <v>0.9984833463743999</v>
+        <v>1.002425888071874</v>
       </c>
       <c r="F22">
-        <v>1.007578356870052</v>
+        <v>1.015507408143372</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038939870898331</v>
+        <v>1.041761841282068</v>
       </c>
       <c r="J22">
-        <v>1.018881115610872</v>
+        <v>1.022695173109944</v>
       </c>
       <c r="K22">
-        <v>1.02575826127521</v>
+        <v>1.030069907163472</v>
       </c>
       <c r="L22">
-        <v>1.014084908462219</v>
+        <v>1.017949440342848</v>
       </c>
       <c r="M22">
-        <v>1.023001165254545</v>
+        <v>1.030777795211433</v>
       </c>
       <c r="N22">
-        <v>1.009353368420111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010639854185086</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.032930910530639</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032400947767052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9898691837307715</v>
+        <v>0.9933951411849925</v>
       </c>
       <c r="D23">
-        <v>1.012113871416051</v>
+        <v>1.015976438308434</v>
       </c>
       <c r="E23">
-        <v>1.000526890704537</v>
+        <v>1.004008905506465</v>
       </c>
       <c r="F23">
-        <v>1.009628798891728</v>
+        <v>1.016736918569173</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039716616186545</v>
+        <v>1.042287342931752</v>
       </c>
       <c r="J23">
-        <v>1.02038996906289</v>
+        <v>1.023761404675946</v>
       </c>
       <c r="K23">
-        <v>1.027141766013247</v>
+        <v>1.030932265815721</v>
       </c>
       <c r="L23">
-        <v>1.015775347339966</v>
+        <v>1.019190380497943</v>
       </c>
       <c r="M23">
-        <v>1.024703440447418</v>
+        <v>1.031678641294696</v>
       </c>
       <c r="N23">
-        <v>1.009878422549279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011018453953235</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033643877034711</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033001018408164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9986159136254233</v>
+        <v>1.00040377734184</v>
       </c>
       <c r="D24">
-        <v>1.018732766767946</v>
+        <v>1.020601033368196</v>
       </c>
       <c r="E24">
-        <v>1.00837284924109</v>
+        <v>1.010142402077328</v>
       </c>
       <c r="F24">
-        <v>1.017504302194762</v>
+        <v>1.021506338109239</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042675574019912</v>
+        <v>1.04431122153729</v>
       </c>
       <c r="J24">
-        <v>1.026167347117229</v>
+        <v>1.027886293041842</v>
       </c>
       <c r="K24">
-        <v>1.0324387108322</v>
+        <v>1.034275779056344</v>
       </c>
       <c r="L24">
-        <v>1.022254506583299</v>
+        <v>1.02399371647734</v>
       </c>
       <c r="M24">
-        <v>1.031230841009813</v>
+        <v>1.035166018881166</v>
       </c>
       <c r="N24">
-        <v>1.011888189760955</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012487165316889</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036403923756891</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.03535753554783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00831074445219</v>
+        <v>1.00822854218695</v>
       </c>
       <c r="D25">
-        <v>1.026093419019002</v>
+        <v>1.025787922539737</v>
       </c>
       <c r="E25">
-        <v>1.017100288182511</v>
+        <v>1.017018738305296</v>
       </c>
       <c r="F25">
-        <v>1.026270318606473</v>
+        <v>1.026877972804628</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045918663883659</v>
+        <v>1.046536472597441</v>
       </c>
       <c r="J25">
-        <v>1.032561619746675</v>
+        <v>1.032482121255589</v>
       </c>
       <c r="K25">
-        <v>1.038299735473996</v>
+        <v>1.037998682094686</v>
       </c>
       <c r="L25">
-        <v>1.029438819735929</v>
+        <v>1.029358482388187</v>
       </c>
       <c r="M25">
-        <v>1.038474063791042</v>
+        <v>1.039072894171108</v>
       </c>
       <c r="N25">
-        <v>1.014110804964675</v>
+        <v>1.014121982530452</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039495964596881</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037986953501251</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_51/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014200450512101</v>
+        <v>1.013518776812016</v>
       </c>
       <c r="D2">
-        <v>1.029742714856591</v>
+        <v>1.028590924687864</v>
       </c>
       <c r="E2">
-        <v>1.022283231196981</v>
+        <v>1.021605867350859</v>
       </c>
       <c r="F2">
-        <v>1.031020738416818</v>
+        <v>1.030697059553898</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048189528111057</v>
+        <v>1.047724307021703</v>
       </c>
       <c r="J2">
-        <v>1.03596456837856</v>
+        <v>1.035302527361478</v>
       </c>
       <c r="K2">
-        <v>1.040802672370348</v>
+        <v>1.039665809848219</v>
       </c>
       <c r="L2">
-        <v>1.033440614424084</v>
+        <v>1.032772185758256</v>
       </c>
       <c r="M2">
-        <v>1.042064181083612</v>
+        <v>1.041744680011241</v>
       </c>
       <c r="N2">
-        <v>1.015352373972706</v>
+        <v>1.016201884887696</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04186336704106</v>
+        <v>1.041610503797158</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039921304319708</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039126206273258</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022460150485282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018439937146643</v>
+        <v>1.017512951662306</v>
       </c>
       <c r="D3">
-        <v>1.032570625733499</v>
+        <v>1.031145115166389</v>
       </c>
       <c r="E3">
-        <v>1.0260347630853</v>
+        <v>1.025112631403503</v>
       </c>
       <c r="F3">
-        <v>1.033975380919574</v>
+        <v>1.033537499759278</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049355145004452</v>
+        <v>1.048742459235745</v>
       </c>
       <c r="J3">
-        <v>1.038440228960327</v>
+        <v>1.037537320195959</v>
       </c>
       <c r="K3">
-        <v>1.042803053589223</v>
+        <v>1.041394413401621</v>
       </c>
       <c r="L3">
-        <v>1.036345018326529</v>
+        <v>1.035433966284389</v>
       </c>
       <c r="M3">
-        <v>1.044191240369956</v>
+        <v>1.043758517822997</v>
       </c>
       <c r="N3">
-        <v>1.016230129136718</v>
+        <v>1.016826928097853</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043546786722675</v>
+        <v>1.043204317199074</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041333084392889</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040345537908252</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.0228351026638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021130642295045</v>
+        <v>1.020050105043046</v>
       </c>
       <c r="D4">
-        <v>1.034369542357887</v>
+        <v>1.032771720409903</v>
       </c>
       <c r="E4">
-        <v>1.028420984196985</v>
+        <v>1.027345387893888</v>
       </c>
       <c r="F4">
-        <v>1.035858732401016</v>
+        <v>1.035349420271512</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050086934722409</v>
+        <v>1.049381474227408</v>
       </c>
       <c r="J4">
-        <v>1.040008845200102</v>
+        <v>1.038954470257753</v>
       </c>
       <c r="K4">
-        <v>1.044070125370264</v>
+        <v>1.042490076438841</v>
       </c>
       <c r="L4">
-        <v>1.038188079441665</v>
+        <v>1.037124610944083</v>
       </c>
       <c r="M4">
-        <v>1.045542811433642</v>
+        <v>1.04503913719796</v>
       </c>
       <c r="N4">
-        <v>1.016785877252784</v>
+        <v>1.017223152914261</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044616459318951</v>
+        <v>1.044217837082702</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042229902689324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041121237435379</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023070294636666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022254374723406</v>
+        <v>1.021110026888272</v>
       </c>
       <c r="D5">
-        <v>1.03512415737927</v>
+        <v>1.033454606219981</v>
       </c>
       <c r="E5">
-        <v>1.029419285661141</v>
+        <v>1.028279861626567</v>
       </c>
       <c r="F5">
-        <v>1.03664615420295</v>
+        <v>1.036107168991359</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05039250064349</v>
+        <v>1.049648376248577</v>
       </c>
       <c r="J5">
-        <v>1.040665151007033</v>
+        <v>1.039547681191545</v>
       </c>
       <c r="K5">
-        <v>1.044601920029232</v>
+        <v>1.042950446869637</v>
       </c>
       <c r="L5">
-        <v>1.038959118330864</v>
+        <v>1.037832192785446</v>
       </c>
       <c r="M5">
-        <v>1.046107498774899</v>
+        <v>1.045574320940185</v>
       </c>
       <c r="N5">
-        <v>1.017019013970546</v>
+        <v>1.017389498549577</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045063368818685</v>
+        <v>1.044641396838948</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042613069941406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041454614416906</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023169164228889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022448104910949</v>
+        <v>1.021292575582264</v>
       </c>
       <c r="D6">
-        <v>1.035257194679968</v>
+        <v>1.033575181981577</v>
       </c>
       <c r="E6">
-        <v>1.029592080588977</v>
+        <v>1.028441471250358</v>
       </c>
       <c r="F6">
-        <v>1.036780765263607</v>
+        <v>1.036236578051913</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.050447379424015</v>
+        <v>1.049696466792533</v>
       </c>
       <c r="J6">
-        <v>1.040780517872906</v>
+        <v>1.039651989255368</v>
       </c>
       <c r="K6">
-        <v>1.044697519884931</v>
+        <v>1.043033636853253</v>
       </c>
       <c r="L6">
-        <v>1.039093757440954</v>
+        <v>1.037955710268001</v>
       </c>
       <c r="M6">
-        <v>1.04620473078579</v>
+        <v>1.045666380140225</v>
       </c>
       <c r="N6">
-        <v>1.017060862644853</v>
+        <v>1.017419382985198</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045140320948886</v>
+        <v>1.044714255104288</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042689379967281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04152302064766</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023187782476926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021161239798134</v>
+        <v>1.020088618291099</v>
       </c>
       <c r="D7">
-        <v>1.034397832573503</v>
+        <v>1.032805433292527</v>
       </c>
       <c r="E7">
-        <v>1.02844982482655</v>
+        <v>1.027382103656241</v>
       </c>
       <c r="F7">
-        <v>1.035876797310448</v>
+        <v>1.035371154415765</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050101507538044</v>
+        <v>1.049399984519003</v>
       </c>
       <c r="J7">
-        <v>1.040032804357669</v>
+        <v>1.038986141687034</v>
       </c>
       <c r="K7">
-        <v>1.044095233280122</v>
+        <v>1.042520539490821</v>
       </c>
       <c r="L7">
-        <v>1.03821370491135</v>
+        <v>1.037158017788953</v>
       </c>
       <c r="M7">
-        <v>1.045557813719617</v>
+        <v>1.045057765973801</v>
       </c>
       <c r="N7">
-        <v>1.016796775450161</v>
+        <v>1.017260236604543</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044628332555027</v>
+        <v>1.044232580434075</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042267700544402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041164825243675</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023079946225333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015664038792805</v>
+        <v>1.014928111195364</v>
       </c>
       <c r="D8">
-        <v>1.0307277904584</v>
+        <v>1.029504724139214</v>
       </c>
       <c r="E8">
-        <v>1.023579403459764</v>
+        <v>1.022847851609072</v>
       </c>
       <c r="F8">
-        <v>1.032034848048317</v>
+        <v>1.031685947122233</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048601420317896</v>
+        <v>1.048101345564408</v>
       </c>
       <c r="J8">
-        <v>1.036827416515244</v>
+        <v>1.036111968229493</v>
       </c>
       <c r="K8">
-        <v>1.041507019140026</v>
+        <v>1.040299333220106</v>
       </c>
       <c r="L8">
-        <v>1.034449175233094</v>
+        <v>1.033726978592036</v>
       </c>
       <c r="M8">
-        <v>1.042797690353575</v>
+        <v>1.042453158478956</v>
       </c>
       <c r="N8">
-        <v>1.01566154051625</v>
+        <v>1.016511281594354</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042443889120084</v>
+        <v>1.042171215923049</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040442190540109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039599283642831</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022603850128832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005530021835294</v>
+        <v>1.005399802215886</v>
       </c>
       <c r="D9">
-        <v>1.023984382736817</v>
+        <v>1.023428796361175</v>
       </c>
       <c r="E9">
-        <v>1.014641018230235</v>
+        <v>1.014511931034946</v>
       </c>
       <c r="F9">
-        <v>1.02502484521287</v>
+        <v>1.024958365487467</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045763865439507</v>
+        <v>1.045624592339451</v>
       </c>
       <c r="J9">
-        <v>1.030889000786406</v>
+        <v>1.030763309997312</v>
       </c>
       <c r="K9">
-        <v>1.036699956355435</v>
+        <v>1.036152859296417</v>
       </c>
       <c r="L9">
-        <v>1.02750093870844</v>
+        <v>1.027373869608307</v>
       </c>
       <c r="M9">
-        <v>1.037724552206297</v>
+        <v>1.037659085041153</v>
       </c>
       <c r="N9">
-        <v>1.013551281026279</v>
+        <v>1.015022923001386</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038428840052421</v>
+        <v>1.038377027029335</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037040109679812</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03666401260415</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021688839961337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9985617138625585</v>
+        <v>0.9989029466980431</v>
       </c>
       <c r="D10">
-        <v>1.01939000763412</v>
+        <v>1.019332693217139</v>
       </c>
       <c r="E10">
-        <v>1.008537084158524</v>
+        <v>1.00887464168176</v>
       </c>
       <c r="F10">
-        <v>1.020420366988837</v>
+        <v>1.02057407122656</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043810740575924</v>
+        <v>1.043945510720847</v>
       </c>
       <c r="J10">
-        <v>1.026832512988494</v>
+        <v>1.0271601585038</v>
       </c>
       <c r="K10">
-        <v>1.033417777819618</v>
+        <v>1.033361448039368</v>
       </c>
       <c r="L10">
-        <v>1.022753890914802</v>
+        <v>1.023085489388718</v>
       </c>
       <c r="M10">
-        <v>1.034430460431685</v>
+        <v>1.034581531688158</v>
       </c>
       <c r="N10">
-        <v>1.012120798248261</v>
+        <v>1.014142901919628</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035873376478064</v>
+        <v>1.035992932512582</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034736214061154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03470880643181</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.0210729453449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9962478384681466</v>
+        <v>0.9967743544956307</v>
       </c>
       <c r="D11">
-        <v>1.017990313821313</v>
+        <v>1.018112686031506</v>
       </c>
       <c r="E11">
-        <v>1.006606106588556</v>
+        <v>1.00712646510072</v>
       </c>
       <c r="F11">
-        <v>1.020231981864035</v>
+        <v>1.020470565926612</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043444324945192</v>
+        <v>1.043676431594354</v>
       </c>
       <c r="J11">
-        <v>1.025777549143492</v>
+        <v>1.02628194251594</v>
       </c>
       <c r="K11">
-        <v>1.032580751096301</v>
+        <v>1.032700920677166</v>
       </c>
       <c r="L11">
-        <v>1.0214045075396</v>
+        <v>1.021915226588513</v>
       </c>
       <c r="M11">
-        <v>1.034782179262582</v>
+        <v>1.035016494053787</v>
       </c>
       <c r="N11">
-        <v>1.011852058233731</v>
+        <v>1.014204025694293</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036588883778424</v>
+        <v>1.036774223991642</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034177274831556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034277869507214</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020993358232781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9956440723853643</v>
+        <v>0.9962086358556161</v>
       </c>
       <c r="D12">
-        <v>1.017676806859086</v>
+        <v>1.017833984630249</v>
       </c>
       <c r="E12">
-        <v>1.006143774010084</v>
+        <v>1.006701543582602</v>
       </c>
       <c r="F12">
-        <v>1.020790158062078</v>
+        <v>1.021044787554658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043479189619239</v>
+        <v>1.043725796460769</v>
       </c>
       <c r="J12">
-        <v>1.025633933862752</v>
+        <v>1.026174324297195</v>
       </c>
       <c r="K12">
-        <v>1.032473006134992</v>
+        <v>1.032627307872475</v>
       </c>
       <c r="L12">
-        <v>1.021154208033348</v>
+        <v>1.021701469054998</v>
       </c>
       <c r="M12">
-        <v>1.035529603959718</v>
+        <v>1.035779611719563</v>
       </c>
       <c r="N12">
-        <v>1.011883996443832</v>
+        <v>1.014333181757361</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037506908316732</v>
+        <v>1.037704594367767</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034101095509541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034225823875826</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021024078560306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9963354069697251</v>
+        <v>0.9968095643830981</v>
       </c>
       <c r="D13">
-        <v>1.018198862112886</v>
+        <v>1.01826812306846</v>
       </c>
       <c r="E13">
-        <v>1.006797960967721</v>
+        <v>1.007266459834251</v>
       </c>
       <c r="F13">
-        <v>1.021988106845325</v>
+        <v>1.022199088624362</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043841674709141</v>
+        <v>1.044031152742428</v>
       </c>
       <c r="J13">
-        <v>1.02620248115497</v>
+        <v>1.026656448191053</v>
       </c>
       <c r="K13">
-        <v>1.032942620980698</v>
+        <v>1.033010620382222</v>
       </c>
       <c r="L13">
-        <v>1.021752470996554</v>
+        <v>1.022212186711433</v>
       </c>
       <c r="M13">
-        <v>1.036663173076012</v>
+        <v>1.036870349566017</v>
       </c>
       <c r="N13">
-        <v>1.012159679553728</v>
+        <v>1.014492182010054</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038680064814099</v>
+        <v>1.038843842161186</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034430634305074</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034494096423222</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02114640674585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9974008835658749</v>
+        <v>0.9977551881779613</v>
       </c>
       <c r="D14">
-        <v>1.018940200049645</v>
+        <v>1.018894025714522</v>
       </c>
       <c r="E14">
-        <v>1.007756720899427</v>
+        <v>1.008106892151602</v>
       </c>
       <c r="F14">
-        <v>1.023102550687211</v>
+        <v>1.02325698642262</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044240384870093</v>
+        <v>1.04435879581025</v>
       </c>
       <c r="J14">
-        <v>1.0269179992174</v>
+        <v>1.027257441052715</v>
       </c>
       <c r="K14">
-        <v>1.033530070505995</v>
+        <v>1.033484726531176</v>
       </c>
       <c r="L14">
-        <v>1.022550603460178</v>
+        <v>1.022894297302657</v>
       </c>
       <c r="M14">
-        <v>1.037617968565453</v>
+        <v>1.037769657010734</v>
       </c>
       <c r="N14">
-        <v>1.012461451821917</v>
+        <v>1.014617723219392</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039608178850607</v>
+        <v>1.039728075576855</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03484740666826</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034830862438834</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021273602962896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9979535470035896</v>
+        <v>0.9982509744018904</v>
       </c>
       <c r="D15">
-        <v>1.019314008933085</v>
+        <v>1.019213063806427</v>
       </c>
       <c r="E15">
-        <v>1.008245250872494</v>
+        <v>1.008539255646315</v>
       </c>
       <c r="F15">
-        <v>1.023547356851497</v>
+        <v>1.023675264421797</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044417650188074</v>
+        <v>1.044503449462022</v>
       </c>
       <c r="J15">
-        <v>1.027260103466</v>
+        <v>1.02754516581619</v>
       </c>
       <c r="K15">
-        <v>1.033810699533441</v>
+        <v>1.033711555734835</v>
       </c>
       <c r="L15">
-        <v>1.022942258047268</v>
+        <v>1.02323086804061</v>
       </c>
       <c r="M15">
-        <v>1.037968919745411</v>
+        <v>1.038094569925667</v>
       </c>
       <c r="N15">
-        <v>1.012593330707921</v>
+        <v>1.014662063804484</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039923109286546</v>
+        <v>1.040022422387854</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035051694320149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03499767861763</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021328454109223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000765294590389</v>
+        <v>1.000810374046501</v>
       </c>
       <c r="D16">
-        <v>1.021153908327445</v>
+        <v>1.020806534453234</v>
       </c>
       <c r="E16">
-        <v>1.010693696251143</v>
+        <v>1.010738296903467</v>
       </c>
       <c r="F16">
-        <v>1.025310572514933</v>
+        <v>1.025322049943736</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045185453122217</v>
+        <v>1.045131119885474</v>
       </c>
       <c r="J16">
-        <v>1.028871893750083</v>
+        <v>1.028915194351617</v>
       </c>
       <c r="K16">
-        <v>1.035115857196627</v>
+        <v>1.034774409258648</v>
       </c>
       <c r="L16">
-        <v>1.024836401527694</v>
+        <v>1.024880221174846</v>
       </c>
       <c r="M16">
-        <v>1.039202013668779</v>
+        <v>1.039213297431844</v>
       </c>
       <c r="N16">
-        <v>1.013147172622138</v>
+        <v>1.014821083937083</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040859029637519</v>
+        <v>1.04086794850721</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035977651985409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035752613690822</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021553312974237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002370365483172</v>
+        <v>1.002296301055906</v>
       </c>
       <c r="D17">
-        <v>1.022182898637304</v>
+        <v>1.021715281625091</v>
       </c>
       <c r="E17">
-        <v>1.012077020277977</v>
+        <v>1.012003703019632</v>
       </c>
       <c r="F17">
-        <v>1.026078838553898</v>
+        <v>1.026035752858867</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045566562277874</v>
+        <v>1.04544732581995</v>
       </c>
       <c r="J17">
-        <v>1.029737757806756</v>
+        <v>1.029666520908669</v>
       </c>
       <c r="K17">
-        <v>1.035812848004877</v>
+        <v>1.035352982843987</v>
       </c>
       <c r="L17">
-        <v>1.025876558086195</v>
+        <v>1.025804487154923</v>
       </c>
       <c r="M17">
-        <v>1.039644556733015</v>
+        <v>1.039602177948906</v>
       </c>
       <c r="N17">
-        <v>1.013415339156735</v>
+        <v>1.014908832036939</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041079800879688</v>
+        <v>1.041046300666114</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036473035803472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036164517705658</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021661986651003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003055280650469</v>
+        <v>1.002952960076409</v>
       </c>
       <c r="D18">
-        <v>1.022576488491241</v>
+        <v>1.022077421036417</v>
       </c>
       <c r="E18">
-        <v>1.012636579726873</v>
+        <v>1.012535261133652</v>
       </c>
       <c r="F18">
-        <v>1.025948147149428</v>
+        <v>1.025892654990248</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045623859538063</v>
+        <v>1.045492252933885</v>
       </c>
       <c r="J18">
-        <v>1.030003358002054</v>
+        <v>1.029904870451314</v>
       </c>
       <c r="K18">
-        <v>1.036016578300714</v>
+        <v>1.035525648651414</v>
       </c>
       <c r="L18">
-        <v>1.026240696950778</v>
+        <v>1.026141071672546</v>
       </c>
       <c r="M18">
-        <v>1.039333524872353</v>
+        <v>1.039278929451053</v>
       </c>
       <c r="N18">
-        <v>1.01344564177339</v>
+        <v>1.014890758336763</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040596204857451</v>
+        <v>1.040553038466084</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036605447048238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036273830240479</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021666933877549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002911181054164</v>
+        <v>1.002851940944707</v>
       </c>
       <c r="D19">
-        <v>1.022408449857868</v>
+        <v>1.021950287561653</v>
       </c>
       <c r="E19">
-        <v>1.012453621367726</v>
+        <v>1.012394956343412</v>
       </c>
       <c r="F19">
-        <v>1.024956345699355</v>
+        <v>1.024921581736634</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045394597449875</v>
+        <v>1.045292212159394</v>
       </c>
       <c r="J19">
-        <v>1.029730669896433</v>
+        <v>1.029673636767628</v>
       </c>
       <c r="K19">
-        <v>1.035788746962002</v>
+        <v>1.035338018373736</v>
       </c>
       <c r="L19">
-        <v>1.025997387091043</v>
+        <v>1.025939697678196</v>
       </c>
       <c r="M19">
-        <v>1.038295458637854</v>
+        <v>1.038261254831441</v>
       </c>
       <c r="N19">
-        <v>1.013271984086304</v>
+        <v>1.014762822612027</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039449685636107</v>
+        <v>1.039422633227148</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036450756695554</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.03614818878717</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021583350622022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000414290537432</v>
+        <v>1.000597672560934</v>
       </c>
       <c r="D20">
-        <v>1.020629896167421</v>
+        <v>1.020415495181199</v>
       </c>
       <c r="E20">
-        <v>1.010162743801946</v>
+        <v>1.010344251796323</v>
       </c>
       <c r="F20">
-        <v>1.021641323000642</v>
+        <v>1.021721048456053</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044350632109295</v>
+        <v>1.044394886150322</v>
       </c>
       <c r="J20">
-        <v>1.027929251315369</v>
+        <v>1.028105574358841</v>
       </c>
       <c r="K20">
-        <v>1.034319440590893</v>
+        <v>1.03410861675787</v>
       </c>
       <c r="L20">
-        <v>1.024029216874059</v>
+        <v>1.024207616438595</v>
       </c>
       <c r="M20">
-        <v>1.035314018445401</v>
+        <v>1.035392417611189</v>
       </c>
       <c r="N20">
-        <v>1.012515505993197</v>
+        <v>1.014309308585904</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036562039532032</v>
+        <v>1.036624084462196</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035415828254342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035283276754194</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021241728736997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9950187940144367</v>
+        <v>0.9957257801151029</v>
       </c>
       <c r="D21">
-        <v>1.017056839992054</v>
+        <v>1.017351360322483</v>
       </c>
       <c r="E21">
-        <v>1.005430390064403</v>
+        <v>1.006129003799661</v>
       </c>
       <c r="F21">
-        <v>1.017833821488763</v>
+        <v>1.018160033469853</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04276737373231</v>
+        <v>1.043110615682115</v>
       </c>
       <c r="J21">
-        <v>1.02472626385912</v>
+        <v>1.025403298089344</v>
       </c>
       <c r="K21">
-        <v>1.031722113861884</v>
+        <v>1.032011297187817</v>
       </c>
       <c r="L21">
-        <v>1.020309607246026</v>
+        <v>1.020995183290298</v>
       </c>
       <c r="M21">
-        <v>1.032485024351253</v>
+        <v>1.032805337009874</v>
       </c>
       <c r="N21">
-        <v>1.011366233925105</v>
+        <v>1.013979117618218</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03428208101523</v>
+        <v>1.034535589174486</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033582658755949</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033803966433352</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020777934928756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9915809602436521</v>
+        <v>0.9926233347779141</v>
       </c>
       <c r="D22">
-        <v>1.014785776958741</v>
+        <v>1.015406151615978</v>
       </c>
       <c r="E22">
-        <v>1.002425888071874</v>
+        <v>1.003454792440279</v>
       </c>
       <c r="F22">
-        <v>1.015507408143372</v>
+        <v>1.015992207863679</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041761841282068</v>
+        <v>1.042296970433692</v>
       </c>
       <c r="J22">
-        <v>1.022695173109944</v>
+        <v>1.023690746503831</v>
       </c>
       <c r="K22">
-        <v>1.030069907163472</v>
+        <v>1.03067846552743</v>
       </c>
       <c r="L22">
-        <v>1.017949440342848</v>
+        <v>1.01895811849636</v>
       </c>
       <c r="M22">
-        <v>1.030777795211433</v>
+        <v>1.03125337647919</v>
       </c>
       <c r="N22">
-        <v>1.010639854185086</v>
+        <v>1.013766672765779</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.032930910530639</v>
+        <v>1.033307305123961</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032400947767052</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032846778216066</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020482936045715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9933951411849925</v>
+        <v>0.9942431268630608</v>
       </c>
       <c r="D23">
-        <v>1.015976438308434</v>
+        <v>1.016411127898331</v>
       </c>
       <c r="E23">
-        <v>1.004008905506465</v>
+        <v>1.004846422674594</v>
       </c>
       <c r="F23">
-        <v>1.016736918569173</v>
+        <v>1.017129593538272</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.042287342931752</v>
+        <v>1.042711647301819</v>
       </c>
       <c r="J23">
-        <v>1.023761404675946</v>
+        <v>1.024572461626592</v>
       </c>
       <c r="K23">
-        <v>1.030932265815721</v>
+        <v>1.031358889759586</v>
       </c>
       <c r="L23">
-        <v>1.019190380497943</v>
+        <v>1.020011877421309</v>
       </c>
       <c r="M23">
-        <v>1.031678641294696</v>
+        <v>1.032064044006826</v>
       </c>
       <c r="N23">
-        <v>1.011018453953235</v>
+        <v>1.013828631442353</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033643877034711</v>
+        <v>1.033948900312678</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033001018408164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033317271082182</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020629621245956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.00040377734184</v>
+        <v>1.000592452627782</v>
       </c>
       <c r="D24">
-        <v>1.020601033368196</v>
+        <v>1.020391476089882</v>
       </c>
       <c r="E24">
-        <v>1.010142402077328</v>
+        <v>1.01032915340186</v>
       </c>
       <c r="F24">
-        <v>1.021506338109239</v>
+        <v>1.021588687458634</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04431122153729</v>
+        <v>1.044359238854473</v>
       </c>
       <c r="J24">
-        <v>1.027886293041842</v>
+        <v>1.028067715630895</v>
       </c>
       <c r="K24">
-        <v>1.034275779056344</v>
+        <v>1.034069713868592</v>
       </c>
       <c r="L24">
-        <v>1.02399371647734</v>
+        <v>1.024177273543714</v>
       </c>
       <c r="M24">
-        <v>1.035166018881166</v>
+        <v>1.035246999584748</v>
       </c>
       <c r="N24">
-        <v>1.012487165316889</v>
+        <v>1.014285701413826</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036403923756891</v>
+        <v>1.036468014918231</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03535753554783</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035225680516223</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021224296683827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00822854218695</v>
+        <v>1.007920821328525</v>
       </c>
       <c r="D25">
-        <v>1.025787922539737</v>
+        <v>1.02504269868988</v>
       </c>
       <c r="E25">
-        <v>1.017018738305296</v>
+        <v>1.01671346181271</v>
       </c>
       <c r="F25">
-        <v>1.026877972804628</v>
+        <v>1.026728611012276</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046536472597441</v>
+        <v>1.046292721345282</v>
       </c>
       <c r="J25">
-        <v>1.032482121255589</v>
+        <v>1.032184527306921</v>
       </c>
       <c r="K25">
-        <v>1.037998682094686</v>
+        <v>1.037264310773691</v>
       </c>
       <c r="L25">
-        <v>1.029358482388187</v>
+        <v>1.029057747114147</v>
       </c>
       <c r="M25">
-        <v>1.039072894171108</v>
+        <v>1.03892570005144</v>
       </c>
       <c r="N25">
-        <v>1.014121982530452</v>
+        <v>1.015390226036824</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039495964596881</v>
+        <v>1.039379470148227</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037986953501251</v>
+        <v>1.037481241961416</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021938539089567</v>
       </c>
     </row>
   </sheetData>
